--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="19" activeTab="20"/>
+    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="687">
   <si>
     <t>id</t>
   </si>
@@ -560,7 +560,8 @@
     <t>输入正确的楼盘关键字</t>
   </si>
   <si>
-    <t>有效的clentkey</t>
+    <t>1.有效的clentkey
+2.获取的楼盘存在楼盘字典中</t>
   </si>
   <si>
     <t>http://hft.myfun7.com/erpWeb/managerCenter/buildRule/getHouseFloorMenu</t>
@@ -569,55 +570,16 @@
     <t>{"Content-Type":"application/json;charset=utf-8","SOAPAction":"http://ws.haofang.net"}</t>
   </si>
   <si>
-    <t>{"para":"建发鹭洲国际"}</t>
-  </si>
-  <si>
-    <t>managercenter_getHouseFloorMenu_test_002</t>
-  </si>
-  <si>
-    <t>不输入关键字，搜搜楼盘成功</t>
-  </si>
-  <si>
-    <t>{"para":""}</t>
-  </si>
-  <si>
-    <t>get_Building_Rule_List_test_003</t>
-  </si>
-  <si>
-    <t>输入楼盘id和用途搜搜成功</t>
-  </si>
-  <si>
-    <t>http://hft.myfun7.com/erpWeb/businesstools/buildDic/getBuildingRuleList</t>
-  </si>
-  <si>
-    <t>{"buildId":"2036383","houseUseage":"1","isLock":"1"}</t>
-  </si>
-  <si>
-    <t>soso_createfunsale_test_004</t>
-  </si>
-  <si>
-    <t>正确输入楼盘各信息，转入系统成功</t>
-  </si>
-  <si>
-    <t>有效的clentkey以及存在已查看电话的房源</t>
-  </si>
-  <si>
-    <t>http://hft.myfun7.com/houseWeb/funSale/createFunSale</t>
-  </si>
-  <si>
-    <t>{"buildCode":"RSXSLHF","buildId":"2035037","buildName":"瑞升橡树林华府","checkCodeFun":"","effectiveDate":"","fromSoso":"1","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"卖点房子面中庭，房间的阳台可以看到很漂流的江景！如果不想装修完全可以拎包入住！","onlyTextFitment":"","onlyTextLayout":"","onlyTextRights":"","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"魏姐","ownerSex":"1","ownerType":"0","phone":"18608006523","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[{"isTop":"1","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/021a2d92fdd246e080cf6ca9aa34e780.jpg","photoSeq":"1","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/1a66706f352247268c923db170de81c5.jpg","photoSeq":"2","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/003d8561139e4913870c99b84ee29435.jpg","photoSeq":"3","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/eb5c0acf2013416cbe85011468b2573b.jpg","photoSeq":"4","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/3af539e3fad147489ed7a5bc8fdc0253.jpg","photoSeq":"5","photoType":"0"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"华阳","repeatFlag":"0","repeatId":"1689303179","richTextCore":"%0A%3Cp%20style%3D%22%20margin-top%3A0px%3B%20margin-bottom%3A0px%3B%20margin-left%3A0px%3B%20margin-right%3A0px%3B%20-qt-block-indent%3A0%3B%20text-indent%3A0px%3B%22%3E%E5%8D%96%E7%82%B9%E6%88%BF%E5%AD%90%E9%9D%A2%E4%B8%AD%E5%BA%AD%EF%BC%8C%E6%88%BF%E9%97%B4%E7%9A%84%E9%98%B3%E5%8F%B0%E5%8F%AF%E4%BB%A5%E7%9C%8B%E5%88%B0%E5%BE%88%E6%BC%82%E6%B5%81%E7%9A%84%E6%B1%9F%E6%99%AF%EF%BC%81%E5%A6%82%E6%9E%9C%E4%B8%8D%E6%83%B3%E8%A3%85%E4%BF%AE%E5%AE%8C%E5%85%A8%E5%8F%AF%E4%BB%A5%E6%8B%8E%E5%8C%85%E5%85%A5%E4%BD%8F%EF%BC%81%3C%2Fp%3E","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"65","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"1","saleFitment":"2","saleFitmentText":"普通","saleFloor":"1","saleFloors":"32","saleGradation":"1","saleHall":"2","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"120","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"3","saleReg":"12","saleRight":"1","saleRoof":"34","saleRoom":"2","saleRound":"6","saleRoundText":"郊县","saleSource":"3","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"瑞升橡树林华府 2室2厅1卫 实得85平米 拎包即可入住","saleTotalPrice":"120","saleType":"1","saleUnit":"2","saleUnitPrice":"18461","saleUseage":"1","saleWei":"1","saleYang":"0","saleYear":"2019","sectionId":"","sectionName":"华阳","showPhone":"1","sosoId":"1689303179","sosoProperty":"0","sosoType":"1","tagIds":"","tradeAddr":"","unitFloor":"1"}</t>
-  </si>
-  <si>
-    <t>soso_createfunsale_test_005</t>
-  </si>
-  <si>
-    <t>不输入业主电话，转入系统失败</t>
-  </si>
-  <si>
-    <t>{"buildCode":"RSXSLHF","buildId":"2035037","buildName":"瑞升橡树林华府","checkCodeFun":"","effectiveDate":"","fromSoso":"1","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"卖点房子面中庭，房间的阳台可以看到很漂流的江景！如果不想装修完全可以拎包入住！","onlyTextFitment":"","onlyTextLayout":"","onlyTextRights":"","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"魏姐","ownerSex":"1","ownerType":"0","phone":"","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[{"isTop":"1","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/021a2d92fdd246e080cf6ca9aa34e780.jpg","photoSeq":"1","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/1a66706f352247268c923db170de81c5.jpg","photoSeq":"2","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/003d8561139e4913870c99b84ee29435.jpg","photoSeq":"3","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/eb5c0acf2013416cbe85011468b2573b.jpg","photoSeq":"4","photoType":"0"},{"isTop":"0","photoAddr":"http://pic.myfun7.com/oss/online/searchPhotoSale/2020/03/14/3af539e3fad147489ed7a5bc8fdc0253.jpg","photoSeq":"5","photoType":"0"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"华阳","repeatFlag":"0","repeatId":"1689303179","richTextCore":"%0A%3Cp%20style%3D%22%20margin-top%3A0px%3B%20margin-bottom%3A0px%3B%20margin-left%3A0px%3B%20margin-right%3A0px%3B%20-qt-block-indent%3A0%3B%20text-indent%3A0px%3B%22%3E%E5%8D%96%E7%82%B9%E6%88%BF%E5%AD%90%E9%9D%A2%E4%B8%AD%E5%BA%AD%EF%BC%8C%E6%88%BF%E9%97%B4%E7%9A%84%E9%98%B3%E5%8F%B0%E5%8F%AF%E4%BB%A5%E7%9C%8B%E5%88%B0%E5%BE%88%E6%BC%82%E6%B5%81%E7%9A%84%E6%B1%9F%E6%99%AF%EF%BC%81%E5%A6%82%E6%9E%9C%E4%B8%8D%E6%83%B3%E8%A3%85%E4%BF%AE%E5%AE%8C%E5%85%A8%E5%8F%AF%E4%BB%A5%E6%8B%8E%E5%8C%85%E5%85%A5%E4%BD%8F%EF%BC%81%3C%2Fp%3E","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"65","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"1","saleFitment":"2","saleFitmentText":"普通","saleFloor":"1","saleFloors":"32","saleGradation":"1","saleHall":"2","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"120","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"3","saleReg":"12","saleRight":"1","saleRoof":"34","saleRoom":"2","saleRound":"6","saleRoundText":"郊县","saleSource":"3","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"瑞升橡树林华府 2室2厅1卫 实得85平米 拎包即可入住","saleTotalPrice":"120","saleType":"1","saleUnit":"2","saleUnitPrice":"18461","saleUseage":"1","saleWei":"1","saleYang":"0","saleYear":"2019","sectionId":"","sectionName":"华阳","showPhone":"1","sosoId":"1689303179","sosoProperty":"0","sosoType":"1","tagIds":"","tradeAddr":"","unitFloor":"1"}</t>
-  </si>
-  <si>
-    <t>{"errCode":300,"errMsg":"电话号码不可为空"}</t>
+    <t>{"para":"碧桂园"}</t>
+  </si>
+  <si>
+    <t>{"buildName":"碧桂园"}</t>
+  </si>
+  <si>
+    <t>不传入关键字和楼盘id参数，获取楼盘信息失败</t>
+  </si>
+  <si>
+    <t>{"errCode":401,"errMsg":"参数错误"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_001</t>
@@ -630,10 +592,13 @@
 2.楼盘名存在楼盘字典中，且没有锁定</t>
   </si>
   <si>
+    <t>http://hft.myfun7.com/houseWeb/funSale/createFunSale</t>
+  </si>
+  <si>
     <t>{"Content-Type":"application/json;charset=utf-8","SOAPAction":"http://ws.haofang.net","CLIENTKEY":"fdee45ee7134b9806ab7244dbbc16b56"}</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_002</t>
@@ -652,9 +617,6 @@
   </si>
   <si>
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
-  </si>
-  <si>
-    <t>{"errCode":401,"errMsg":"参数错误"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_004</t>
@@ -830,6 +792,9 @@
   </si>
   <si>
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+  </si>
+  <si>
+    <t>{"errCode":300,"errMsg":"电话号码不可为空"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_023</t>
@@ -1218,6 +1183,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{"errCode":500,"errMsg":</t>
     </r>
     <r>
@@ -1350,163 +1322,6 @@
   </si>
   <si>
     <t>{"caseId":"","caseType":"1","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
-  </si>
-  <si>
-    <r>
-      <t>{"errCode":500,"errMsg":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>HouseManage_createcomment_test_003</t>
-  </si>
-  <si>
-    <t>房源类型为空，创建出售中的房评失败</t>
-  </si>
-  <si>
-    <t>{"caseId":"7873821","caseType":"","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"errCode":500,"errMsg":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-  </si>
-  <si>
-    <t>HouseManage_createcomment_test_004</t>
-  </si>
-  <si>
-    <t>房评内容全部为空，创建出售中的房评失败</t>
-  </si>
-  <si>
-    <t>{"caseId":"7873821","caseType":"1","coreInfo":"","fitmentInfo":"","roomInfo":"","taxInfo":""}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"errCode":300,"errMsg":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点评内容不能全部为空!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-  </si>
-  <si>
-    <t>HouseManage_createcommentsale_test_005</t>
-  </si>
-  <si>
-    <t>房评内容不能全部为空，创建出售中的房评成功</t>
-  </si>
-  <si>
-    <t>{"caseId":"7873821","caseType":"1","coreInfo":"好","fitmentInfo":"","roomInfo":"","taxInfo":""}</t>
-  </si>
-  <si>
-    <t>HouseManage_createcommentlease_test_001</t>
-  </si>
-  <si>
-    <t>全部参数正确传入，创建出租中房评成功</t>
-  </si>
-  <si>
-    <t>1.存在出租房源的id以及房源的类型为出租房源
-2.clientkey值有效</t>
-  </si>
-  <si>
-    <t>{"caseId":"4541289","caseType":"2","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
-  </si>
-  <si>
-    <t>HouseManage_createcommentlease_test_002</t>
-  </si>
-  <si>
-    <t>房源id为空，创建出租中房评失败</t>
-  </si>
-  <si>
-    <t>{"caseId":"","caseType":"2","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
   </si>
   <si>
     <r>
@@ -1552,6 +1367,126 @@
     </r>
   </si>
   <si>
+    <t>HouseManage_createcomment_test_003</t>
+  </si>
+  <si>
+    <t>房源类型为空，创建出售中的房评失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873821","caseType":"","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"errCode":500,"errMsg":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>HouseManage_createcomment_test_004</t>
+  </si>
+  <si>
+    <t>房评内容全部为空，创建出售中的房评失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873821","caseType":"1","coreInfo":"","fitmentInfo":"","roomInfo":"","taxInfo":""}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{"errCode":300,"errMsg":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点评内容不能全部为空!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>HouseManage_createcommentsale_test_005</t>
+  </si>
+  <si>
+    <t>房评内容不能全部为空，创建出售中的房评成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"7873821","caseType":"1","coreInfo":"好","fitmentInfo":"","roomInfo":"","taxInfo":""}</t>
+  </si>
+  <si>
+    <t>HouseManage_createcommentlease_test_001</t>
+  </si>
+  <si>
+    <t>全部参数正确传入，创建出租中房评成功</t>
+  </si>
+  <si>
+    <t>1.存在出租房源的id以及房源的类型为出租房源
+2.clientkey值有效</t>
+  </si>
+  <si>
+    <t>{"caseId":"4541289","caseType":"2","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
+  </si>
+  <si>
+    <t>HouseManage_createcommentlease_test_002</t>
+  </si>
+  <si>
+    <t>房源id为空，创建出租中房评失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"","caseType":"2","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
+  </si>
+  <si>
     <t>HouseManage_createcommentlease_test_003</t>
   </si>
   <si>
@@ -1936,7 +1871,7 @@
     <t>get_pwdCount_001</t>
   </si>
   <si>
-    <t>正确的经纪人id和房源类型为出售房源，查询出售中房源成功</t>
+    <t>正确的经纪人id和房源类型为出售房源，查询出售中房源的加密、推荐以及笋盘数量成功</t>
   </si>
   <si>
     <t>1.有效的clinetkey
@@ -1952,7 +1887,7 @@
     <t>get_pwdCount_002</t>
   </si>
   <si>
-    <t>经纪人id为空，查询出售中房源失败</t>
+    <t>经纪人id为空，查询出售中房源的加密、推荐以及笋盘数量失败</t>
   </si>
   <si>
     <t xml:space="preserve">有效的clinetkey
@@ -1972,6 +1907,24 @@
   </si>
   <si>
     <t>{"caseType":"2","infoOwnerUserId":"20174961"}</t>
+  </si>
+  <si>
+    <t>get_pwdCount_004</t>
+  </si>
+  <si>
+    <t>正确的经纪人id和房源类型为求购，查询求购房源的加密、推荐和笋盘数量成功</t>
+  </si>
+  <si>
+    <t>{"caseType":"3","infoOwnerUserId":"20174961"}</t>
+  </si>
+  <si>
+    <t>get_pwdCount_005</t>
+  </si>
+  <si>
+    <t>正确的经纪人id和房源类型为求组，查询求组房源的加密、推荐和笋盘数量成功</t>
+  </si>
+  <si>
+    <t>{"caseType":"4","infoOwnerUserId":"20174961"}</t>
   </si>
   <si>
     <t>HouseManage_CreateTrackInfo_test_001</t>
@@ -2343,9 +2296,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2394,6 +2347,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2410,28 +2429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2441,27 +2438,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2478,30 +2454,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2537,25 +2490,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2567,109 +2568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2687,37 +2592,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,6 +2681,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2769,65 +2781,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2836,10 +2789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2848,16 +2801,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2869,112 +2822,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3627,7 +3580,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3681,25 +3634,25 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:9">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3707,17 +3660,17 @@
     </row>
     <row r="3" ht="81" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" ht="81" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" ht="81" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3734,8 +3687,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3789,25 +3742,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3818,25 +3771,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -3847,228 +3800,228 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>22</v>
@@ -4079,54 +4032,54 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>22</v>
@@ -4137,54 +4090,54 @@
     </row>
     <row r="14" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
@@ -4195,25 +4148,25 @@
     </row>
     <row r="16" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>22</v>
@@ -4224,25 +4177,25 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>22</v>
@@ -4253,25 +4206,25 @@
     </row>
     <row r="18" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H18" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>22</v>
@@ -4282,25 +4235,25 @@
     </row>
     <row r="19" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>22</v>
@@ -4311,25 +4264,25 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>22</v>
@@ -4340,25 +4293,25 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="135" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>22</v>
@@ -4369,83 +4322,83 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B24" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>22</v>
@@ -4456,25 +4409,25 @@
     </row>
     <row r="25" ht="135" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B25" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>22</v>
@@ -4485,25 +4438,25 @@
     </row>
     <row r="26" ht="135" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
@@ -4605,25 +4558,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4634,118 +4587,118 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>377</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" t="s">
-        <v>389</v>
-      </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1"/>
@@ -4840,25 +4793,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -4869,83 +4822,83 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -4956,31 +4909,31 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -5056,25 +5009,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5085,112 +5038,112 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>413</v>
       </c>
-      <c r="G5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" t="s">
-        <v>425</v>
-      </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -5201,25 +5154,25 @@
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -5230,112 +5183,112 @@
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:13">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B10" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:13">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -5428,25 +5381,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5457,25 +5410,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -5486,25 +5439,25 @@
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5515,25 +5468,25 @@
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -5634,25 +5587,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5663,60 +5616,60 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1"/>
@@ -5792,25 +5745,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5821,54 +5774,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5879,25 +5832,25 @@
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -5908,54 +5861,54 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -5984,7 +5937,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -6038,25 +5991,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6067,89 +6020,89 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
@@ -6229,25 +6182,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6258,54 +6211,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -6826,25 +6779,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6855,83 +6808,83 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>503</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="B3" t="s">
-        <v>515</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" t="s">
-        <v>516</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -6942,199 +6895,199 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>512</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" t="s">
-        <v>525</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G8" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:13">
       <c r="A10" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:13">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G11" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" ht="50" customHeight="1" spans="1:13">
       <c r="A12" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B12" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H12" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="I12" t="s">
         <v>22</v>
@@ -7167,7 +7120,7 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -7222,25 +7175,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7251,25 +7204,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -7280,25 +7233,25 @@
     </row>
     <row r="4" ht="135" spans="1:13">
       <c r="A4" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -7324,7 +7277,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -7378,25 +7331,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7407,54 +7360,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -7463,13 +7416,71 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" ht="50" customHeight="1"/>
-    <row r="6" ht="50" customHeight="1"/>
+    <row r="5" ht="50" customHeight="1" spans="1:13">
+      <c r="A5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="1:13">
+      <c r="A6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>565</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount"/>
     <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/getPwdCount"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7482,7 +7493,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -7536,89 +7547,89 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7692,25 +7703,25 @@
     </row>
     <row r="2" ht="67.5" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7721,25 +7732,25 @@
     </row>
     <row r="3" ht="54" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -7750,118 +7761,118 @@
     </row>
     <row r="4" ht="67.5" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="B5" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7950,25 +7961,25 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7979,25 +7990,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -8008,315 +8019,315 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>605</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" t="s">
-        <v>612</v>
-      </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="54" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>22</v>
@@ -8327,258 +8338,258 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="108" spans="1:14">
       <c r="A23" s="6" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>22</v>
@@ -8587,147 +8598,147 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="N23" s="6"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
@@ -8738,25 +8749,25 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>22</v>
@@ -8767,25 +8778,25 @@
     </row>
     <row r="30" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>22</v>
@@ -8796,25 +8807,25 @@
     </row>
     <row r="31" s="1" customFormat="1" ht="108" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>22</v>
@@ -8867,7 +8878,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -9534,7 +9545,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -9903,13 +9914,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="14" max="14" width="35.25" customWidth="1"/>
@@ -9969,7 +9980,7 @@
       <c r="B2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D2" t="s">
@@ -9988,17 +9999,17 @@
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" ht="81" customHeight="1" spans="1:13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D3" t="s">
@@ -10010,109 +10021,17 @@
       <c r="G3" t="s">
         <v>169</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
         <v>173</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/buildRule/getHouseFloorMenu" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/buildRule/getHouseFloorMenu"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/buildRule/getHouseFloorMenu" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/buildRule/getHouseFloorMenu"/>
-    <hyperlink ref="E5" r:id="rId2" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale" tooltip="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
-    <hyperlink ref="E6" r:id="rId2" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale" tooltip="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10124,8 +10043,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10184,25 +10103,25 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -10213,25 +10132,25 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -10242,315 +10161,315 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>22</v>
@@ -10561,258 +10480,258 @@
     </row>
     <row r="15" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" s="12" customFormat="1" ht="81" customHeight="1" spans="1:17">
       <c r="A23" s="6" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>22</v>
@@ -10821,7 +10740,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -10830,170 +10749,170 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" ht="108" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H29" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>22</v>
@@ -11004,25 +10923,25 @@
     </row>
     <row r="30" ht="108" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>22</v>
@@ -11033,25 +10952,25 @@
     </row>
     <row r="31" ht="108" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>22</v>
@@ -11062,25 +10981,25 @@
     </row>
     <row r="32" ht="108" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>22</v>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="8" activeTab="8"/>
+    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="23" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -2026,7 +2026,7 @@
     <t>http://hft.myfun7.com/houseWeb/funLease/createFunLease</t>
   </si>
   <si>
-    <t>{"buildCode":"TYHL","buildId":"2048602","buildName":"田园花篱","checkCodeFun":"","effectiveDate":"","leaseAccount":"","leaseArea":"60","leaseDeposit":"","leaseDirect":"","leaseDirectText":"请选择","leaseDoors":"6","leaseFitment":"3","leaseFitmentText":"精装","leaseFloor":"12","leaseFloors":"18","leaseHall":"1","leaseId":"","leaseInnerarea":"","leaseLadder":"2","leaseLevel":"1","leaseLimite":"","leaseLowestPrice":"1000","leaseMemo":"","leaseNo":"","leaseNum":"1203","leaseReg":"10","leaseRoof":"3","leaseRoom":"1","leaseRoomType":"0","leaseRound":"6","leaseRoundText":"郊县","leaseSet":"","leaseSource":"1","leaseStreet":"0","leaseSubject":"测试可租房源，拎包入住","leaseTotalPrice":"1000","leaseType":"1","leaseUnit":"2","leaseUnitPrice":"0","leaseUseage":"1","leaseWei":"1","leaseYang":"1","leaseYear":"2020","onlyTextCore":"","onlyTextFitment":"","onlyTextLayout":"","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"16565324848","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","priceUnit":"1","priceUnitText":"元/月","qzCodeFun":"","regionName":"温江","repeatFlag":"0","richTextCore":"","richTextFitment":"","richTextLayout":"","sectionId":"","sectionName":"永宁","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12"}</t>
+    <t>{"buildCode":"TYHL","buildId":"2048602","buildName":"田园花篱","checkCodeFun":"","effectiveDate":"","leaseAccount":"","leaseArea":"60","leaseDeposit":"","leaseDirect":"","leaseDirectText":"请选择","leaseDoors":"6","leaseFitment":"3","leaseFitmentText":"精装","leaseFloor":"12","leaseFloors":"18","leaseHall":"1","leaseId":"","leaseInnerarea":"","leaseLadder":"2","leaseLevel":"1","leaseLimite":"","leaseLowestPrice":"1000","leaseMemo":"","leaseNo":"","leaseNum":"1203","leaseReg":"10","leaseRoof":"3","leaseRoom":"1","leaseRoomType":"0","leaseRound":"6","leaseRoundText":"郊县","leaseSet":"","leaseSource":"1","leaseStreet":"0","leaseSubject":"测试可租房源，拎包入住哦","leaseTotalPrice":"1000","leaseType":"1","leaseUnit":"2","leaseUnitPrice":"0","leaseUseage":"1","leaseWei":"1","leaseYang":"1","leaseYear":"2020","onlyTextCore":"","onlyTextFitment":"","onlyTextLayout":"","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"16565324848","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","priceUnit":"1","priceUnitText":"元/月","qzCodeFun":"","regionName":"温江","repeatFlag":"0","richTextCore":"","richTextFitment":"","richTextLayout":"","sectionId":"","sectionName":"永宁","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseLease_zhuzhai_test_002</t>
@@ -2295,10 +2295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2347,15 +2347,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2369,7 +2386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2377,29 +2394,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2414,7 +2416,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2437,7 +2439,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2445,16 +2453,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2490,13 +2490,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2508,7 +2604,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,79 +2646,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,67 +2670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2681,65 +2681,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2767,6 +2708,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2781,6 +2761,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2789,10 +2789,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2801,16 +2801,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2822,112 +2822,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7906,8 +7906,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10043,8 +10043,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10114,7 +10114,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="8" t="s">
         <v>177</v>
       </c>
       <c r="G2" t="s">

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -9362,8 +9362,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="房源管理-查询房源点评表" sheetId="15" r:id="rId15"/>
     <sheet name="房源管理-获取房源描述信息" sheetId="16" r:id="rId16"/>
     <sheet name="房源管理-出售-提交钥匙" sheetId="17" r:id="rId17"/>
-    <sheet name="房源管理-获取钥匙信息" sheetId="18" r:id="rId18"/>
-    <sheet name="房源管理-房堪" sheetId="19" r:id="rId19"/>
+    <sheet name="房源管理-出售-获取钥匙信息" sheetId="18" r:id="rId18"/>
+    <sheet name="房源管理-出售-房堪" sheetId="19" r:id="rId19"/>
     <sheet name="房源管理-委托" sheetId="20" r:id="rId20"/>
     <sheet name="房源管理-出售-笋盘" sheetId="21" r:id="rId21"/>
     <sheet name="获取经纪人下加密房客源数" sheetId="22" r:id="rId22"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="698">
   <si>
     <t>id</t>
   </si>
@@ -734,6 +734,9 @@
     <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
   </si>
   <si>
+    <t>{"errCode":500,"errMsg":"系统错误"}</t>
+  </si>
+  <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_016</t>
   </si>
   <si>
@@ -938,9 +941,6 @@
   </si>
   <si>
     <t>{"caseId":"7873521","caseType":"","trackContent":"测试2","trackType":"11"}</t>
-  </si>
-  <si>
-    <t>{"errCode":500,"errMsg":"系统错误"}</t>
   </si>
   <si>
     <t>HouseManage_CreateTrackInfo_qudian_test_004</t>
@@ -1119,10 +1119,10 @@
     <t>HouseManage_CreateTrackInfo_weituo_test_022</t>
   </si>
   <si>
-    <t>委托为空时，创建委托跟进失败</t>
-  </si>
-  <si>
-    <t>{"caseId":"7876178","caseType":"1","checkCodeFun":"","targetTime":"","trackContent":"业主不需要委托","trackNo":"","trackTag":"","trackType":"6","warmTime":""}</t>
+    <t>委托截止日期为空时，创建委托跟进失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7876178","caseType":"1","checkCodeFun":"","trackContent":"业主不需要委托","trackNo":"","trackTag":"","trackType":"6","warmTime":""}</t>
   </si>
   <si>
     <t>{"errCode":300,"errMsg":"委托截止日期不能为空!"}</t>
@@ -1264,6 +1264,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{"errCode":500,"errMsg":</t>
     </r>
     <r>
@@ -1302,6 +1308,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>{"errCode":200,"change":"False"</t>
     </r>
     <r>
@@ -1410,41 +1423,6 @@
     <t>{"caseId":"7873821","caseType":"","coreInfo":"好","fitmentInfo":"好","roomInfo":"好","taxInfo":"好"}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{"errCode":500,"errMsg":</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统错误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"}</t>
-    </r>
-  </si>
-  <si>
     <t>HouseManage_createcomment_test_004</t>
   </si>
   <si>
@@ -1776,7 +1754,7 @@
     <t>{"caseId":"7873821","caseType":"1","targetTime":"2020-04-16","trackContent":"12345","trackType":"6"}</t>
   </si>
   <si>
-    <t>{"errCode":300,"errMsg":"内容长度不能小于4"}</t>
+    <t>{"errCode":300,"errMsg":"内容长度不能小于6"}</t>
   </si>
   <si>
     <t>HouseManage_houseCust_test_006</t>
@@ -1798,9 +1776,6 @@
   </si>
   <si>
     <t>{"caseId":"7873821","caseType":"1","targetTime":"2020-04-16","trackContent":"123456","trackType":""}</t>
-  </si>
-  <si>
-    <t>{"errCode":300,"errMsg":"请选择跟进类型![TRACK_TYPE]"}</t>
   </si>
   <si>
     <t>HouseManage_houseCust_test_008</t>
@@ -1943,7 +1918,7 @@
     <t>1.clientkey值有效</t>
   </si>
   <si>
-    <t>{"caseId":"7873529","caseType":"1","trackContent":"测试2","trackType":"11"}</t>
+    <t>{"caseId":"787352900000","caseType":"1","trackContent":"测试2","trackType":"11"}</t>
   </si>
   <si>
     <t>HouseManage_SalePublishFlag_test_001</t>
@@ -2424,32 +2399,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2462,9 +2413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2478,14 +2428,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2501,8 +2451,23 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2516,20 +2481,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2567,7 +2542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2579,7 +2560,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2591,19 +2590,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2615,19 +2632,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2639,7 +2662,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2651,91 +2710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,7 +2722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2761,11 +2736,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2785,17 +2766,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2811,6 +2786,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2833,15 +2819,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2850,11 +2827,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2866,10 +2841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2878,16 +2853,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2899,116 +2874,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3045,6 +3020,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3057,11 +3038,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3475,10 +3459,10 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="22" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3504,10 +3488,10 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3533,10 +3517,10 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="22" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -3562,10 +3546,10 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="22" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3591,10 +3575,10 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3620,7 +3604,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3636,7 +3620,7 @@
     <row r="8" ht="54" customHeight="1" spans="2:7">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="16"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="1"/>
     </row>
     <row r="13" spans="5:5">
@@ -3717,25 +3701,25 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:9">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>275</v>
+      <c r="E2" s="14" t="s">
+        <v>276</v>
       </c>
       <c r="G2" t="s">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3743,17 +3727,17 @@
     </row>
     <row r="3" ht="81" customHeight="1" spans="1:1">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" ht="81" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" ht="81" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3770,8 +3754,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3825,25 +3809,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3852,646 +3836,646 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
+    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>286</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>287</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A4" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A8" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A4" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
+    <row r="12" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A8" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H18" t="s">
         <v>334</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="I18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="6" t="s">
+    <row r="19" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="12" t="s">
         <v>336</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="I19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="6" t="s">
+    <row r="20" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="12" t="s">
         <v>339</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="6" t="s">
+      <c r="I20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="135" spans="1:13">
-      <c r="A21" s="6" t="s">
+    <row r="21" s="12" customFormat="1" ht="135" spans="1:13">
+      <c r="A21" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="12" t="s">
         <v>342</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A23" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A23" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="D23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="I23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="12" t="s">
         <v>353</v>
       </c>
       <c r="B24" t="s">
         <v>354</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H24" t="s">
         <v>355</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="I24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" ht="135" spans="1:13">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="12" t="s">
         <v>356</v>
       </c>
       <c r="B25" t="s">
@@ -4500,27 +4484,27 @@
       <c r="C25" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G25" s="6" t="s">
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H25" t="s">
         <v>359</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" ht="135" spans="1:13">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="12" t="s">
         <v>360</v>
       </c>
       <c r="B26" t="s">
@@ -4529,22 +4513,22 @@
       <c r="C26" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="G26" s="6" t="s">
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H26" t="s">
         <v>362</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4868,7 +4852,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="15" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4978,7 +4962,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5084,7 +5068,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="15" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5113,16 +5097,16 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>408</v>
+      <c r="M4" s="15" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" t="s">
         <v>409</v>
-      </c>
-      <c r="B5" t="s">
-        <v>410</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>398</v>
@@ -5137,21 +5121,21 @@
         <v>178</v>
       </c>
       <c r="H5" t="s">
+        <v>410</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B6" t="s">
         <v>413</v>
-      </c>
-      <c r="B6" t="s">
-        <v>414</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>398</v>
@@ -5166,7 +5150,7 @@
         <v>178</v>
       </c>
       <c r="H6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -5177,13 +5161,13 @@
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:13">
       <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" t="s">
         <v>416</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -5195,7 +5179,7 @@
         <v>178</v>
       </c>
       <c r="H7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -5206,13 +5190,13 @@
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:13">
       <c r="A8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" t="s">
         <v>420</v>
       </c>
-      <c r="B8" t="s">
-        <v>421</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -5224,24 +5208,24 @@
         <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:13">
       <c r="A9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" t="s">
         <v>423</v>
       </c>
-      <c r="B9" t="s">
-        <v>424</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -5253,24 +5237,24 @@
         <v>178</v>
       </c>
       <c r="H9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:13">
       <c r="A10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" t="s">
         <v>426</v>
       </c>
-      <c r="B10" t="s">
-        <v>427</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -5282,24 +5266,24 @@
         <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>412</v>
+      <c r="M10" s="15" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:13">
       <c r="A11" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" t="s">
         <v>429</v>
       </c>
-      <c r="B11" t="s">
-        <v>430</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -5311,7 +5295,7 @@
         <v>178</v>
       </c>
       <c r="H11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -5350,7 +5334,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5404,10 +5388,10 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" t="s">
         <v>432</v>
-      </c>
-      <c r="B2" t="s">
-        <v>433</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>398</v>
@@ -5416,13 +5400,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>434</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>435</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5433,25 +5417,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" t="s">
         <v>436</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>437</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>438</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -5462,10 +5446,10 @@
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" t="s">
         <v>439</v>
-      </c>
-      <c r="B4" t="s">
-        <v>440</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>398</v>
@@ -5474,13 +5458,13 @@
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G4" t="s">
         <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5491,25 +5475,25 @@
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B5" t="s">
         <v>442</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>443</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>444</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -5610,10 +5594,10 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" t="s">
         <v>445</v>
-      </c>
-      <c r="B2" t="s">
-        <v>446</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>365</v>
@@ -5621,28 +5605,28 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>447</v>
       </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" t="s">
         <v>450</v>
-      </c>
-      <c r="B3" t="s">
-        <v>451</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>365</v>
@@ -5650,28 +5634,28 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>447</v>
+      <c r="E3" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="G3" t="s">
         <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>408</v>
+      <c r="M3" s="15" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
         <v>453</v>
-      </c>
-      <c r="B4" t="s">
-        <v>454</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>365</v>
@@ -5679,20 +5663,20 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>447</v>
+      <c r="E4" s="14" t="s">
+        <v>446</v>
       </c>
       <c r="G4" t="s">
         <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>408</v>
+      <c r="M4" s="15" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1"/>
@@ -5714,7 +5698,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -5768,25 +5752,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
         <v>456</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>459</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>460</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5797,54 +5781,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" t="s">
         <v>461</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" t="s">
         <v>464</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>466</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>467</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5869,8 +5853,8 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -5924,25 +5908,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" t="s">
         <v>468</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>470</v>
-      </c>
       <c r="G2" t="s">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5953,94 +5937,94 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" t="s">
         <v>471</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>473</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>474</v>
-      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>408</v>
+      <c r="M3" s="15" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" t="s">
         <v>475</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>477</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>408</v>
+      <c r="M4" s="15" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" t="s">
         <v>478</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>479</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>480</v>
-      </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>408</v>
+      <c r="M5" s="15" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
       <c r="C6" s="1"/>
-      <c r="E6" s="12"/>
+      <c r="E6" s="14"/>
       <c r="M6" s="3"/>
     </row>
   </sheetData>
@@ -6061,7 +6045,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6115,25 +6099,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" t="s">
         <v>481</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>483</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>484</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6144,54 +6128,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
         <v>485</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" t="s">
         <v>489</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>491</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>492</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -6291,19 +6275,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -6320,19 +6304,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="20" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -6349,19 +6333,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="20" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -6378,19 +6362,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="20" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -6407,19 +6391,19 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="20" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
@@ -6436,19 +6420,19 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
@@ -6465,19 +6449,19 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="20" t="s">
         <v>70</v>
       </c>
       <c r="I8" t="s">
@@ -6494,19 +6478,19 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="20" t="s">
         <v>73</v>
       </c>
       <c r="I9" t="s">
@@ -6523,19 +6507,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="20" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -6552,19 +6536,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="20" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -6581,19 +6565,19 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="20" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -6610,19 +6594,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="20" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -6657,8 +6641,8 @@
   <sheetPr/>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6712,25 +6696,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>494</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>495</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6741,83 +6725,83 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>496</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>499</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>500</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>291</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" t="s">
         <v>501</v>
       </c>
-      <c r="B5" t="s">
-        <v>502</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>494</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>495</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -6828,112 +6812,112 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" t="s">
         <v>503</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
         <v>504</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:13">
       <c r="A7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" t="s">
         <v>507</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
         <v>508</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:13">
       <c r="A8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" t="s">
         <v>511</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" t="s">
         <v>512</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" t="s">
-        <v>513</v>
-      </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>514</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:13">
       <c r="A9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" t="s">
         <v>515</v>
-      </c>
-      <c r="B9" t="s">
-        <v>516</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" t="s">
-        <v>517</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -7018,25 +7002,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>519</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>521</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7047,25 +7031,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>523</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>525</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -7076,25 +7060,25 @@
     </row>
     <row r="4" ht="135" spans="1:13">
       <c r="A4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>527</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>529</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -7174,147 +7158,147 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>532</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>534</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>536</v>
       </c>
-      <c r="B3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>538</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>539</v>
       </c>
-      <c r="B4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>541</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>542</v>
       </c>
-      <c r="B5" t="s">
-        <v>543</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>544</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
         <v>546</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>548</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
@@ -7350,8 +7334,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -7403,91 +7387,91 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="I2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B3" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="4" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>498</v>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -7560,26 +7544,26 @@
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>562</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>564</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7589,26 +7573,26 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>566</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>568</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -7618,131 +7602,131 @@
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>569</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
         <v>571</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" t="s">
         <v>572</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
         <v>574</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>572</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>576</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>574</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:13">
-      <c r="A7" s="6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
         <v>577</v>
       </c>
-      <c r="B7" t="s">
-        <v>578</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="G7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" t="s">
-        <v>579</v>
-      </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>291</v>
+      <c r="M7" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="12"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="12"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="12"/>
       <c r="C10" s="1"/>
     </row>
   </sheetData>
@@ -7764,8 +7748,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7819,10 +7803,10 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>176</v>
@@ -7831,13 +7815,13 @@
         <v>18</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G2" t="s">
         <v>178</v>
       </c>
       <c r="H2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7848,10 +7832,10 @@
     </row>
     <row r="3" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A3" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>176</v>
@@ -7859,14 +7843,14 @@
       <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>582</v>
+      <c r="E3" s="9" t="s">
+        <v>580</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H3" t="s">
-        <v>586</v>
+      <c r="H3" s="6" t="s">
+        <v>584</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>22</v>
@@ -7877,10 +7861,10 @@
     </row>
     <row r="4" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A4" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>176</v>
@@ -7888,14 +7872,14 @@
       <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>582</v>
+      <c r="E4" s="9" t="s">
+        <v>580</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H4" t="s">
-        <v>589</v>
+      <c r="H4" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>22</v>
@@ -7906,10 +7890,10 @@
     </row>
     <row r="5" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A5" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>176</v>
@@ -7917,14 +7901,14 @@
       <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>582</v>
+      <c r="E5" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>22</v>
@@ -7935,10 +7919,10 @@
     </row>
     <row r="6" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A6" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>176</v>
@@ -7946,14 +7930,14 @@
       <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>582</v>
+      <c r="E6" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>22</v>
@@ -7964,10 +7948,10 @@
     </row>
     <row r="7" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A7" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>176</v>
@@ -7975,14 +7959,14 @@
       <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>582</v>
+      <c r="E7" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>22</v>
@@ -7993,10 +7977,10 @@
     </row>
     <row r="8" s="6" customFormat="1" ht="54" spans="1:13">
       <c r="A8" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>197</v>
@@ -8004,14 +7988,14 @@
       <c r="D8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>582</v>
+      <c r="E8" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>22</v>
@@ -8022,10 +8006,10 @@
     </row>
     <row r="9" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A9" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>176</v>
@@ -8033,14 +8017,14 @@
       <c r="D9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>582</v>
+      <c r="E9" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>22</v>
@@ -8051,10 +8035,10 @@
     </row>
     <row r="10" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A10" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>176</v>
@@ -8062,14 +8046,14 @@
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>582</v>
+      <c r="E10" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>22</v>
@@ -8080,10 +8064,10 @@
     </row>
     <row r="11" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A11" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>176</v>
@@ -8091,14 +8075,14 @@
       <c r="D11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>582</v>
+      <c r="E11" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>22</v>
@@ -8109,10 +8093,10 @@
     </row>
     <row r="12" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A12" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>176</v>
@@ -8120,14 +8104,14 @@
       <c r="D12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>582</v>
+      <c r="E12" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>22</v>
@@ -8138,10 +8122,10 @@
     </row>
     <row r="13" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A13" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>176</v>
@@ -8149,14 +8133,14 @@
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>582</v>
+      <c r="E13" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>22</v>
@@ -8167,10 +8151,10 @@
     </row>
     <row r="14" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A14" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>176</v>
@@ -8178,14 +8162,14 @@
       <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>582</v>
+      <c r="E14" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>22</v>
@@ -8196,10 +8180,10 @@
     </row>
     <row r="15" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>176</v>
@@ -8207,14 +8191,14 @@
       <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>582</v>
+      <c r="E15" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -8225,10 +8209,10 @@
     </row>
     <row r="16" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A16" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>176</v>
@@ -8236,14 +8220,14 @@
       <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>582</v>
+      <c r="E16" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>22</v>
@@ -8254,10 +8238,10 @@
     </row>
     <row r="17" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A17" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>176</v>
@@ -8265,14 +8249,14 @@
       <c r="D17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>582</v>
+      <c r="E17" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>22</v>
@@ -8283,10 +8267,10 @@
     </row>
     <row r="18" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A18" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>176</v>
@@ -8294,14 +8278,14 @@
       <c r="D18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>582</v>
+      <c r="E18" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
@@ -8312,10 +8296,10 @@
     </row>
     <row r="19" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A19" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>176</v>
@@ -8323,14 +8307,14 @@
       <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>582</v>
+      <c r="E19" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>22</v>
@@ -8341,10 +8325,10 @@
     </row>
     <row r="20" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A20" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>176</v>
@@ -8352,14 +8336,14 @@
       <c r="D20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>582</v>
+      <c r="E20" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>22</v>
@@ -8370,10 +8354,10 @@
     </row>
     <row r="21" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A21" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>176</v>
@@ -8381,14 +8365,14 @@
       <c r="D21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>582</v>
+      <c r="E21" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>22</v>
@@ -8399,10 +8383,10 @@
     </row>
     <row r="22" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A22" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>176</v>
@@ -8410,14 +8394,14 @@
       <c r="D22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>582</v>
+      <c r="E22" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>22</v>
@@ -8428,10 +8412,10 @@
     </row>
     <row r="23" s="6" customFormat="1" ht="108" spans="1:14">
       <c r="A23" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>176</v>
@@ -8439,15 +8423,15 @@
       <c r="D23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>582</v>
+      <c r="E23" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
         <v>178</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>22</v>
@@ -8456,16 +8440,16 @@
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N23" s="10"/>
     </row>
     <row r="24" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A24" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>176</v>
@@ -8473,14 +8457,14 @@
       <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>582</v>
+      <c r="E24" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>22</v>
@@ -8491,10 +8475,10 @@
     </row>
     <row r="25" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A25" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>176</v>
@@ -8502,14 +8486,14 @@
       <c r="D25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>582</v>
+      <c r="E25" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>22</v>
@@ -8520,10 +8504,10 @@
     </row>
     <row r="26" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A26" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>176</v>
@@ -8531,14 +8515,14 @@
       <c r="D26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>582</v>
+      <c r="E26" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>22</v>
@@ -8549,10 +8533,10 @@
     </row>
     <row r="27" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A27" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>176</v>
@@ -8560,14 +8544,14 @@
       <c r="D27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>582</v>
+      <c r="E27" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>22</v>
@@ -8578,10 +8562,10 @@
     </row>
     <row r="28" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A28" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>176</v>
@@ -8589,14 +8573,14 @@
       <c r="D28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>582</v>
+      <c r="E28" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>22</v>
@@ -8607,10 +8591,10 @@
     </row>
     <row r="29" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A29" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>176</v>
@@ -8618,14 +8602,14 @@
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>582</v>
+      <c r="E29" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -8636,10 +8620,10 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A30" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>176</v>
@@ -8647,14 +8631,14 @@
       <c r="D30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>582</v>
+      <c r="E30" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>22</v>
@@ -8665,10 +8649,10 @@
     </row>
     <row r="31" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A31" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>176</v>
@@ -8676,14 +8660,14 @@
       <c r="D31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>582</v>
+      <c r="E31" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>178</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -8790,147 +8774,147 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>532</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="B2" t="s">
-        <v>672</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>534</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G3" t="s">
         <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G4" t="s">
         <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G5" t="s">
         <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>546</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>548</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -9006,89 +8990,89 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>682</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>684</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
         <v>686</v>
       </c>
-      <c r="B3" t="s">
-        <v>687</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>688</v>
-      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" t="s">
         <v>689</v>
       </c>
-      <c r="B4" t="s">
-        <v>690</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>691</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9162,25 +9146,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" t="s">
         <v>693</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>695</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -9191,54 +9175,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G3" t="s">
         <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="G4" t="s">
         <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -9326,19 +9310,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -9362,7 +9346,7 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -9432,13 +9416,13 @@
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -9461,19 +9445,19 @@
       <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="20" t="s">
         <v>97</v>
       </c>
       <c r="I3" t="s">
@@ -9490,13 +9474,13 @@
       <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G4" t="s">
@@ -9519,13 +9503,13 @@
       <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G5" t="s">
@@ -9548,13 +9532,13 @@
       <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G6" t="s">
@@ -9577,13 +9561,13 @@
       <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G7" t="s">
@@ -9606,13 +9590,13 @@
       <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G8" t="s">
@@ -9635,13 +9619,13 @@
       <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G9" t="s">
@@ -9664,13 +9648,13 @@
       <c r="B10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G10" t="s">
@@ -9693,13 +9677,13 @@
       <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G11" t="s">
@@ -9722,13 +9706,13 @@
       <c r="B12" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
@@ -9751,13 +9735,13 @@
       <c r="B13" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="21" t="s">
         <v>92</v>
       </c>
       <c r="G13" t="s">
@@ -9861,13 +9845,13 @@
       <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G2" t="s">
@@ -9885,17 +9869,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="16"/>
+      <c r="C3" s="20"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="C4" s="16"/>
+      <c r="C4" s="20"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="C5" s="16"/>
+      <c r="C5" s="20"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
@@ -9990,7 +9974,7 @@
       <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D2" t="s">
@@ -10019,7 +10003,7 @@
       <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D3" t="s">
@@ -10048,7 +10032,7 @@
       <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D4" t="s">
@@ -10077,7 +10061,7 @@
       <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D5" t="s">
@@ -10176,7 +10160,7 @@
       <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D2" t="s">
@@ -10205,7 +10189,7 @@
       <c r="B3" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D3" t="s">
@@ -10234,7 +10218,7 @@
       <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D4" t="s">
@@ -10263,7 +10247,7 @@
       <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D5" t="s">
@@ -10429,8 +10413,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10506,7 +10490,7 @@
       <c r="G2" t="s">
         <v>178</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>179</v>
       </c>
       <c r="I2" t="s">
@@ -10516,791 +10500,791 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A10" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A11" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="I11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A12" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="I12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A13" s="6" t="s">
+    <row r="13" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A13" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="I13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A14" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="I14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A15" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="I15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A16" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A17" s="6" t="s">
+      <c r="I16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="17" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A17" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="I17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A18" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="I18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A19" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="I19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A20" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A21" s="6" t="s">
+      <c r="G20" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="I20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A21" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="G21" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A22" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="22" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A22" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" s="14" customFormat="1" ht="81" customHeight="1" spans="1:17">
-      <c r="A23" s="10" t="s">
+      <c r="G22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="I22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="1" ht="81" customHeight="1" spans="1:17">
+      <c r="A23" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="18" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="I23" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A24" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="G24" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A25" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="25" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A25" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="G25" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A26" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B26" s="6" t="s">
+    <row r="26" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A26" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="G26" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A27" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="27" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A27" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="6" t="s">
+      <c r="G27" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A28" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B28" s="6" t="s">
+    <row r="28" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A28" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="G28" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="29" ht="108" spans="1:13">
-      <c r="A29" s="6" t="s">
-        <v>260</v>
+      <c r="A29" s="12" t="s">
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
-      </c>
-      <c r="I29" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M29" t="s">
@@ -11308,28 +11292,28 @@
       </c>
     </row>
     <row r="30" ht="108" spans="1:13">
-      <c r="A30" s="6" t="s">
-        <v>263</v>
+      <c r="A30" s="12" t="s">
+        <v>264</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H30" t="s">
-        <v>265</v>
-      </c>
-      <c r="I30" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M30" t="s">
@@ -11337,28 +11321,28 @@
       </c>
     </row>
     <row r="31" ht="108" spans="1:13">
-      <c r="A31" s="6" t="s">
-        <v>266</v>
+      <c r="A31" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="B31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C31" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>268</v>
-      </c>
-      <c r="I31" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M31" t="s">
@@ -11366,28 +11350,28 @@
       </c>
     </row>
     <row r="32" ht="108" spans="1:13">
-      <c r="A32" s="6" t="s">
-        <v>269</v>
+      <c r="A32" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="12" t="s">
         <v>178</v>
       </c>
       <c r="H32" t="s">
-        <v>271</v>
-      </c>
-      <c r="I32" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I32" s="12" t="s">
         <v>22</v>
       </c>
       <c r="M32" t="s">

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="16" activeTab="17"/>
+    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -5853,8 +5853,8 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -10286,8 +10286,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9495" firstSheet="7" activeTab="7"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="696">
   <si>
     <t>id</t>
   </si>
@@ -579,6 +579,9 @@
     <t>{"buildName":"碧桂园"}</t>
   </si>
   <si>
+    <t>managercenter_getHouseFloorMenu_test_002</t>
+  </si>
+  <si>
     <t>不传入关键字和楼盘id参数，获取楼盘信息失败</t>
   </si>
   <si>
@@ -898,15 +901,6 @@
   </si>
   <si>
     <t>{"caseId":"7873521","caseType":"1"}</t>
-  </si>
-  <si>
-    <t>HouseManage_Create_CheckCodetest_002</t>
-  </si>
-  <si>
-    <t>HouseManage_Create_CheckCodetest_003</t>
-  </si>
-  <si>
-    <t>HouseManage_Create_CheckCodetest_004</t>
   </si>
   <si>
     <t>HouseManage_CreateTrackInfo_qudian_test_001</t>
@@ -1232,7 +1226,7 @@
     <t>房源类型参数不传，查询失败</t>
   </si>
   <si>
-    <t>{"caseId":"7872644","caseType":"2"}</t>
+    <t>{"caseId":"7872644","caseType":""}</t>
   </si>
   <si>
     <t>HouseManage_updateFunSale_test_001</t>
@@ -1301,10 +1295,28 @@
     <t>HouseManage_updateFunSale_test_003</t>
   </si>
   <si>
-    <t>出售类型为空，更新失败</t>
+    <t>房源类型为空，更新失败</t>
   </si>
   <si>
     <t>{"caseType":"","saleId":"7873821","saleSubject":"这是测试修改出售房源的标题"}</t>
+  </si>
+  <si>
+    <t>HouseManage_updateFunSale_test_004</t>
+  </si>
+  <si>
+    <t>标题长度为30个字符，更新成功</t>
+  </si>
+  <si>
+    <t>{"caseType":"1","saleId":"7873821","saleSubject":"123456789012345678901234567890"}</t>
+  </si>
+  <si>
+    <t>HouseManage_updateFunSale_test_005</t>
+  </si>
+  <si>
+    <t>标题长度为31个字符，更新失败</t>
+  </si>
+  <si>
+    <t>{"caseType":"1","saleId":"7873821","saleSubject":"1123456789012345678901234567890"}</t>
   </si>
   <si>
     <r>
@@ -1326,24 +1338,6 @@
       </rPr>
       <t>}</t>
     </r>
-  </si>
-  <si>
-    <t>HouseManage_updateFunSale_test_004</t>
-  </si>
-  <si>
-    <t>标题长度为30个字符，更新成功</t>
-  </si>
-  <si>
-    <t>{"caseType":"1","saleId":"7873821","saleSubject":"123456789012345678901234567890"}</t>
-  </si>
-  <si>
-    <t>HouseManage_updateFunSale_test_005</t>
-  </si>
-  <si>
-    <t>标题长度为31个字符，更新失败</t>
-  </si>
-  <si>
-    <t>{"caseType":"1","saleId":"7873821","saleSubject":"1123456789012345678901234567890"}</t>
   </si>
   <si>
     <t>HouseManage_createcomment_test_001</t>
@@ -1538,7 +1532,7 @@
     <t>{"caseId":"7873821","caseType":"1","pageOffset":"1","pageRows":"8"}</t>
   </si>
   <si>
-    <t>HouseManage_getCommentListLease_test_001</t>
+    <t>HouseManage_getCommentListLease_test_002</t>
   </si>
   <si>
     <t>全部参数正确传入，查询出租中的房评成功</t>
@@ -2347,10 +2341,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2399,15 +2393,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2421,22 +2416,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2444,7 +2432,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2452,14 +2440,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2474,23 +2454,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2506,7 +2478,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2548,7 +2542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2560,7 +2590,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,55 +2698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,97 +2716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2751,6 +2745,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2775,28 +2780,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2816,20 +2813,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2844,7 +2838,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2853,16 +2847,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2877,113 +2871,113 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3011,19 +3005,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -3037,12 +3022,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3380,7 +3359,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3459,10 +3438,10 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3488,10 +3467,10 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3517,10 +3496,10 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -3546,10 +3525,10 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="17" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3575,10 +3554,10 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3604,7 +3583,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3620,7 +3599,7 @@
     <row r="8" ht="54" customHeight="1" spans="2:7">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="1"/>
     </row>
     <row r="13" spans="5:5">
@@ -3647,7 +3626,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -3701,45 +3680,33 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:9">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>276</v>
+      <c r="E2" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="81" customHeight="1" spans="1:1">
-      <c r="A3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" ht="81" customHeight="1" spans="1:1">
-      <c r="A4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" ht="81" customHeight="1" spans="1:1">
-      <c r="A5" t="s">
-        <v>280</v>
-      </c>
-    </row>
+    <row r="3" ht="81" customHeight="1"/>
+    <row r="4" ht="81" customHeight="1"/>
+    <row r="5" ht="81" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getCheckCodeFunCreate&#10;" tooltip="http://hft.myfun7.com/houseWeb/funSale/getCheckCodeFunCreate&#10;"/>
@@ -3754,8 +3721,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3809,25 +3776,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>283</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>285</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -3836,699 +3803,699 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="C4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A4" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A8" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="12" t="s">
+    <row r="12" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B13" s="12" t="s">
+    <row r="14" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="B14" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="C14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="B15" s="12" t="s">
+    <row r="16" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="C16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B16" s="12" t="s">
+    <row r="17" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="B17" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="C17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B17" s="12" t="s">
+    <row r="18" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="B18" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="C18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" t="s">
+        <v>332</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B18" s="12" t="s">
+    <row r="19" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B19" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="C19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="12" t="s">
+    <row r="20" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="C20" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" s="12" t="s">
+    <row r="21" s="6" customFormat="1" ht="135" spans="1:13">
+      <c r="A21" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="B21" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="C21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="1" ht="135" spans="1:13">
-      <c r="A21" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="22" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="B22" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="C22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="108" spans="1:13">
+      <c r="A23" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" ht="108" spans="1:13">
+      <c r="A24" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="23" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A23" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="24" ht="108" spans="1:13">
-      <c r="A24" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" ht="135" spans="1:13">
+      <c r="A25" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="B25" t="s">
         <v>355</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="12" t="s">
+      <c r="C25" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" t="s">
+        <v>357</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" ht="135" spans="1:13">
-      <c r="A25" s="12" t="s">
+    <row r="26" ht="135" spans="1:13">
+      <c r="A26" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B25" t="s">
-        <v>357</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" t="s">
-        <v>359</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" ht="135" spans="1:13">
-      <c r="A26" s="12" t="s">
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" t="s">
         <v>360</v>
       </c>
-      <c r="B26" t="s">
-        <v>361</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" t="s">
-        <v>362</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="12" t="s">
+      <c r="I26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4570,8 +4537,8 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4625,89 +4592,89 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>365</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>366</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>369</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>373</v>
       </c>
-      <c r="B4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>375</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1"/>
@@ -4745,8 +4712,8 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -4800,147 +4767,147 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>378</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
         <v>379</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>382</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="B4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>388</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>389</v>
+      <c r="M4" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
         <v>379</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>392</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>393</v>
-      </c>
-      <c r="B6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>395</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4961,8 +4928,8 @@
   <sheetPr/>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5016,25 +4983,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>398</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>400</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5045,112 +5012,112 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>401</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>403</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>405</v>
       </c>
-      <c r="B4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>407</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>385</v>
+      <c r="M4" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
         <v>408</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>409</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>410</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
         <v>412</v>
-      </c>
-      <c r="B6" t="s">
-        <v>413</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>414</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
@@ -5161,25 +5128,25 @@
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:13">
       <c r="A7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
         <v>416</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" t="s">
-        <v>418</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
@@ -5190,112 +5157,112 @@
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:13">
       <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" t="s">
         <v>419</v>
       </c>
-      <c r="B8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" t="s">
-        <v>421</v>
-      </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>404</v>
+      <c r="M8" s="12" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:13">
       <c r="A9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" t="s">
         <v>422</v>
       </c>
-      <c r="B9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" t="s">
-        <v>424</v>
-      </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>404</v>
+      <c r="M9" s="12" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="10" ht="50" customHeight="1" spans="1:13">
       <c r="A10" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" t="s">
         <v>425</v>
       </c>
-      <c r="B10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" t="s">
-        <v>427</v>
-      </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>411</v>
+      <c r="M10" s="12" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="11" ht="50" customHeight="1" spans="1:13">
       <c r="A11" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" t="s">
         <v>428</v>
-      </c>
-      <c r="B11" t="s">
-        <v>429</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" t="s">
-        <v>430</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -5334,7 +5301,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5388,25 +5355,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>432</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>434</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5417,25 +5384,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>435</v>
-      </c>
-      <c r="B3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>437</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -5446,25 +5413,25 @@
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>438</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>440</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5475,25 +5442,25 @@
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
         <v>441</v>
-      </c>
-      <c r="B5" t="s">
-        <v>442</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>443</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -5594,89 +5561,89 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>449</v>
       </c>
-      <c r="B3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>451</v>
-      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>385</v>
+      <c r="M3" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>452</v>
       </c>
-      <c r="B4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>454</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>385</v>
+      <c r="M4" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1"/>
@@ -5752,25 +5719,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>457</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>459</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5781,54 +5748,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
+        <v>457</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="B3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>459</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>464</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>466</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -5908,25 +5875,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="B2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>469</v>
-      </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -5937,94 +5904,94 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>473</v>
-      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>385</v>
+      <c r="M3" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>474</v>
       </c>
-      <c r="B4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>476</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>385</v>
+      <c r="M4" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
         <v>477</v>
       </c>
-      <c r="B5" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>479</v>
-      </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>385</v>
+      <c r="M5" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
       <c r="C6" s="1"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="11"/>
       <c r="M6" s="3"/>
     </row>
   </sheetData>
@@ -6099,25 +6066,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>481</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>483</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6128,54 +6095,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>483</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>489</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>491</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -6205,7 +6172,7 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6275,19 +6242,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="15" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -6304,19 +6271,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -6333,19 +6300,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="15" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -6362,19 +6329,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="15" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -6391,19 +6358,19 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
@@ -6420,19 +6387,19 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="15" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
@@ -6449,19 +6416,19 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="15" t="s">
         <v>70</v>
       </c>
       <c r="I8" t="s">
@@ -6478,19 +6445,19 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="15" t="s">
         <v>73</v>
       </c>
       <c r="I9" t="s">
@@ -6507,19 +6474,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="15" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -6536,19 +6503,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="15" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -6565,19 +6532,19 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="15" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -6594,19 +6561,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="15" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -6642,7 +6609,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6696,25 +6663,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>492</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>494</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -6725,83 +6692,83 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
+        <v>494</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>496</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -6812,112 +6779,112 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
         <v>502</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>504</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="1:13">
       <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
         <v>506</v>
       </c>
-      <c r="B7" t="s">
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>507</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" t="s">
-        <v>508</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="8" ht="50" customHeight="1" spans="1:13">
       <c r="A8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" t="s">
         <v>510</v>
       </c>
-      <c r="B8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" t="s">
-        <v>512</v>
-      </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" ht="50" customHeight="1" spans="1:13">
       <c r="A9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" t="s">
         <v>513</v>
-      </c>
-      <c r="B9" t="s">
-        <v>514</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" t="s">
-        <v>515</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
@@ -6948,7 +6915,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -7002,25 +6969,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>517</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>519</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7031,25 +6998,25 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>521</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>523</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -7060,25 +7027,25 @@
     </row>
     <row r="4" ht="135" spans="1:13">
       <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>525</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>527</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -7158,147 +7125,147 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>530</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>534</v>
       </c>
-      <c r="B3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>536</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>537</v>
       </c>
-      <c r="B4" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>539</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
         <v>540</v>
       </c>
-      <c r="B5" t="s">
-        <v>541</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
-        <v>542</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
         <v>544</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>546</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
@@ -7387,91 +7354,91 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="12" t="s">
+      <c r="C3" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>497</v>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -7544,26 +7511,26 @@
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>560</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>562</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7573,26 +7540,26 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>564</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>566</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -7602,131 +7569,131 @@
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:13">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>567</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:13">
+      <c r="A5" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
         <v>569</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" ht="67.5" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="C5" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" t="s">
         <v>570</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:13">
+      <c r="A6" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B6" t="s">
         <v>572</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" ht="67.5" spans="1:13">
-      <c r="A6" s="12" t="s">
+      <c r="C6" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
+        <v>570</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:13">
+      <c r="A7" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>574</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>572</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" ht="67.5" spans="1:13">
-      <c r="A7" s="12" t="s">
+      <c r="C7" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" t="s">
         <v>575</v>
       </c>
-      <c r="B7" t="s">
-        <v>576</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="G7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" t="s">
-        <v>577</v>
-      </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="12" t="s">
-        <v>223</v>
+      <c r="M7" s="6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="6"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="6"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="6"/>
       <c r="C10" s="1"/>
     </row>
   </sheetData>
@@ -7748,8 +7715,8 @@
   <sheetPr/>
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7803,25 +7770,25 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>579</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>581</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -7832,25 +7799,25 @@
     </row>
     <row r="3" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A3" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>584</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>22</v>
@@ -7861,315 +7828,315 @@
     </row>
     <row r="4" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A4" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A5" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>590</v>
-      </c>
       <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A6" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>593</v>
-      </c>
       <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A7" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>596</v>
-      </c>
       <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1" ht="54" spans="1:13">
       <c r="A8" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>599</v>
-      </c>
       <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A9" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>602</v>
-      </c>
       <c r="I9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A10" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>605</v>
-      </c>
       <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A11" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>608</v>
-      </c>
       <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A12" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>611</v>
-      </c>
       <c r="I12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A13" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="I13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A14" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>22</v>
@@ -8180,407 +8147,407 @@
     </row>
     <row r="15" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A15" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>620</v>
-      </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A16" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>623</v>
-      </c>
       <c r="I16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A17" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>626</v>
-      </c>
       <c r="I17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A18" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>629</v>
-      </c>
       <c r="I18" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A19" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>630</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>632</v>
-      </c>
       <c r="I19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A20" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="I20" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A21" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>638</v>
-      </c>
       <c r="I21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A22" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="I22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="108" spans="1:14">
+      <c r="A23" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="108" spans="1:14">
-      <c r="A23" s="10" t="s">
+      <c r="C23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="N23" s="10"/>
+      <c r="I23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A24" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>647</v>
-      </c>
       <c r="I24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A25" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>650</v>
-      </c>
       <c r="I25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A26" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>653</v>
-      </c>
       <c r="I26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A27" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>656</v>
-      </c>
       <c r="I27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A28" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>659</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>22</v>
@@ -8591,25 +8558,25 @@
     </row>
     <row r="29" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A29" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>22</v>
@@ -8620,25 +8587,25 @@
     </row>
     <row r="30" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A30" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>665</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>22</v>
@@ -8649,25 +8616,25 @@
     </row>
     <row r="31" s="6" customFormat="1" ht="108" spans="1:13">
       <c r="A31" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>668</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>22</v>
@@ -8719,7 +8686,7 @@
   <sheetPr/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -8774,147 +8741,147 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
+        <v>530</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="B2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="G6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" t="s">
+        <v>544</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" t="s">
-        <v>546</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -8936,7 +8903,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -8990,89 +8957,89 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>680</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>682</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" t="s">
         <v>684</v>
       </c>
-      <c r="B3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" t="s">
-        <v>686</v>
-      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B4" t="s">
+        <v>686</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" t="s">
         <v>687</v>
       </c>
-      <c r="B4" t="s">
-        <v>688</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="G4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" t="s">
-        <v>689</v>
-      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -9092,7 +9059,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -9146,25 +9113,25 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
         <v>691</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" t="s">
-        <v>693</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -9175,54 +9142,54 @@
     </row>
     <row r="3" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -9310,19 +9277,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="15" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -9346,7 +9313,7 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -9416,13 +9383,13 @@
       <c r="B2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -9445,19 +9412,19 @@
       <c r="B3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="15" t="s">
         <v>97</v>
       </c>
       <c r="I3" t="s">
@@ -9474,13 +9441,13 @@
       <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G4" t="s">
@@ -9503,13 +9470,13 @@
       <c r="B5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G5" t="s">
@@ -9532,13 +9499,13 @@
       <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G6" t="s">
@@ -9561,13 +9528,13 @@
       <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G7" t="s">
@@ -9590,13 +9557,13 @@
       <c r="B8" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G8" t="s">
@@ -9619,13 +9586,13 @@
       <c r="B9" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G9" t="s">
@@ -9648,13 +9615,13 @@
       <c r="B10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G10" t="s">
@@ -9677,13 +9644,13 @@
       <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G11" t="s">
@@ -9706,13 +9673,13 @@
       <c r="B12" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
@@ -9735,13 +9702,13 @@
       <c r="B13" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="15" t="s">
         <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="16" t="s">
         <v>92</v>
       </c>
       <c r="G13" t="s">
@@ -9783,7 +9750,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9845,7 +9812,7 @@
       <c r="B2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D2" t="s">
@@ -9869,17 +9836,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="C3" s="20"/>
+      <c r="C3" s="15"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="C4" s="20"/>
+      <c r="C4" s="15"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="C5" s="20"/>
+      <c r="C5" s="15"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5">
@@ -9914,8 +9881,8 @@
   <sheetPr/>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -9974,7 +9941,7 @@
       <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D2" t="s">
@@ -10003,7 +9970,7 @@
       <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D3" t="s">
@@ -10032,7 +9999,7 @@
       <c r="B4" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D4" t="s">
@@ -10061,7 +10028,7 @@
       <c r="B5" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>136</v>
       </c>
       <c r="D5" t="s">
@@ -10160,7 +10127,7 @@
       <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D2" t="s">
@@ -10189,7 +10156,7 @@
       <c r="B3" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D3" t="s">
@@ -10218,7 +10185,7 @@
       <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D4" t="s">
@@ -10247,7 +10214,7 @@
       <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="15" t="s">
         <v>130</v>
       </c>
       <c r="D5" t="s">
@@ -10286,8 +10253,8 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -10374,10 +10341,10 @@
     </row>
     <row r="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>167</v>
@@ -10395,7 +10362,7 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -10413,8 +10380,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10473,25 +10440,25 @@
     </row>
     <row r="2" ht="81" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>179</v>
+        <v>179</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -10500,791 +10467,791 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="12" t="s">
+    <row r="3" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="G4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
+    <row r="15" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G15" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="G16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="G18" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="G19" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A20" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="G20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A21" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A11" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G21" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A12" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="G22" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" s="13" customFormat="1" ht="81" customHeight="1" spans="1:17">
+      <c r="A23" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A13" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A24" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="14" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A14" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="G24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A15" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="G25" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A26" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A16" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="G26" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A27" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="D27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A17" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="G27" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A28" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="D28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A18" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="G28" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" ht="108" spans="1:13">
+      <c r="A29" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="D29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A19" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A20" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A21" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A22" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" s="16" customFormat="1" ht="81" customHeight="1" spans="1:17">
-      <c r="A23" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-    </row>
-    <row r="24" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A24" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A25" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A26" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A27" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A28" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" ht="108" spans="1:13">
-      <c r="A29" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>178</v>
+      <c r="G29" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="H29" t="s">
-        <v>263</v>
-      </c>
-      <c r="I29" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M29" t="s">
@@ -11292,28 +11259,28 @@
       </c>
     </row>
     <row r="30" ht="108" spans="1:13">
-      <c r="A30" s="12" t="s">
-        <v>264</v>
+      <c r="A30" s="6" t="s">
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="12" t="s">
         <v>178</v>
       </c>
+      <c r="G30" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="H30" t="s">
-        <v>266</v>
-      </c>
-      <c r="I30" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M30" t="s">
@@ -11321,28 +11288,28 @@
       </c>
     </row>
     <row r="31" ht="108" spans="1:13">
-      <c r="A31" s="12" t="s">
-        <v>267</v>
+      <c r="A31" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="12" t="s">
         <v>178</v>
       </c>
+      <c r="G31" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="H31" t="s">
-        <v>269</v>
-      </c>
-      <c r="I31" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M31" t="s">
@@ -11350,28 +11317,28 @@
       </c>
     </row>
     <row r="32" ht="108" spans="1:13">
-      <c r="A32" s="12" t="s">
-        <v>270</v>
+      <c r="A32" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="B32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="12" t="s">
         <v>178</v>
       </c>
+      <c r="G32" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="H32" t="s">
-        <v>272</v>
-      </c>
-      <c r="I32" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M32" t="s">

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="3" activeTab="3"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="25" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,17 @@
     <sheet name="获取经纪人下推荐房客源数" sheetId="26" r:id="rId22"/>
     <sheet name="房源管理-委托截止时间测试" sheetId="27" r:id="rId23"/>
     <sheet name="房源管理-出租-钥匙提交" sheetId="28" r:id="rId24"/>
+    <sheet name="房源管理-出售-房源状态" sheetId="29" r:id="rId25"/>
+    <sheet name="房源管理-出售排序-登记" sheetId="30" r:id="rId26"/>
+    <sheet name="房源管理-出售-总面积排序" sheetId="31" r:id="rId27"/>
+    <sheet name="房源管理-出售-总价格" sheetId="32" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="659">
   <si>
     <t>id</t>
   </si>
@@ -2047,6 +2051,179 @@
   <si>
     <t>{"caseId":"7873821","caseType":"2"}</t>
   </si>
+  <si>
+    <t>HouseManage_HouseStatus_fengpan_test_001</t>
+  </si>
+  <si>
+    <t>正确传入各参数，查询出封盘的房源</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在封盘的房源</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList</t>
+  </si>
+  <si>
+    <t>{"bound":"0","deptId":"904205","status":"HOUSE_STATUS-2","userId":"20174961"}</t>
+  </si>
+  <si>
+    <t>{"userName":"张小林","saleSubject":"测试房源，请勿操作哟"}</t>
+  </si>
+  <si>
+    <t>HouseManage_HouseStatus_zanhuan_test_002</t>
+  </si>
+  <si>
+    <t>正确传入各参数，查询出暂缓的房源</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在暂缓的房源</t>
+  </si>
+  <si>
+    <t>{"bound":"0","deptId":"904205","status":"HOUSE_STATUS-3","userId":"20174961"}</t>
+  </si>
+  <si>
+    <t>HouseManage_HouseStatus_yuding_test_003</t>
+  </si>
+  <si>
+    <t>正确传入各参数，查询出预定的房源</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在预定的房源</t>
+  </si>
+  <si>
+    <t>{"bound":"0","deptId":"904205","status":"HOUSE_STATUS-4","userId":"20174961"}</t>
+  </si>
+  <si>
+    <t>HouseManage_HouseStatus_neicehngjiao_test_004</t>
+  </si>
+  <si>
+    <t>正确传入各参数，查询出内成交的房源</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在内成交的房源</t>
+  </si>
+  <si>
+    <t>{"bound":"0","deptId":"904205","status":"HOUSE_STATUS-5","userId":"20174961"}</t>
+  </si>
+  <si>
+    <t>正确传入各参数，查询出外成交的房源</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.存在外成交的房源</t>
+  </si>
+  <si>
+    <t>{"bound":"0","deptId":"904205","status":"HOUSE_STATUS-6","userId":"20174961"}</t>
+  </si>
+  <si>
+    <t>HouseManage_CreatSaleHouse_LowArea_test_001</t>
+  </si>
+  <si>
+    <t>创建一个最小面积为1的出售房源</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.楼盘名存在楼盘字典中，且没有锁定
+3.不存在重复的客源信息</t>
+  </si>
+  <si>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"3"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"4"}],"plateType":"2","regionName":"高新区","repeatFlag":"1","saleArea":"1","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleLadder":"8","saleLevel":"1","saleLowestPrice":"50","saleNature":"1","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStreet":"0","saleStructText":"请选择","saleSubject":"测试房源，用于排序请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"500000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionName":"南延线","showPhone":"1","unitFloor":"8","unitFloorR":"8"}</t>
+  </si>
+  <si>
+    <t>HouseManage_CreatSaleHouse_HighArea_test_002</t>
+  </si>
+  <si>
+    <t>创建一个最大面积为10000的房源</t>
+  </si>
+  <si>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"3"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"4"}],"plateType":"2","regionName":"高新区","repeatFlag":"1","saleArea":"10000","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleLadder":"8","saleLevel":"1","saleLowestPrice":"50","saleNature":"1","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStreet":"0","saleStructText":"请选择","saleSubject":"测试房源，用于排序请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"50","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionName":"南延线","showPhone":"1","unitFloor":"8","unitFloorR":"8"}</t>
+  </si>
+  <si>
+    <t>HouseManage_CreatSaleHouse_LowPrice_test_003</t>
+  </si>
+  <si>
+    <t>创建一个总价格为1的出售房源</t>
+  </si>
+  <si>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"3"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"4"}],"plateType":"2","regionName":"高新区","repeatFlag":"1","saleArea":"10","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleLadder":"8","saleLevel":"1","saleLowestPrice":"50","saleNature":"1","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStreet":"0","saleStructText":"请选择","saleSubject":"测试房源，用于排序请勿操作哟","saleTotalPrice":"1","saleType":"1","saleUnit":"8","saleUnitPrice":"1000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionName":"南延线","showPhone":"1","unitFloor":"8","unitFloorR":"8"}</t>
+  </si>
+  <si>
+    <t>HouseManage_CreatSaleHouse_HighPrice_test_004</t>
+  </si>
+  <si>
+    <t>创建一个最大总价格为99900的出售房源</t>
+  </si>
+  <si>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"3"},{"idCardType":"1","ownerSex":"1","ownerType":"1","seqNo":"4"}],"plateType":"2","regionName":"高新区","repeatFlag":"1","saleArea":"999","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleLadder":"8","saleLevel":"1","saleLowestPrice":"50","saleNature":"1","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStreet":"0","saleStructText":"请选择","saleSubject":"测试房源，用于排序请勿操作哟","saleTotalPrice":"99900","saleType":"1","saleUnit":"8","saleUnitPrice":"1000000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionName":"南延线","showPhone":"1","unitFloor":"8","unitFloorR":"8"}</t>
+  </si>
+  <si>
+    <t>HouseManage_getSaleHouse_AreaAsc_test-001</t>
+  </si>
+  <si>
+    <t>求购客源中，总面积按照升序排序</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.求购客源中存在面积最小的，如面积存在1</t>
+  </si>
+  <si>
+    <t>{"bound":"0","favorite":"0","orderBy":"SALE_AREA ASC","pageOffset":"1","pageRows":"50","showCooperate":"1","status":"HOUSE_STATUS-1","todayGrab":"0","wideList":"1"}</t>
+  </si>
+  <si>
+    <t>{"saleArea":1.0,"buildName":"碧桂园"}</t>
+  </si>
+  <si>
+    <t>HouseManage_getSaleHouse_AreaDesc_test-002</t>
+  </si>
+  <si>
+    <t>求购客源中，总面积按照降序排序</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.求购客源中存在面积最大的，如面积存在10000</t>
+  </si>
+  <si>
+    <t>{"bound":"0","favorite":"0","orderBy":"SALE_AREA DESC","pageOffset":"1","pageRows":"50","showCooperate":"1","status":"HOUSE_STATUS-1","todayGrab":"0","wideList":"1"}</t>
+  </si>
+  <si>
+    <t>{"saleArea":10000.0,"buildName":"碧桂园"}</t>
+  </si>
+  <si>
+    <t>HouseManage_getSaleHouse_PriceAsc_test-001</t>
+  </si>
+  <si>
+    <t>求购客源中，总价格按照升序排序</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.求购客源中存在价格最小的，如面积存在1</t>
+  </si>
+  <si>
+    <t>{"bound":"0","favorite":"0","orderBy":"SALE_TOTAL_PRICE ASC","pageOffset":"1","pageRows":"50","showCooperate":"1","status":"HOUSE_STATUS-1","todayGrab":"0","wideList":"1"}</t>
+  </si>
+  <si>
+    <t>{"saleTotalPrice":1.0,"buildName":"碧桂园"}</t>
+  </si>
+  <si>
+    <t>HouseManage_getSaleHouse_PriceDesc_test-002</t>
+  </si>
+  <si>
+    <t>求购客源中，总价格按照降序排序</t>
+  </si>
+  <si>
+    <t>1.有效的clientkey
+2.求购客源中存在价格最大的，如面积存在99900</t>
+  </si>
+  <si>
+    <t>{"bound":"0","favorite":"0","orderBy":"SALE_TOTAL_PRICE DESC","pageOffset":"1","pageRows":"50","showCooperate":"1","status":"HOUSE_STATUS-1","todayGrab":"0","wideList":"1"}</t>
+  </si>
+  <si>
+    <t>{"saleTotalPrice":99900.0,"buildName":"碧桂园"}</t>
+  </si>
 </sst>
 </file>
 
@@ -2055,8 +2232,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2098,6 +2275,81 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2113,84 +2365,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2240,6 +2417,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2252,31 +2435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2294,18 +2471,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2318,7 +2483,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2330,31 +2579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2366,61 +2597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,6 +2608,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2453,55 +2660,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2523,11 +2693,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2542,7 +2719,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2551,16 +2728,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2572,116 +2749,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2691,23 +2868,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2722,9 +2917,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3139,10 +3331,10 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3168,10 +3360,10 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="21" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3197,10 +3389,10 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -3226,10 +3418,10 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3255,10 +3447,10 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="21" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3284,7 +3476,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3300,11 +3492,11 @@
     <row r="8" ht="54" customHeight="1" spans="2:7">
       <c r="B8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="1"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="7"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3392,7 +3584,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>322</v>
       </c>
       <c r="G2" t="s">
@@ -3404,7 +3596,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3421,7 +3613,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>322</v>
       </c>
       <c r="G3" t="s">
@@ -3433,7 +3625,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="18" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3450,7 +3642,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>322</v>
       </c>
       <c r="G4" t="s">
@@ -3462,7 +3654,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="18" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3479,7 +3671,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>322</v>
       </c>
       <c r="G5" t="s">
@@ -3491,7 +3683,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="18" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3508,7 +3700,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>322</v>
       </c>
       <c r="G6" t="s">
@@ -3520,34 +3712,34 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
       <c r="C7" s="1"/>
-      <c r="E7" s="7"/>
-      <c r="M7" s="3"/>
+      <c r="E7" s="14"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
       <c r="C8" s="1"/>
-      <c r="E8" s="7"/>
-      <c r="M8" s="12"/>
+      <c r="E8" s="14"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
       <c r="C9" s="1"/>
-      <c r="E9" s="7"/>
-      <c r="M9" s="12"/>
+      <c r="E9" s="14"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:13">
       <c r="C10" s="1"/>
-      <c r="E10" s="7"/>
-      <c r="M10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:13">
       <c r="C11" s="1"/>
-      <c r="E11" s="7"/>
-      <c r="M11" s="3"/>
+      <c r="E11" s="14"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" ht="50" customHeight="1"/>
     <row r="13" ht="50" customHeight="1"/>
@@ -3639,7 +3831,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>340</v>
       </c>
       <c r="G2" t="s">
@@ -3651,7 +3843,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>342</v>
       </c>
     </row>
@@ -3668,7 +3860,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>340</v>
       </c>
       <c r="G3" t="s">
@@ -3680,7 +3872,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -3697,7 +3889,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>340</v>
       </c>
       <c r="G4" t="s">
@@ -3709,7 +3901,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -3815,7 +4007,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>353</v>
       </c>
       <c r="G2" t="s">
@@ -3827,7 +4019,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>355</v>
       </c>
     </row>
@@ -3844,7 +4036,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>353</v>
       </c>
       <c r="G3" t="s">
@@ -3856,7 +4048,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="18" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3873,7 +4065,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>353</v>
       </c>
       <c r="G4" t="s">
@@ -3885,7 +4077,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="18" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3973,7 +4165,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -3985,7 +4177,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4002,7 +4194,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -4014,7 +4206,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>369</v>
       </c>
     </row>
@@ -4031,7 +4223,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -4043,7 +4235,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4129,7 +4321,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>376</v>
       </c>
       <c r="G2" t="s">
@@ -4141,7 +4333,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4158,7 +4350,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>376</v>
       </c>
       <c r="G3" t="s">
@@ -4170,7 +4362,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="18" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4187,7 +4379,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>376</v>
       </c>
       <c r="G4" t="s">
@@ -4199,7 +4391,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="18" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4216,7 +4408,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="17" t="s">
         <v>376</v>
       </c>
       <c r="G5" t="s">
@@ -4228,14 +4420,14 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="18" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
       <c r="C6" s="1"/>
-      <c r="E6" s="11"/>
-      <c r="M6" s="3"/>
+      <c r="E6" s="17"/>
+      <c r="M6" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4320,7 +4512,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -4332,7 +4524,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4349,7 +4541,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -4361,7 +4553,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4378,7 +4570,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -4390,7 +4582,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4481,7 +4673,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -4493,7 +4685,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4510,7 +4702,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -4522,7 +4714,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>404</v>
       </c>
     </row>
@@ -4539,7 +4731,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -4551,7 +4743,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4568,7 +4760,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G5" t="s">
@@ -4580,7 +4772,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4597,7 +4789,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G6" t="s">
@@ -4609,7 +4801,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="12" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4626,7 +4818,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G7" t="s">
@@ -4638,7 +4830,7 @@
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="12" t="s">
         <v>416</v>
       </c>
     </row>
@@ -4655,7 +4847,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G8" t="s">
@@ -4667,7 +4859,7 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4684,7 +4876,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G9" t="s">
@@ -4696,7 +4888,7 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4787,7 +4979,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -4799,7 +4991,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4816,7 +5008,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -4828,7 +5020,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4845,7 +5037,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -4857,7 +5049,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4943,7 +5135,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -4955,7 +5147,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4972,7 +5164,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -4984,7 +5176,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5001,7 +5193,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -5013,7 +5205,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5030,7 +5222,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -5042,7 +5234,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -5059,7 +5251,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -5071,24 +5263,24 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="12" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
       <c r="C7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="M7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
       <c r="C8" s="1"/>
-      <c r="E8" s="5"/>
-      <c r="M8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
       <c r="C9" s="1"/>
-      <c r="E9" s="5"/>
-      <c r="M9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="M9" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5161,90 +5353,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5334,19 +5526,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -5363,19 +5555,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="20" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -5392,19 +5584,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="20" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -5421,19 +5613,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="20" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -5450,19 +5642,19 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="20" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
@@ -5479,19 +5671,19 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="20" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
@@ -5508,19 +5700,19 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="20" t="s">
         <v>70</v>
       </c>
       <c r="I8" t="s">
@@ -5537,19 +5729,19 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="20" t="s">
         <v>73</v>
       </c>
       <c r="I9" t="s">
@@ -5566,19 +5758,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="20" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -5595,19 +5787,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="20" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -5624,19 +5816,19 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="17" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="20" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -5653,19 +5845,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="17" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="20" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -5754,7 +5946,7 @@
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B2" t="s">
@@ -5766,7 +5958,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>468</v>
       </c>
       <c r="G2" t="s">
@@ -5783,7 +5975,7 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B3" t="s">
@@ -5795,7 +5987,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>468</v>
       </c>
       <c r="G3" t="s">
@@ -5812,7 +6004,7 @@
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:13">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B4" t="s">
@@ -5824,7 +6016,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>468</v>
       </c>
       <c r="G4" t="s">
@@ -5836,12 +6028,12 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:13">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B5" t="s">
@@ -5853,7 +6045,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>468</v>
       </c>
       <c r="G5" t="s">
@@ -5865,12 +6057,12 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:13">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B6" t="s">
@@ -5882,7 +6074,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>468</v>
       </c>
       <c r="G6" t="s">
@@ -5894,12 +6086,12 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:13">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B7" t="s">
@@ -5911,7 +6103,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="14" t="s">
         <v>468</v>
       </c>
       <c r="G7" t="s">
@@ -5923,20 +6115,20 @@
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="3"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="3"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="3"/>
       <c r="C10" s="1"/>
     </row>
   </sheetData>
@@ -6024,7 +6216,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>487</v>
       </c>
       <c r="G2" t="s">
@@ -6040,849 +6232,849 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="54" spans="1:13">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="3" customFormat="1" ht="54" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="6" t="s">
+    <row r="13" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="6" t="s">
+    <row r="17" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="6" t="s">
+    <row r="18" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="6" t="s">
+    <row r="19" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="6" t="s">
+    <row r="20" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="6" t="s">
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A21" s="6" t="s">
+    <row r="21" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="6" t="s">
+    <row r="22" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" ht="108" spans="1:14">
-      <c r="A23" s="9" t="s">
+    <row r="23" s="3" customFormat="1" ht="108" spans="1:14">
+      <c r="A23" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
+      <c r="I23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="G24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A25" s="6" t="s">
+    <row r="25" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A25" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A26" s="6" t="s">
+    <row r="26" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A26" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="I26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A27" s="6" t="s">
+    <row r="27" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A27" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="6" t="s">
+      <c r="I27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A28" s="6" t="s">
+    <row r="28" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A28" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="G28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A29" s="6" t="s">
+    <row r="29" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A29" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="6" t="s">
+      <c r="G29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="6" t="s">
+      <c r="I29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A30" s="6" t="s">
+    <row r="30" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A30" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="6" t="s">
+      <c r="I30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A31" s="6" t="s">
+    <row r="31" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A31" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="G31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="6" t="s">
+      <c r="I31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6995,7 +7187,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -7007,7 +7199,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7024,7 +7216,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -7036,7 +7228,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7053,7 +7245,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -7065,7 +7257,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7082,7 +7274,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -7094,7 +7286,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7111,7 +7303,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -7123,7 +7315,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="12" t="s">
         <v>454</v>
       </c>
     </row>
@@ -7211,7 +7403,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="13" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -7223,7 +7415,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>590</v>
       </c>
     </row>
@@ -7240,7 +7432,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="13" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -7252,7 +7444,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>590</v>
       </c>
     </row>
@@ -7269,7 +7461,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -7281,7 +7473,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>590</v>
       </c>
     </row>
@@ -7302,7 +7494,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -7379,7 +7571,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7408,7 +7600,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>369</v>
       </c>
     </row>
@@ -7437,7 +7629,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -7446,6 +7638,660 @@
     <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/house/submitKey" tooltip="http://hft.myfun7.com/houseWeb/house/submitKey"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/house/submitKey" tooltip="http://hft.myfun7.com/houseWeb/house/submitKey"/>
     <hyperlink ref="E4" r:id="rId2" display="http://hft.myfun7.com/houseWeb/house/destroyKey"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:13">
+      <c r="A2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="81" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="81" spans="1:13">
+      <c r="A6" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList" tooltip="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="148.5" spans="1:13">
+      <c r="A2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" ht="148.5" spans="1:13">
+      <c r="A3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale" tooltip="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale" tooltip="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale" tooltip="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/createFunSale" tooltip="http://hft.myfun7.com/houseWeb/funSale/createFunSale"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:13">
+      <c r="A2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>642</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="1:13">
+      <c r="A3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>647</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList" tooltip="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList" tooltip="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:13">
+      <c r="A2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>652</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="1:13">
+      <c r="A3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>657</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList" tooltip="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList" tooltip="http://hft.myfun7.com/houseWeb/funSale/getHouseSaleList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7520,19 +8366,19 @@
       <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="20" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -7556,7 +8402,7 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -7626,7 +8472,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -7655,7 +8501,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
@@ -7683,14 +8529,14 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="85.5" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7754,13 +8600,13 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="5" t="s">
         <v>104</v>
       </c>
       <c r="I2" t="s">
@@ -7770,791 +8616,791 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A13" s="6" t="s">
+    <row r="13" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A17" s="6" t="s">
+    <row r="17" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A18" s="6" t="s">
+    <row r="18" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A19" s="6" t="s">
+    <row r="19" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A20" s="6" t="s">
+    <row r="20" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="6" t="s">
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A21" s="6" t="s">
+    <row r="21" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A22" s="6" t="s">
+    <row r="22" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" s="13" customFormat="1" ht="81" customHeight="1" spans="1:17">
-      <c r="A23" s="9" t="s">
+    <row r="23" s="19" customFormat="1" ht="81" customHeight="1" spans="1:17">
+      <c r="A23" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="9" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9" t="s">
+      <c r="I23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="6" t="s">
+      <c r="G24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A25" s="6" t="s">
+    <row r="25" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A26" s="6" t="s">
+    <row r="26" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="I26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A27" s="6" t="s">
+    <row r="27" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="6" t="s">
+      <c r="I27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A28" s="6" t="s">
+    <row r="28" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="6" t="s">
+      <c r="G28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" ht="108" spans="1:13">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B29" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H29" t="s">
         <v>189</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M29" t="s">
@@ -8562,28 +9408,28 @@
       </c>
     </row>
     <row r="30" ht="108" spans="1:13">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B30" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H30" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M30" t="s">
@@ -8591,28 +9437,28 @@
       </c>
     </row>
     <row r="31" ht="108" spans="1:13">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B31" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H31" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M31" t="s">
@@ -8620,28 +9466,28 @@
       </c>
     </row>
     <row r="32" ht="108" spans="1:13">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B32" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H32" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="6" t="s">
+      <c r="I32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="M32" t="s">
@@ -8758,7 +9604,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="17" t="s">
         <v>202</v>
       </c>
       <c r="G2" t="s">
@@ -8788,8 +9634,8 @@
   <sheetPr/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8854,7 +9700,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -8870,617 +9716,617 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="50" customHeight="1" spans="1:13">
+    <row r="3" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="6" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="6" t="s">
+    <row r="12" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="6" t="s">
+    <row r="13" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="6" t="s">
+    <row r="14" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="6" t="s">
+    <row r="15" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="G15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="6" t="s">
+    <row r="16" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="6" t="s">
+    <row r="17" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="6" t="s">
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="6" t="s">
+    <row r="18" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>257</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="6" t="s">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="6" t="s">
+    <row r="19" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="6" t="s">
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="6" t="s">
+    <row r="20" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="6" t="s">
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="135" spans="1:13">
-      <c r="A21" s="6" t="s">
+    <row r="21" s="3" customFormat="1" ht="135" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>265</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="6" t="s">
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="6" t="s">
+    <row r="22" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="3" t="s">
         <v>269</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="G22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="6" t="s">
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" ht="108" spans="1:13">
-      <c r="A23" s="6" t="s">
+    <row r="23" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A23" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>273</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="G23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="6" t="s">
+      <c r="I23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B24" t="s">
@@ -9489,27 +10335,27 @@
       <c r="C24" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="6" t="s">
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" ht="135" spans="1:13">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B25" t="s">
@@ -9518,27 +10364,27 @@
       <c r="C25" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="6" t="s">
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" ht="135" spans="1:13">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B26" t="s">
@@ -9547,22 +10393,22 @@
       <c r="C26" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H26" t="s">
         <v>285</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="6" t="s">
+      <c r="I26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9605,7 +10451,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9670,7 +10516,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>289</v>
       </c>
       <c r="G2" t="s">
@@ -9699,7 +10545,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>289</v>
       </c>
       <c r="G3" t="s">
@@ -9711,7 +10557,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9728,7 +10574,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>289</v>
       </c>
       <c r="G4" t="s">
@@ -9740,7 +10586,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="12" t="s">
         <v>295</v>
       </c>
     </row>
@@ -9845,7 +10691,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>302</v>
       </c>
       <c r="G2" t="s">
@@ -9874,7 +10720,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="14" t="s">
         <v>302</v>
       </c>
       <c r="G3" t="s">
@@ -9886,7 +10732,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="18" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9903,7 +10749,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="14" t="s">
         <v>302</v>
       </c>
       <c r="G4" t="s">
@@ -9915,7 +10761,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="18" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9932,7 +10778,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14" t="s">
         <v>302</v>
       </c>
       <c r="G5" t="s">
@@ -9961,7 +10807,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="14" t="s">
         <v>302</v>
       </c>
       <c r="G6" t="s">
@@ -9973,7 +10819,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="12" t="s">
         <v>318</v>
       </c>
     </row>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="29" activeTab="30"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -3102,9 +3102,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -3147,22 +3147,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3170,29 +3156,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3207,7 +3187,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3229,24 +3230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3289,7 +3289,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,7 +3313,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3313,25 +3379,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3343,49 +3433,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3397,79 +3469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,41 +3483,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3547,25 +3532,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3580,6 +3556,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3588,10 +3588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3603,13 +3603,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3621,112 +3621,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6316,8 +6316,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6379,7 +6379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="136" customHeight="1" spans="1:13">
+    <row r="2" ht="99" customHeight="1" spans="1:13">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -9634,7 +9634,7 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="38" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,14 @@
     <sheet name="房源管理-出售-房源用途查询" sheetId="43" r:id="rId39"/>
     <sheet name="退出系统" sheetId="44" r:id="rId40"/>
     <sheet name="修改密码" sheetId="45" r:id="rId41"/>
+    <sheet name="房源管理-出售-视频上传" sheetId="46" r:id="rId42"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2853" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="951">
   <si>
     <t>id</t>
   </si>
@@ -378,7 +379,7 @@
     <t>{"Content-Type":"application/json;charset=utf-8","SOAPAction":"http://ws.haofang.net","CLIENTKEY":"fdee45ee7134b9806ab7244dbbc16b56"}</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>{"errCode":200}</t>
@@ -390,7 +391,7 @@
     <t>房源标题字数长度为10个字符，登记出售房源成功</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_003</t>
@@ -399,7 +400,7 @@
     <t>房源标题字数长度为9个字符，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_004</t>
@@ -408,7 +409,7 @@
     <t>房源标题为空，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_005</t>
@@ -417,7 +418,7 @@
     <t>房源标题字数长度为30个字符，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_006</t>
@@ -426,7 +427,7 @@
     <t>房源标题字数长度为31个字符，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，可拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，可拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_007</t>
@@ -439,7 +440,7 @@
 </t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"你好","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，可拎包即可入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"你好","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，可拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_008</t>
@@ -448,7 +449,7 @@
     <t>楼盘名称为空，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，可拎包即可入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通十分便利，瑞升橡树林华府，可拎包即可入住环境适合居住","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_009</t>
@@ -457,7 +458,7 @@
     <t>房源总售价不为数字字符（哈哈），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"哈哈","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"哈哈","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_010</t>
@@ -466,7 +467,7 @@
     <t>房源最低售价不为数字字符（哈哈），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"哈哈","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"哈哈","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_011</t>
@@ -475,7 +476,7 @@
     <t>房源最低售价为负数（-50），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"-50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"-50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_012</t>
@@ -484,7 +485,7 @@
     <t>房源总售价为负数（-50），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"-50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"-50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_013</t>
@@ -493,7 +494,7 @@
     <t>房源最低售价（30）小于等于总售价（50），登记出售房源成功</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"30","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"30","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_014</t>
@@ -502,7 +503,7 @@
     <t>房源最低售价（50）大于总售价（30），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"30","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"30","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_015</t>
@@ -511,7 +512,7 @@
     <t>房源总售价为空，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>{"errCode":500,"errMsg":"系统错误"}</t>
@@ -523,7 +524,7 @@
     <t>房源户型为空（不填写厅数），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"1","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_017</t>
@@ -532,16 +533,16 @@
     <t>房源建筑类型（saleType）为空，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"0","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_018</t>
   </si>
   <si>
-    <t>房源建筑年代大于当年（2021），登记出售房源失败</t>
-  </si>
-  <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2021","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>房源建筑年代大于当年（2030），登记出售房源失败</t>
+  </si>
+  <si>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2030","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_019</t>
@@ -550,7 +551,7 @@
     <t>房源建筑年代为空，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_020</t>
@@ -559,7 +560,7 @@
     <t>房源建筑年代内容为中文（二零二年），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"二零二年","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"二零二年","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_021</t>
@@ -568,7 +569,7 @@
     <t>房源建筑年代为负数（-2020），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"3","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"价格实惠，拎包入住","saleTotalPrice":"","saleType":"","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"-2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"-2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_022</t>
@@ -577,7 +578,7 @@
     <t>业主电话为空，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>{"errCode":300,"errMsg":"电话号码不可为空"}</t>
@@ -589,7 +590,7 @@
     <t>业主电话长度为12位（136840891055），登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"136840891055","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"136840891055","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_024</t>
@@ -598,7 +599,7 @@
     <t>业主电话为0，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"0","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"0","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_025</t>
@@ -607,25 +608,25 @@
     <t>业主电话为-1，登记出售房源失败</t>
   </si>
   <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"-1","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"-1","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_026</t>
   </si>
   <si>
-    <t>所在楼层数不一致（"saleFloor":"8""unitFloorR":"9"），登记出售房源失败</t>
-  </si>
-  <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"0","phoneType":"13684089105","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"30","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"9"}</t>
+    <t>所在楼层数不一致（"saleFloor":"8""unitFloorR":"12"），登记出售房源失败</t>
+  </si>
+  <si>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"18","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_zhuzhai_test_027</t>
   </si>
   <si>
-    <t>所在楼层大于总楼层数（所在楼层为8，总楼层为7），登记出售房源失败</t>
-  </si>
-  <si>
-    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","checkCodeFun":"","effectiveDate":"","guarantyType":"","houseSituation":"","houseSituationId":"","houseSituationText":"请选择","onlyTextCore":"好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"0","phoneType":"13684089105","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"6","saleFitment":"3","saleFitmentText":"精装","saleFloor":"8","saleFloors":"7","saleGradation":"1","saleHall":"10","saleId":"","saleInnerarea":"","saleLadder":"8","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"8","saleNumR":"8","saleReg":"4","saleRight":"1","saleRoof":"8","saleRoofR":"8","saleRoom":"10","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"该房源交通便利，价格","saleTotalPrice":"50","saleType":"1","saleUnit":"8","saleUnitPrice":"10000","saleUnitR":"8","saleUseage":"1","saleWei":"10","saleYang":"10","saleYear":"2019","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"8","unitFloorR":"8"}</t>
+    <t>所在楼层大于总楼层数（所在楼层为12，总楼层为10），登记出售房源失败</t>
+  </si>
+  <si>
+    <t>{"buildCode":"BGY","buildId":"2051071","buildName":"碧桂园","houseSituationText":"请选择","onlyTextCore":"非常好","onlyTextFitment":"好","onlyTextLayout":"好","onlyTextRights":"无","ownershipType":"","ownershipTypeId":"","ownershipTypeText":"请选择","phones":[{"idCard":"","idCardType":"1","ownerName":"何","ownerSex":"1","ownerType":"0","phone":"13684089105","phoneType":"1","seqNo":"1"},{"phone":"","phoneType":"","seqNo":"2"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"3"},{"idCard":"","idCardType":"1","ownerName":"","ownerSex":"1","ownerType":"1","phone":"","phoneType":"","seqNo":"4"}],"photos":[],"plateType":"2","qzCodeFun":"","receiptType":"","regionName":"高新区","repeatFlag":"1","richTextCore":"","richTextFitment":"","richTextLayout":"","richTextRights":"","saleAccount":"","saleArea":"50","saleBuyPrice":"","saleDirect":"","saleDirectText":"请选择","saleDoors":"4","saleFitment":"3","saleFitmentText":"精装","saleFloor":"12","saleFloors":"10","saleGradation":"1","saleHall":"1","saleId":"","saleInnerarea":"","saleLadder":"2","saleLeaveTime":"","saleLevel":"1","saleLowestPrice":"50","saleMemo":"","saleNature":"1","saleNo":"","saleNum":"1203","saleNumR":"1203","saleReg":"4","saleRight":"1","saleRoof":"3","saleRoofR":"3","saleRoom":"1","saleRound":"6","saleRoundText":"郊县","saleSource":"1","saleStorey":"","saleStreet":"0","saleStruct":"","saleStructId":"","saleStructText":"请选择","saleSubject":"测试房源，请勿操作哟","saleTotalPrice":"50","saleType":"2","saleUnit":"2","saleUnitPrice":"10000","saleUnitR":"2","saleUseage":"1","saleWei":"1","saleYang":"1","saleYear":"2020","sectionId":"","sectionName":"南延线","showPhone":"1","tagIds":"","tradeAddr":"","unitFloor":"12","unitFloorR":"12"}</t>
   </si>
   <si>
     <t>HouseManage_CreatHouseSale_bieshu_test_028</t>
@@ -3096,6 +3097,69 @@
   <si>
     <t>{"errCode":300,"errMsg":"密码不能为空"}</t>
   </si>
+  <si>
+    <t>HouseManage_saleHouse_uploadVideo_001</t>
+  </si>
+  <si>
+    <t>正确传入各参数，视频上传成功</t>
+  </si>
+  <si>
+    <t>有效的clinetkey</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo</t>
+  </si>
+  <si>
+    <t>{"caseId":"7888860","caseType":"1","photoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/93bdd8d57fad45679e9d98231be4a39e.mp4_img","videoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/1c88148a4d754777900f21e88d5daf31.mp4"}</t>
+  </si>
+  <si>
+    <t>{"videoAddr":"","photoAddr":"","errCode":200}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_uploadVideo_002</t>
+  </si>
+  <si>
+    <t>图片地址为空，上传视频成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"7888860","caseType":"1","photoAddr":"","videoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/1c88148a4d754777900f21e88d5daf31.mp4"}</t>
+  </si>
+  <si>
+    <t>{"videoAddr":"","errCode":200}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_uploadVideo_003</t>
+  </si>
+  <si>
+    <t>出售的房源caseid为空，上传视频失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"","caseType":"1","photoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/93bdd8d57fad45679e9d98231be4a39e.mp4_img","videoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/1c88148a4d754777900f21e88d5daf31.mp4"}</t>
+  </si>
+  <si>
+    <t>{"errMsg":"系统错误","errCode":500}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_uploadVideo_004</t>
+  </si>
+  <si>
+    <t>caseType为空时，上传视频失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7888860","caseType":"","photoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/93bdd8d57fad45679e9d98231be4a39e.mp4_img","videoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/1c88148a4d754777900f21e88d5daf31.mp4"}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_uploadVideo_005</t>
+  </si>
+  <si>
+    <t>视频地址为空，上传视频失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7888860","caseType":"1","photoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/93bdd8d57fad45679e9d98231be4a39e.mp4_img","videoAddr":""}</t>
+  </si>
+  <si>
+    <t>{"nullvideoAddr":"nullhttp"}</t>
+  </si>
 </sst>
 </file>
 
@@ -3103,8 +3167,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -3118,7 +3182,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3126,7 +3190,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3146,9 +3210,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3170,9 +3241,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3187,28 +3287,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3216,22 +3295,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3247,13 +3318,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3289,7 +3353,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3301,13 +3497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3319,49 +3509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3373,103 +3527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,17 +3547,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3503,30 +3563,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3548,11 +3584,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3571,15 +3644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3588,10 +3652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3600,37 +3664,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3639,94 +3697,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3734,7 +3798,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3743,16 +3810,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3761,7 +3825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4182,7 +4246,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
@@ -4191,13 +4255,13 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
@@ -4211,7 +4275,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
@@ -4220,13 +4284,13 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -4240,7 +4304,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
@@ -4249,13 +4313,13 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
@@ -4269,7 +4333,7 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -4278,13 +4342,13 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
@@ -4298,7 +4362,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
@@ -4307,13 +4371,13 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -4327,7 +4391,7 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
@@ -4336,10 +4400,10 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
@@ -4350,13 +4414,13 @@
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="2:7">
-      <c r="B8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="5"/>
+      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4438,13 +4502,13 @@
       <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G2" t="s">
@@ -4467,13 +4531,13 @@
       <c r="B3" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>322</v>
       </c>
       <c r="G3" t="s">
@@ -4496,13 +4560,13 @@
       <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>322</v>
       </c>
       <c r="G4" t="s">
@@ -4525,13 +4589,13 @@
       <c r="B5" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>322</v>
       </c>
       <c r="G5" t="s">
@@ -4554,13 +4618,13 @@
       <c r="B6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>322</v>
       </c>
       <c r="G6" t="s">
@@ -4577,28 +4641,28 @@
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="2"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="1"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="2"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="1"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="2"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="1"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:13">
-      <c r="C10" s="2"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="1"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:13">
-      <c r="C11" s="2"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="1"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" ht="50" customHeight="1"/>
@@ -4685,13 +4749,13 @@
       <c r="B2" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G2" t="s">
@@ -4714,13 +4778,13 @@
       <c r="B3" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G3" t="s">
@@ -4743,13 +4807,13 @@
       <c r="B4" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>349</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G4" t="s">
@@ -4861,13 +4925,13 @@
       <c r="B2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>353</v>
       </c>
       <c r="G2" t="s">
@@ -4890,13 +4954,13 @@
       <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>353</v>
       </c>
       <c r="G3" t="s">
@@ -4919,13 +4983,13 @@
       <c r="B4" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>353</v>
       </c>
       <c r="G4" t="s">
@@ -5019,13 +5083,13 @@
       <c r="B2" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -5048,13 +5112,13 @@
       <c r="B3" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -5077,13 +5141,13 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -5175,13 +5239,13 @@
       <c r="B2" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>376</v>
       </c>
       <c r="G2" t="s">
@@ -5204,13 +5268,13 @@
       <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>379</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>376</v>
       </c>
       <c r="G3" t="s">
@@ -5233,13 +5297,13 @@
       <c r="B4" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>379</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>376</v>
       </c>
       <c r="G4" t="s">
@@ -5262,13 +5326,13 @@
       <c r="B5" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>379</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>376</v>
       </c>
       <c r="G5" t="s">
@@ -5285,8 +5349,8 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
-      <c r="C6" s="2"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="M6" s="12"/>
     </row>
   </sheetData>
@@ -5366,13 +5430,13 @@
       <c r="B2" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>389</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5395,13 +5459,13 @@
       <c r="B3" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>393</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5424,13 +5488,13 @@
       <c r="B4" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>397</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5527,13 +5591,13 @@
       <c r="B2" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5556,13 +5620,13 @@
       <c r="B3" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5585,13 +5649,13 @@
       <c r="B4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5614,13 +5678,13 @@
       <c r="B5" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G5" t="s">
@@ -5643,13 +5707,13 @@
       <c r="B6" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G6" t="s">
@@ -5672,13 +5736,13 @@
       <c r="B7" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G7" t="s">
@@ -5701,13 +5765,13 @@
       <c r="B8" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G8" t="s">
@@ -5730,13 +5794,13 @@
       <c r="B9" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G9" t="s">
@@ -5833,13 +5897,13 @@
       <c r="B2" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5862,13 +5926,13 @@
       <c r="B3" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>429</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5891,13 +5955,13 @@
       <c r="B4" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>433</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5989,13 +6053,13 @@
       <c r="B2" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -6018,13 +6082,13 @@
       <c r="B3" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -6047,13 +6111,13 @@
       <c r="B4" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -6076,13 +6140,13 @@
       <c r="B5" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -6105,13 +6169,13 @@
       <c r="B6" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -6128,18 +6192,18 @@
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="2"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="2"/>
-      <c r="E8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="2"/>
-      <c r="E9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="2"/>
       <c r="M9" s="12"/>
     </row>
   </sheetData>
@@ -6226,7 +6290,7 @@
       <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -6255,7 +6319,7 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -6284,7 +6348,7 @@
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -6316,7 +6380,7 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -6383,22 +6447,22 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -6415,19 +6479,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -6444,19 +6508,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -6473,19 +6537,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -6502,19 +6566,19 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
@@ -6531,19 +6595,19 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
@@ -6560,19 +6624,19 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>70</v>
       </c>
       <c r="I8" t="s">
@@ -6589,19 +6653,19 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I9" t="s">
@@ -6618,19 +6682,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -6647,19 +6711,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -6676,19 +6740,19 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -6705,19 +6769,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -6812,13 +6876,13 @@
       <c r="B2" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>467</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>468</v>
       </c>
       <c r="G2" t="s">
@@ -6841,13 +6905,13 @@
       <c r="B3" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>468</v>
       </c>
       <c r="G3" t="s">
@@ -6870,13 +6934,13 @@
       <c r="B4" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>467</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>468</v>
       </c>
       <c r="G4" t="s">
@@ -6899,13 +6963,13 @@
       <c r="B5" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>467</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>468</v>
       </c>
       <c r="G5" t="s">
@@ -6928,13 +6992,13 @@
       <c r="B6" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>467</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>468</v>
       </c>
       <c r="G6" t="s">
@@ -6957,13 +7021,13 @@
       <c r="B7" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>467</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>468</v>
       </c>
       <c r="G7" t="s">
@@ -6981,15 +7045,15 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="8"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7070,13 +7134,13 @@
       <c r="B2" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>487</v>
       </c>
       <c r="G2" t="s">
@@ -8041,13 +8105,13 @@
       <c r="B2" t="s">
         <v>577</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -8070,13 +8134,13 @@
       <c r="B3" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -8099,13 +8163,13 @@
       <c r="B4" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -8128,13 +8192,13 @@
       <c r="B5" t="s">
         <v>584</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -8157,13 +8221,13 @@
       <c r="B6" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -8257,7 +8321,7 @@
       <c r="B2" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
@@ -8286,7 +8350,7 @@
       <c r="B3" t="s">
         <v>592</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
@@ -8315,7 +8379,7 @@
       <c r="B4" t="s">
         <v>595</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
@@ -8413,7 +8477,7 @@
       <c r="B2" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>599</v>
       </c>
       <c r="D2" t="s">
@@ -8442,7 +8506,7 @@
       <c r="B3" t="s">
         <v>602</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>599</v>
       </c>
       <c r="D3" t="s">
@@ -8471,7 +8535,7 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>599</v>
       </c>
       <c r="D4" t="s">
@@ -8569,13 +8633,13 @@
       <c r="B2" t="s">
         <v>606</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>607</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -8785,13 +8849,13 @@
       <c r="B2" t="s">
         <v>627</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>628</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
@@ -8814,13 +8878,13 @@
       <c r="B3" t="s">
         <v>631</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>628</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G3" t="s">
@@ -8849,7 +8913,7 @@
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -8878,7 +8942,7 @@
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -8907,7 +8971,7 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -8936,7 +9000,7 @@
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -9031,7 +9095,7 @@
       <c r="B2" t="s">
         <v>646</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>647</v>
       </c>
       <c r="D2" t="s">
@@ -9060,7 +9124,7 @@
       <c r="B3" t="s">
         <v>651</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>652</v>
       </c>
       <c r="D3" t="s">
@@ -9157,7 +9221,7 @@
       <c r="B2" t="s">
         <v>656</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>657</v>
       </c>
       <c r="D2" t="s">
@@ -9186,7 +9250,7 @@
       <c r="B3" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>662</v>
       </c>
       <c r="D3" t="s">
@@ -9469,22 +9533,22 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -9568,7 +9632,7 @@
       <c r="B2" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>680</v>
       </c>
       <c r="D2" t="s">
@@ -9597,7 +9661,7 @@
       <c r="B3" t="s">
         <v>685</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>686</v>
       </c>
       <c r="D3" t="s">
@@ -9694,7 +9758,7 @@
       <c r="B2" t="s">
         <v>690</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>691</v>
       </c>
       <c r="D2" t="s">
@@ -9723,7 +9787,7 @@
       <c r="B3" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>696</v>
       </c>
       <c r="D3" t="s">
@@ -9820,13 +9884,13 @@
       <c r="B2" t="s">
         <v>700</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>701</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -9849,13 +9913,13 @@
       <c r="B3" t="s">
         <v>705</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>706</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -9878,13 +9942,13 @@
       <c r="B4" t="s">
         <v>710</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>711</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -9907,13 +9971,13 @@
       <c r="B5" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>716</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -9936,13 +10000,13 @@
       <c r="B6" t="s">
         <v>720</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>721</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -9965,13 +10029,13 @@
       <c r="B7" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>726</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G7" t="s">
@@ -9994,13 +10058,13 @@
       <c r="B8" t="s">
         <v>730</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>731</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G8" t="s">
@@ -10023,13 +10087,13 @@
       <c r="B9" t="s">
         <v>735</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>736</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G9" t="s">
@@ -10052,13 +10116,13 @@
       <c r="B10" t="s">
         <v>740</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>741</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G10" t="s">
@@ -10156,13 +10220,13 @@
       <c r="B2" t="s">
         <v>745</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>746</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G2" t="s">
@@ -10185,13 +10249,13 @@
       <c r="B3" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>749</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G3" t="s">
@@ -10214,13 +10278,13 @@
       <c r="B4" t="s">
         <v>751</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>752</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G4" t="s">
@@ -10243,13 +10307,13 @@
       <c r="B5" t="s">
         <v>754</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>755</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G5" t="s">
@@ -10272,13 +10336,13 @@
       <c r="B6" t="s">
         <v>757</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>758</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G6" t="s">
@@ -10301,13 +10365,13 @@
       <c r="B7" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>761</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G7" t="s">
@@ -10330,13 +10394,13 @@
       <c r="B8" t="s">
         <v>763</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>764</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G8" t="s">
@@ -10359,13 +10423,13 @@
       <c r="B9" t="s">
         <v>766</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>767</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G9" t="s">
@@ -10388,13 +10452,13 @@
       <c r="B10" t="s">
         <v>769</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>770</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G10" t="s">
@@ -10492,13 +10556,13 @@
       <c r="B2" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>773</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -10521,13 +10585,13 @@
       <c r="B3" t="s">
         <v>777</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>778</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -10550,13 +10614,13 @@
       <c r="B4" t="s">
         <v>782</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>783</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -10579,13 +10643,13 @@
       <c r="B5" t="s">
         <v>787</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>788</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -10608,13 +10672,13 @@
       <c r="B6" t="s">
         <v>792</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>793</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -10637,13 +10701,13 @@
       <c r="B7" t="s">
         <v>797</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>798</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G7" t="s">
@@ -10666,13 +10730,13 @@
       <c r="B8" t="s">
         <v>802</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>803</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G8" t="s">
@@ -10768,13 +10832,13 @@
       <c r="B2" t="s">
         <v>807</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>808</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G2" t="s">
@@ -10797,13 +10861,13 @@
       <c r="B3" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>813</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G3" t="s">
@@ -10826,13 +10890,13 @@
       <c r="B4" t="s">
         <v>817</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>818</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G4" t="s">
@@ -10855,13 +10919,13 @@
       <c r="B5" t="s">
         <v>822</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>823</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G5" t="s">
@@ -10884,13 +10948,13 @@
       <c r="B6" t="s">
         <v>827</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>828</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G6" t="s">
@@ -10913,13 +10977,13 @@
       <c r="B7" t="s">
         <v>832</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>833</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G7" t="s">
@@ -10942,13 +11006,13 @@
       <c r="B8" t="s">
         <v>837</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>838</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>681</v>
       </c>
       <c r="G8" t="s">
@@ -11044,13 +11108,13 @@
       <c r="B2" t="s">
         <v>842</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>843</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11140,13 +11204,13 @@
       <c r="B2" t="s">
         <v>846</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>847</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11169,13 +11233,13 @@
       <c r="B3" t="s">
         <v>851</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>852</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11198,13 +11262,13 @@
       <c r="B4" t="s">
         <v>856</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>857</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -11227,13 +11291,13 @@
       <c r="B5" t="s">
         <v>861</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>862</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -11256,13 +11320,13 @@
       <c r="B6" t="s">
         <v>866</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>867</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -11356,7 +11420,7 @@
       <c r="B2" t="s">
         <v>871</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>872</v>
       </c>
       <c r="D2" t="s">
@@ -11385,7 +11449,7 @@
       <c r="B3" t="s">
         <v>876</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>877</v>
       </c>
       <c r="D3" t="s">
@@ -11482,13 +11546,13 @@
       <c r="B2" t="s">
         <v>881</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>882</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11511,13 +11575,13 @@
       <c r="B3" t="s">
         <v>886</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>882</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11540,13 +11604,13 @@
       <c r="B4" t="s">
         <v>890</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>882</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -11569,13 +11633,13 @@
       <c r="B5" t="s">
         <v>894</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>882</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -11672,13 +11736,13 @@
       <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -11701,13 +11765,13 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
@@ -11792,22 +11856,22 @@
       <c r="A2" t="s">
         <v>897</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>899</v>
       </c>
       <c r="I2" t="s">
@@ -11832,7 +11896,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11897,7 +11961,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G2" t="s">
@@ -11926,7 +11990,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G3" t="s">
@@ -11955,7 +12019,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G4" t="s">
@@ -11984,7 +12048,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G5" t="s">
@@ -12013,7 +12077,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G6" t="s">
@@ -12042,7 +12106,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G7" t="s">
@@ -12071,7 +12135,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G8" t="s">
@@ -12100,7 +12164,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>902</v>
       </c>
       <c r="G9" t="s">
@@ -12140,13 +12204,231 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="60" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>934</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>936</v>
+      </c>
+      <c r="B3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>938</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1" spans="1:13">
+      <c r="A4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B4" t="s">
+        <v>941</v>
+      </c>
+      <c r="C4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>942</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:13">
+      <c r="A5" t="s">
+        <v>944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>945</v>
+      </c>
+      <c r="C5" t="s">
+        <v>932</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>946</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1" spans="1:13">
+      <c r="A6" t="s">
+        <v>947</v>
+      </c>
+      <c r="B6" t="s">
+        <v>948</v>
+      </c>
+      <c r="C6" t="s">
+        <v>932</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>949</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1"/>
+    <row r="8" ht="60" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12210,19 +12492,19 @@
       <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" t="s">
         <v>104</v>
       </c>
       <c r="I2" t="s">
@@ -12245,13 +12527,13 @@
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" t="s">
         <v>108</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -12274,13 +12556,13 @@
       <c r="D4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" t="s">
         <v>111</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -12303,13 +12585,13 @@
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" t="s">
         <v>114</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -12332,13 +12614,13 @@
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" t="s">
         <v>117</v>
       </c>
       <c r="I6" s="8" t="s">
@@ -12361,13 +12643,13 @@
       <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" t="s">
         <v>120</v>
       </c>
       <c r="I7" s="8" t="s">
@@ -12390,13 +12672,13 @@
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" t="s">
         <v>124</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -12419,13 +12701,13 @@
       <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" t="s">
         <v>127</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -12448,13 +12730,13 @@
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" t="s">
         <v>130</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -12477,13 +12759,13 @@
       <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" t="s">
         <v>133</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -12506,13 +12788,13 @@
       <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" t="s">
         <v>136</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -12535,13 +12817,13 @@
       <c r="D13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" t="s">
         <v>139</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -12564,13 +12846,13 @@
       <c r="D14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" t="s">
         <v>142</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -12593,13 +12875,13 @@
       <c r="D15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" t="s">
         <v>145</v>
       </c>
       <c r="I15" s="8" t="s">
@@ -12622,13 +12904,13 @@
       <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" t="s">
         <v>148</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -12651,13 +12933,13 @@
       <c r="D17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" t="s">
         <v>152</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -12680,13 +12962,13 @@
       <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" t="s">
         <v>155</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -12709,13 +12991,13 @@
       <c r="D19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" t="s">
         <v>158</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -12738,13 +13020,13 @@
       <c r="D20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" t="s">
         <v>161</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -12767,13 +13049,13 @@
       <c r="D21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" t="s">
         <v>164</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -12796,13 +13078,13 @@
       <c r="D22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" t="s">
         <v>167</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -12825,14 +13107,14 @@
       <c r="D23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" t="s">
         <v>170</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -12862,13 +13144,13 @@
       <c r="D24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" t="s">
         <v>174</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -12891,13 +13173,13 @@
       <c r="D25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" t="s">
         <v>177</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -12920,13 +13202,13 @@
       <c r="D26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" t="s">
         <v>180</v>
       </c>
       <c r="I26" s="8" t="s">
@@ -12949,13 +13231,13 @@
       <c r="D27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" t="s">
         <v>183</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -12978,13 +13260,13 @@
       <c r="D28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" t="s">
         <v>186</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -12994,11 +13276,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" ht="108" spans="1:13">
+    <row r="29" s="8" customFormat="1" ht="108" spans="1:13">
       <c r="A29" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="8" t="s">
         <v>188</v>
       </c>
       <c r="C29" s="9" t="s">
@@ -13007,27 +13289,27 @@
       <c r="D29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="8" t="s">
         <v>189</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" ht="108" spans="1:13">
+    <row r="30" s="8" customFormat="1" ht="108" spans="1:13">
       <c r="A30" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -13036,27 +13318,27 @@
       <c r="D30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="8" t="s">
         <v>192</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" ht="108" spans="1:13">
+    <row r="31" s="8" customFormat="1" ht="108" spans="1:13">
       <c r="A31" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="8" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="9" t="s">
@@ -13065,27 +13347,27 @@
       <c r="D31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="8" t="s">
         <v>195</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="108" spans="1:13">
+    <row r="32" s="8" customFormat="1" ht="108" spans="1:13">
       <c r="A32" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -13094,19 +13376,19 @@
       <c r="D32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="8" t="s">
         <v>198</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="8" t="s">
         <v>105</v>
       </c>
     </row>
@@ -13220,7 +13502,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>202</v>
       </c>
       <c r="G2" t="s">
@@ -13310,13 +13592,13 @@
       <c r="B2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -13339,13 +13621,13 @@
       <c r="B3" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -13368,7 +13650,7 @@
       <c r="B4" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -13397,13 +13679,13 @@
       <c r="B5" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -13426,7 +13708,7 @@
       <c r="B6" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -13455,7 +13737,7 @@
       <c r="B7" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -13484,7 +13766,7 @@
       <c r="B8" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -13513,7 +13795,7 @@
       <c r="B9" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -13542,7 +13824,7 @@
       <c r="B10" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -13571,7 +13853,7 @@
       <c r="B11" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -13600,7 +13882,7 @@
       <c r="B12" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -13629,7 +13911,7 @@
       <c r="B13" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -13658,7 +13940,7 @@
       <c r="B14" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -13687,7 +13969,7 @@
       <c r="B15" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -13716,7 +13998,7 @@
       <c r="B16" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -13745,7 +14027,7 @@
       <c r="B17" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -13774,7 +14056,7 @@
       <c r="B18" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -13803,7 +14085,7 @@
       <c r="B19" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -13832,7 +14114,7 @@
       <c r="B20" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -13861,7 +14143,7 @@
       <c r="B21" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -13890,7 +14172,7 @@
       <c r="B22" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -13919,7 +14201,7 @@
       <c r="B23" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -13948,7 +14230,7 @@
       <c r="B24" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -13977,7 +14259,7 @@
       <c r="B25" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -14006,7 +14288,7 @@
       <c r="B26" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>281</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -14126,13 +14408,13 @@
       <c r="B2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G2" t="s">
@@ -14155,13 +14437,13 @@
       <c r="B3" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G3" t="s">
@@ -14184,13 +14466,13 @@
       <c r="B4" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>289</v>
       </c>
       <c r="G4" t="s">
@@ -14301,13 +14583,13 @@
       <c r="B2" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G2" t="s">
@@ -14330,13 +14612,13 @@
       <c r="B3" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G3" t="s">
@@ -14359,13 +14641,13 @@
       <c r="B4" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G4" t="s">
@@ -14388,13 +14670,13 @@
       <c r="B5" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G5" t="s">
@@ -14417,13 +14699,13 @@
       <c r="B6" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>301</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>302</v>
       </c>
       <c r="G6" t="s">

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="38" activeTab="41"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="22" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -3166,8 +3166,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3210,8 +3210,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3227,29 +3310,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3257,67 +3318,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3353,43 +3353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3401,13 +3383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3425,7 +3407,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3437,61 +3509,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3503,37 +3533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3568,6 +3568,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3585,8 +3600,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3594,23 +3624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3629,21 +3644,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3652,10 +3652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3664,16 +3664,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3685,88 +3685,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3775,22 +3763,34 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8261,8 +8261,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -11896,7 +11896,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12209,7 +12209,7 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="22" activeTab="22"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="39" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,14 @@
     <sheet name="退出系统" sheetId="44" r:id="rId40"/>
     <sheet name="修改密码" sheetId="45" r:id="rId41"/>
     <sheet name="房源管理-出售-视频上传" sheetId="46" r:id="rId42"/>
+    <sheet name="房源管理-出售-点亮合作房源" sheetId="47" r:id="rId43"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="971">
   <si>
     <t>id</t>
   </si>
@@ -3160,16 +3161,77 @@
   <si>
     <t>{"nullvideoAddr":"nullhttp"}</t>
   </si>
+  <si>
+    <t>HouseManage_saleHouse_updateShareFlag_001</t>
+  </si>
+  <si>
+    <t>正确传入各参数，点亮合作房源成功</t>
+  </si>
+  <si>
+    <t>1.已登录
+2.房源有3张图片</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/houseWeb/erp/funHouse/updateShareFlag</t>
+  </si>
+  <si>
+    <t>{"caseId":"7889261","caseType":"1","commissionRate":"30","publishFlag":"1"}</t>
+  </si>
+  <si>
+    <t>{"cooperateRatio":"30","errCode":200}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_updateShareFlag_002</t>
+  </si>
+  <si>
+    <t>分佣比例为100时，点亮合作房源成功</t>
+  </si>
+  <si>
+    <t>{"caseId":"7889261","caseType":"1","commissionRate":"100","publishFlag":"1"}</t>
+  </si>
+  <si>
+    <t>{"cooperateRatio":"100","errCode":200}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_updateShareFlag_003</t>
+  </si>
+  <si>
+    <t>分佣比例为负数（-30）时，点亮合作房源失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7889261","caseType":"1","commissionRate":"-30","publishFlag":"1"}</t>
+  </si>
+  <si>
+    <t>{"errCode":500,"errMsg":"参数错误"}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_updateShareFlag_004</t>
+  </si>
+  <si>
+    <t>分佣比例为空时，点亮合作房源失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7889261","caseType":"1","commissionRate":"","publishFlag":"1"}</t>
+  </si>
+  <si>
+    <t>HouseManage_saleHouse_updateShareFlag_005</t>
+  </si>
+  <si>
+    <t>分佣比例为小数（30.5）时，点亮合作房源失败</t>
+  </si>
+  <si>
+    <t>{"caseId":"7889261","caseType":"1","commissionRate":"30.5","publishFlag":"1"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3210,9 +3272,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3227,14 +3289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3254,31 +3309,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3293,6 +3325,20 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3301,8 +3347,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3316,8 +3377,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3353,7 +3415,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3365,91 +3559,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3461,79 +3595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3558,15 +3620,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3578,6 +3631,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3602,21 +3679,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3655,7 +3717,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3664,16 +3726,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3685,120 +3747,132 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
@@ -4246,7 +4320,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
@@ -4255,13 +4329,13 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
@@ -4275,7 +4349,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
@@ -4284,13 +4358,13 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -4304,7 +4378,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
@@ -4313,13 +4387,13 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
@@ -4333,7 +4407,7 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -4342,13 +4416,13 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
@@ -4362,7 +4436,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
@@ -4371,13 +4445,13 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -4391,7 +4465,7 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
@@ -4400,10 +4474,10 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
@@ -4414,13 +4488,13 @@
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="2:7">
-      <c r="B8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="1"/>
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4502,13 +4576,13 @@
       <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>322</v>
       </c>
       <c r="G2" t="s">
@@ -4520,7 +4594,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4531,13 +4605,13 @@
       <c r="B3" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>322</v>
       </c>
       <c r="G3" t="s">
@@ -4549,7 +4623,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="19" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4560,13 +4634,13 @@
       <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>322</v>
       </c>
       <c r="G4" t="s">
@@ -4578,7 +4652,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4589,13 +4663,13 @@
       <c r="B5" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>322</v>
       </c>
       <c r="G5" t="s">
@@ -4607,7 +4681,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="19" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4618,13 +4692,13 @@
       <c r="B6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>322</v>
       </c>
       <c r="G6" t="s">
@@ -4636,34 +4710,34 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="3"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="M8" s="15"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="3"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="M9" s="15"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:13">
-      <c r="C10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="M10" s="15"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:13">
-      <c r="C11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="M11" s="12"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" ht="50" customHeight="1"/>
     <row r="13" ht="50" customHeight="1"/>
@@ -4749,13 +4823,13 @@
       <c r="B2" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>340</v>
       </c>
       <c r="G2" t="s">
@@ -4767,7 +4841,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4778,13 +4852,13 @@
       <c r="B3" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>340</v>
       </c>
       <c r="G3" t="s">
@@ -4796,7 +4870,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4807,13 +4881,13 @@
       <c r="B4" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>340</v>
       </c>
       <c r="G4" t="s">
@@ -4825,7 +4899,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4925,13 +4999,13 @@
       <c r="B2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>353</v>
       </c>
       <c r="G2" t="s">
@@ -4943,7 +5017,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4954,13 +5028,13 @@
       <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>353</v>
       </c>
       <c r="G3" t="s">
@@ -4972,7 +5046,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4983,13 +5057,13 @@
       <c r="B4" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>353</v>
       </c>
       <c r="G4" t="s">
@@ -5001,7 +5075,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5083,13 +5157,13 @@
       <c r="B2" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -5101,7 +5175,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5112,13 +5186,13 @@
       <c r="B3" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>364</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -5130,7 +5204,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5141,13 +5215,13 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>364</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -5159,7 +5233,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5239,13 +5313,13 @@
       <c r="B2" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>376</v>
       </c>
       <c r="G2" t="s">
@@ -5257,7 +5331,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5268,13 +5342,13 @@
       <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>376</v>
       </c>
       <c r="G3" t="s">
@@ -5286,7 +5360,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5297,13 +5371,13 @@
       <c r="B4" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>376</v>
       </c>
       <c r="G4" t="s">
@@ -5315,7 +5389,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5326,13 +5400,13 @@
       <c r="B5" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>376</v>
       </c>
       <c r="G5" t="s">
@@ -5344,14 +5418,14 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="19" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
-      <c r="C6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="M6" s="12"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="9"/>
+      <c r="M6" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5430,13 +5504,13 @@
       <c r="B2" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>389</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5448,7 +5522,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5459,13 +5533,13 @@
       <c r="B3" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>393</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5477,7 +5551,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5488,13 +5562,13 @@
       <c r="B4" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>397</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5506,7 +5580,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5591,13 +5665,13 @@
       <c r="B2" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5609,7 +5683,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5620,13 +5694,13 @@
       <c r="B3" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5638,7 +5712,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5649,13 +5723,13 @@
       <c r="B4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5667,7 +5741,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5678,13 +5752,13 @@
       <c r="B5" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G5" t="s">
@@ -5696,7 +5770,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5707,13 +5781,13 @@
       <c r="B6" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G6" t="s">
@@ -5725,7 +5799,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="16" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5736,13 +5810,13 @@
       <c r="B7" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G7" t="s">
@@ -5754,7 +5828,7 @@
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="16" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5765,13 +5839,13 @@
       <c r="B8" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G8" t="s">
@@ -5783,7 +5857,7 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="16" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5794,13 +5868,13 @@
       <c r="B9" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G9" t="s">
@@ -5812,7 +5886,7 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5897,13 +5971,13 @@
       <c r="B2" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5915,7 +5989,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5926,13 +6000,13 @@
       <c r="B3" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>429</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5944,7 +6018,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5955,13 +6029,13 @@
       <c r="B4" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>433</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5973,7 +6047,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6053,13 +6127,13 @@
       <c r="B2" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -6071,7 +6145,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6082,13 +6156,13 @@
       <c r="B3" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -6100,7 +6174,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6111,13 +6185,13 @@
       <c r="B4" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -6129,7 +6203,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6140,13 +6214,13 @@
       <c r="B5" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -6158,7 +6232,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="16" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6169,13 +6243,13 @@
       <c r="B6" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -6187,24 +6261,24 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="16" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="M7" s="12"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="M8" s="12"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="3"/>
-      <c r="E9" s="2"/>
-      <c r="M9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="M9" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6277,90 +6351,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="I2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6447,22 +6521,22 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -6479,19 +6553,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -6508,19 +6582,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="8" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -6537,19 +6611,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -6566,19 +6640,19 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
@@ -6595,19 +6669,19 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="8" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
@@ -6624,19 +6698,19 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="8" t="s">
         <v>70</v>
       </c>
       <c r="I8" t="s">
@@ -6653,19 +6727,19 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I9" t="s">
@@ -6682,19 +6756,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="8" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -6711,19 +6785,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="8" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -6740,19 +6814,19 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="8" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -6769,19 +6843,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="8" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -6870,19 +6944,19 @@
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:13">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>467</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>468</v>
       </c>
       <c r="G2" t="s">
@@ -6899,19 +6973,19 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>468</v>
       </c>
       <c r="G3" t="s">
@@ -6928,19 +7002,19 @@
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:13">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>467</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>468</v>
       </c>
       <c r="G4" t="s">
@@ -6952,24 +7026,24 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:13">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>467</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>468</v>
       </c>
       <c r="G5" t="s">
@@ -6981,24 +7055,24 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>480</v>
       </c>
       <c r="B6" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>467</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>468</v>
       </c>
       <c r="G6" t="s">
@@ -7010,24 +7084,24 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:13">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>482</v>
       </c>
       <c r="B7" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>467</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>468</v>
       </c>
       <c r="G7" t="s">
@@ -7039,21 +7113,21 @@
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="12"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="12"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="12"/>
+      <c r="C10" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7134,13 +7208,13 @@
       <c r="B2" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>487</v>
       </c>
       <c r="G2" t="s">
@@ -7156,849 +7230,849 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="54" spans="1:13">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="12" customFormat="1" ht="54" spans="1:13">
+      <c r="A8" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="I11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="I12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="I13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="I14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="I15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="8" t="s">
+      <c r="I16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="I17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="8" t="s">
+    <row r="18" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="I18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="8" t="s">
+    <row r="19" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="I19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="8" t="s">
+    <row r="20" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="I20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A21" s="8" t="s">
+    <row r="21" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A21" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="I21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="I22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" ht="108" spans="1:14">
-      <c r="A23" s="13" t="s">
+    <row r="23" s="12" customFormat="1" ht="108" spans="1:14">
+      <c r="A23" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13" t="s">
+      <c r="I23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A24" s="8" t="s">
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A24" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="I24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A25" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A26" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="8" t="s">
+      <c r="G26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A27" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="8" t="s">
+      <c r="G27" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A28" s="8" t="s">
+    <row r="28" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A28" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="8" t="s">
+      <c r="I28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A29" s="8" t="s">
+    <row r="29" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A29" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="I29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A30" s="8" t="s">
+    <row r="30" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A30" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="I30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A31" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="8" t="s">
+      <c r="I31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8105,13 +8179,13 @@
       <c r="B2" t="s">
         <v>577</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -8123,7 +8197,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8134,13 +8208,13 @@
       <c r="B3" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -8152,7 +8226,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8163,13 +8237,13 @@
       <c r="B4" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -8181,7 +8255,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8192,13 +8266,13 @@
       <c r="B5" t="s">
         <v>584</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -8210,7 +8284,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="16" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8221,13 +8295,13 @@
       <c r="B6" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -8239,7 +8313,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="16" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8261,8 +8335,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -8321,13 +8395,13 @@
       <c r="B2" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -8339,7 +8413,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>590</v>
       </c>
     </row>
@@ -8350,13 +8424,13 @@
       <c r="B3" t="s">
         <v>592</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -8368,7 +8442,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>590</v>
       </c>
     </row>
@@ -8379,13 +8453,13 @@
       <c r="B4" t="s">
         <v>595</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="14" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -8397,7 +8471,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>590</v>
       </c>
     </row>
@@ -8477,13 +8551,13 @@
       <c r="B2" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>599</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -8495,7 +8569,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8506,13 +8580,13 @@
       <c r="B3" t="s">
         <v>602</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>599</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -8524,7 +8598,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8535,13 +8609,13 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>599</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -8553,7 +8627,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8633,19 +8707,19 @@
       <c r="B2" t="s">
         <v>606</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>607</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>609</v>
       </c>
       <c r="I2" t="s">
@@ -8655,119 +8729,119 @@
         <v>610</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="12" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="12" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="81" spans="1:13">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="12" customFormat="1" ht="81" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="81" spans="1:13">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="12" customFormat="1" ht="81" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>610</v>
       </c>
     </row>
@@ -8849,19 +8923,19 @@
       <c r="B2" t="s">
         <v>627</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>628</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>629</v>
       </c>
       <c r="I2" t="s">
@@ -8878,19 +8952,19 @@
       <c r="B3" t="s">
         <v>631</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>628</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>632</v>
       </c>
       <c r="I3" t="s">
@@ -8900,119 +8974,119 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="12" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="12" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>638</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:13">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" ht="148.5" spans="1:13">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>644</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9095,13 +9169,13 @@
       <c r="B2" t="s">
         <v>646</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>647</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -9124,13 +9198,13 @@
       <c r="B3" t="s">
         <v>651</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>652</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -9221,13 +9295,13 @@
       <c r="B2" t="s">
         <v>656</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>657</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -9250,13 +9324,13 @@
       <c r="B3" t="s">
         <v>661</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>662</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -9340,119 +9414,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A2" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H2" t="s">
         <v>668</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="I2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>671</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>674</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>677</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9533,22 +9607,22 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -9632,13 +9706,13 @@
       <c r="B2" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>680</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>681</v>
       </c>
       <c r="G2" t="s">
@@ -9661,13 +9735,13 @@
       <c r="B3" t="s">
         <v>685</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>686</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>681</v>
       </c>
       <c r="G3" t="s">
@@ -9758,13 +9832,13 @@
       <c r="B2" t="s">
         <v>690</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>691</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>681</v>
       </c>
       <c r="G2" t="s">
@@ -9787,13 +9861,13 @@
       <c r="B3" t="s">
         <v>695</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>696</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>681</v>
       </c>
       <c r="G3" t="s">
@@ -9884,13 +9958,13 @@
       <c r="B2" t="s">
         <v>700</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>701</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -9913,13 +9987,13 @@
       <c r="B3" t="s">
         <v>705</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>706</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -9942,13 +10016,13 @@
       <c r="B4" t="s">
         <v>710</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>711</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -9971,13 +10045,13 @@
       <c r="B5" t="s">
         <v>715</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>716</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -10000,13 +10074,13 @@
       <c r="B6" t="s">
         <v>720</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>721</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -10029,13 +10103,13 @@
       <c r="B7" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>726</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G7" t="s">
@@ -10058,13 +10132,13 @@
       <c r="B8" t="s">
         <v>730</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>731</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G8" t="s">
@@ -10087,13 +10161,13 @@
       <c r="B9" t="s">
         <v>735</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>736</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G9" t="s">
@@ -10116,13 +10190,13 @@
       <c r="B10" t="s">
         <v>740</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>741</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G10" t="s">
@@ -10220,13 +10294,13 @@
       <c r="B2" t="s">
         <v>745</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>746</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G2" t="s">
@@ -10249,13 +10323,13 @@
       <c r="B3" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>749</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G3" t="s">
@@ -10278,13 +10352,13 @@
       <c r="B4" t="s">
         <v>751</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>752</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G4" t="s">
@@ -10307,13 +10381,13 @@
       <c r="B5" t="s">
         <v>754</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>755</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G5" t="s">
@@ -10336,13 +10410,13 @@
       <c r="B6" t="s">
         <v>757</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>758</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G6" t="s">
@@ -10365,13 +10439,13 @@
       <c r="B7" t="s">
         <v>760</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>761</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G7" t="s">
@@ -10394,13 +10468,13 @@
       <c r="B8" t="s">
         <v>763</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>764</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G8" t="s">
@@ -10423,13 +10497,13 @@
       <c r="B9" t="s">
         <v>766</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>767</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G9" t="s">
@@ -10452,13 +10526,13 @@
       <c r="B10" t="s">
         <v>769</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>770</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G10" t="s">
@@ -10556,13 +10630,13 @@
       <c r="B2" t="s">
         <v>772</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>773</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -10585,13 +10659,13 @@
       <c r="B3" t="s">
         <v>777</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>778</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -10614,13 +10688,13 @@
       <c r="B4" t="s">
         <v>782</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>783</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -10643,13 +10717,13 @@
       <c r="B5" t="s">
         <v>787</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>788</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -10672,13 +10746,13 @@
       <c r="B6" t="s">
         <v>792</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>793</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -10701,13 +10775,13 @@
       <c r="B7" t="s">
         <v>797</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>798</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G7" t="s">
@@ -10730,13 +10804,13 @@
       <c r="B8" t="s">
         <v>802</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>803</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G8" t="s">
@@ -10832,13 +10906,13 @@
       <c r="B2" t="s">
         <v>807</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>808</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G2" t="s">
@@ -10861,13 +10935,13 @@
       <c r="B3" t="s">
         <v>812</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>813</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G3" t="s">
@@ -10890,13 +10964,13 @@
       <c r="B4" t="s">
         <v>817</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>818</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G4" t="s">
@@ -10919,13 +10993,13 @@
       <c r="B5" t="s">
         <v>822</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>823</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G5" t="s">
@@ -10948,13 +11022,13 @@
       <c r="B6" t="s">
         <v>827</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>828</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G6" t="s">
@@ -10977,13 +11051,13 @@
       <c r="B7" t="s">
         <v>832</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>833</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G7" t="s">
@@ -11006,13 +11080,13 @@
       <c r="B8" t="s">
         <v>837</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>838</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>681</v>
       </c>
       <c r="G8" t="s">
@@ -11108,13 +11182,13 @@
       <c r="B2" t="s">
         <v>842</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>843</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11204,13 +11278,13 @@
       <c r="B2" t="s">
         <v>846</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>847</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11233,13 +11307,13 @@
       <c r="B3" t="s">
         <v>851</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>852</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11262,13 +11336,13 @@
       <c r="B4" t="s">
         <v>856</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>857</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -11291,13 +11365,13 @@
       <c r="B5" t="s">
         <v>861</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>862</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -11320,13 +11394,13 @@
       <c r="B6" t="s">
         <v>866</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>867</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -11420,13 +11494,13 @@
       <c r="B2" t="s">
         <v>871</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>872</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11449,13 +11523,13 @@
       <c r="B3" t="s">
         <v>876</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>877</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11546,13 +11620,13 @@
       <c r="B2" t="s">
         <v>881</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>882</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11575,13 +11649,13 @@
       <c r="B3" t="s">
         <v>886</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>882</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11604,13 +11678,13 @@
       <c r="B4" t="s">
         <v>890</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>882</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -11633,13 +11707,13 @@
       <c r="B5" t="s">
         <v>894</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>882</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -11736,13 +11810,13 @@
       <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -11765,13 +11839,13 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
@@ -11856,22 +11930,22 @@
       <c r="A2" t="s">
         <v>897</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="8" t="s">
         <v>899</v>
       </c>
       <c r="I2" t="s">
@@ -11961,7 +12035,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G2" t="s">
@@ -11990,7 +12064,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G3" t="s">
@@ -12019,7 +12093,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G4" t="s">
@@ -12048,7 +12122,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G5" t="s">
@@ -12077,7 +12151,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G6" t="s">
@@ -12106,7 +12180,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G7" t="s">
@@ -12135,7 +12209,7 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G8" t="s">
@@ -12164,7 +12238,7 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>902</v>
       </c>
       <c r="G9" t="s">
@@ -12210,7 +12284,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -12275,7 +12349,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>933</v>
       </c>
       <c r="G2" t="s">
@@ -12304,7 +12378,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>933</v>
       </c>
       <c r="G3" t="s">
@@ -12333,7 +12407,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>933</v>
       </c>
       <c r="G4" t="s">
@@ -12362,7 +12436,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>933</v>
       </c>
       <c r="G5" t="s">
@@ -12391,7 +12465,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>933</v>
       </c>
       <c r="G6" t="s">
@@ -12416,6 +12490,224 @@
     <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
     <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
     <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo" tooltip="http://hft.myfun7.com/houseWeb/houseVideo/createHouseVideo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>955</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="5" ht="50" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1"/>
+    <row r="8" ht="50" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/updateShareFlag"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/updateShareFlag"/>
+    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/updateShareFlag"/>
+    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/updateShareFlag"/>
+    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/houseWeb/erp/funHouse/updateShareFlag"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -12492,13 +12784,13 @@
       <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
@@ -12514,881 +12806,881 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H8" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A10" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H10" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H11" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="I11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H12" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="I12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H13" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="I13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="I14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A15" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H15" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="I15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A16" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H16" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="8" t="s">
+      <c r="I16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A17" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H17" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="I17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A18" s="8" t="s">
+    <row r="18" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A18" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="I18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A19" s="8" t="s">
+    <row r="19" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A19" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H19" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="I19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A20" s="8" t="s">
+    <row r="20" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A20" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H20" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="I20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A21" s="8" t="s">
+    <row r="21" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A21" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H21" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="I21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A22" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H22" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="I22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" s="16" customFormat="1" ht="81" customHeight="1" spans="1:17">
-      <c r="A23" s="13" t="s">
+    <row r="23" s="20" customFormat="1" ht="81" customHeight="1" spans="1:17">
+      <c r="A23" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
         <v>103</v>
       </c>
       <c r="H23" t="s">
         <v>170</v>
       </c>
-      <c r="I23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13" t="s">
+      <c r="I23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A24" s="8" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A24" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="I24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A25" s="8" t="s">
+    <row r="25" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A25" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>177</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A26" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H26" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A27" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="10" t="s">
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H27" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="8" t="s">
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="8" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A28" s="8" t="s">
+    <row r="28" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A28" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="D28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H28" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="8" t="s">
+      <c r="I28" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A29" s="8" t="s">
+    <row r="29" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A29" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="D29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="I29" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A30" s="8" t="s">
+    <row r="30" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A30" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="10" t="s">
+      <c r="D30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="8" t="s">
+      <c r="I30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A31" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="8" t="s">
+      <c r="G31" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="8" t="s">
+      <c r="I31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A32" s="8" t="s">
+    <row r="32" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A32" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="8" t="s">
+      <c r="I32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -13502,7 +13794,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>202</v>
       </c>
       <c r="G2" t="s">
@@ -13592,13 +13884,13 @@
       <c r="B2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>206</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -13614,699 +13906,699 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="1" ht="50" customHeight="1" spans="1:13">
+    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A4" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="8" t="s">
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="8" t="s">
+    <row r="5" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="8" t="s">
+    <row r="6" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="I6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="G7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="8" t="s">
+      <c r="I7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A8" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="G8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="8" t="s">
+      <c r="I8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="8" t="s">
+    <row r="9" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="G9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="8" t="s">
+      <c r="I9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="8" t="s">
+    <row r="10" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="8" t="s">
+      <c r="I10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="8" t="s">
+      <c r="I11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="8" t="s">
+    <row r="12" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="I12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="8" t="s">
+    <row r="13" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="G13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="I13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="8" t="s">
+    <row r="14" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="8" t="s">
+      <c r="I14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="8" t="s">
+    <row r="15" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="8" t="s">
+      <c r="I15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="8" t="s">
+    <row r="16" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="8" t="s">
+      <c r="I16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="8" t="s">
+      <c r="I17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="8" t="s">
+    <row r="18" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>257</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="8" t="s">
+      <c r="I18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="8" t="s">
+    <row r="19" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="G19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="8" t="s">
+      <c r="I19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="8" t="s">
+    <row r="20" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="8" t="s">
+      <c r="I20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" s="8" customFormat="1" ht="135" spans="1:13">
-      <c r="A21" s="8" t="s">
+    <row r="21" s="12" customFormat="1" ht="135" spans="1:13">
+      <c r="A21" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="10" t="s">
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="8" t="s">
+      <c r="I21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="8" t="s">
+      <c r="I22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" s="8" customFormat="1" ht="108" spans="1:13">
-      <c r="A23" s="8" t="s">
+    <row r="23" s="12" customFormat="1" ht="108" spans="1:13">
+      <c r="A23" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="D23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="I23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:13">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="12" t="s">
         <v>276</v>
       </c>
       <c r="B24" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="8" t="s">
+      <c r="I24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" ht="135" spans="1:13">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>279</v>
       </c>
       <c r="B25" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="8" t="s">
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" ht="135" spans="1:13">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="12" t="s">
         <v>283</v>
       </c>
       <c r="B26" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="12" t="s">
         <v>103</v>
       </c>
       <c r="H26" t="s">
         <v>285</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="8" t="s">
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -14408,13 +14700,13 @@
       <c r="B2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G2" t="s">
@@ -14437,13 +14729,13 @@
       <c r="B3" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G3" t="s">
@@ -14455,7 +14747,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>295</v>
       </c>
     </row>
@@ -14466,13 +14758,13 @@
       <c r="B4" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>289</v>
       </c>
       <c r="G4" t="s">
@@ -14484,7 +14776,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>295</v>
       </c>
     </row>
@@ -14583,13 +14875,13 @@
       <c r="B2" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>302</v>
       </c>
       <c r="G2" t="s">
@@ -14612,13 +14904,13 @@
       <c r="B3" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>302</v>
       </c>
       <c r="G3" t="s">
@@ -14630,7 +14922,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="19" t="s">
         <v>308</v>
       </c>
     </row>
@@ -14641,13 +14933,13 @@
       <c r="B4" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>302</v>
       </c>
       <c r="G4" t="s">
@@ -14659,7 +14951,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="16" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14670,13 +14962,13 @@
       <c r="B5" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>302</v>
       </c>
       <c r="G5" t="s">
@@ -14699,13 +14991,13 @@
       <c r="B6" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>302</v>
       </c>
       <c r="G6" t="s">
@@ -14717,7 +15009,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="16" t="s">
         <v>312</v>
       </c>
     </row>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="39" activeTab="42"/>
+    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="39" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -2125,6 +2125,9 @@
     <t>{"bound":"0","deptId":"904205","status":"HOUSE_STATUS-5","userId":"20174961"}</t>
   </si>
   <si>
+    <t>HouseManage_HouseStatus_neicehngjiao_test_005</t>
+  </si>
+  <si>
     <t>正确传入各参数，查询出外成交的房源</t>
   </si>
   <si>
@@ -3157,9 +3160,6 @@
   </si>
   <si>
     <t>{"caseId":"7888860","caseType":"1","photoAddr":"http://pic.myfun7.com/oss/online/tmp/2020/05/18/93bdd8d57fad45679e9d98231be4a39e.mp4_img","videoAddr":""}</t>
-  </si>
-  <si>
-    <t>{"nullvideoAddr":"nullhttp"}</t>
   </si>
   <si>
     <t>HouseManage_saleHouse_updateShareFlag_001</t>
@@ -3228,10 +3228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -3272,7 +3272,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3295,15 +3354,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3318,29 +3371,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3348,38 +3379,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3415,37 +3415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3463,13 +3433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3481,61 +3457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3553,7 +3487,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3565,19 +3535,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3589,13 +3577,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3606,17 +3606,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3631,30 +3620,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3687,7 +3652,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3706,6 +3691,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3714,10 +3714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3726,16 +3726,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3747,116 +3747,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3879,9 +3879,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -3892,15 +3889,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4320,7 +4308,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
@@ -4329,13 +4317,13 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
@@ -4349,7 +4337,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
@@ -4358,13 +4346,13 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -4378,7 +4366,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
@@ -4387,13 +4375,13 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
@@ -4407,7 +4395,7 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -4416,13 +4404,13 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
@@ -4436,7 +4424,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
@@ -4445,13 +4433,13 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -4465,7 +4453,7 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
@@ -4474,10 +4462,10 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
@@ -4488,10 +4476,10 @@
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="2:7">
-      <c r="B8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" s="3"/>
@@ -4576,7 +4564,7 @@
       <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
@@ -4594,7 +4582,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4605,7 +4593,7 @@
       <c r="B3" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
@@ -4623,7 +4611,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="15" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4634,7 +4622,7 @@
       <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D4" t="s">
@@ -4652,7 +4640,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="15" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4663,7 +4651,7 @@
       <c r="B5" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D5" t="s">
@@ -4681,7 +4669,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="15" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4692,7 +4680,7 @@
       <c r="B6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D6" t="s">
@@ -4710,34 +4698,34 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="7"/>
+      <c r="C7" s="2"/>
       <c r="E7" s="3"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="7"/>
+      <c r="C8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="M8" s="19"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="7"/>
+      <c r="C9" s="2"/>
       <c r="E9" s="3"/>
-      <c r="M9" s="19"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:13">
-      <c r="C10" s="7"/>
+      <c r="C10" s="2"/>
       <c r="E10" s="3"/>
-      <c r="M10" s="19"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:13">
-      <c r="C11" s="7"/>
+      <c r="C11" s="2"/>
       <c r="E11" s="3"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" ht="50" customHeight="1"/>
     <row r="13" ht="50" customHeight="1"/>
@@ -4823,7 +4811,7 @@
       <c r="B2" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
@@ -4841,7 +4829,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4852,7 +4840,7 @@
       <c r="B3" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
@@ -4870,7 +4858,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4881,7 +4869,7 @@
       <c r="B4" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D4" t="s">
@@ -4899,7 +4887,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4999,13 +4987,13 @@
       <c r="B2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>353</v>
       </c>
       <c r="G2" t="s">
@@ -5017,7 +5005,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5028,13 +5016,13 @@
       <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>353</v>
       </c>
       <c r="G3" t="s">
@@ -5046,7 +5034,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="15" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5057,13 +5045,13 @@
       <c r="B4" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>353</v>
       </c>
       <c r="G4" t="s">
@@ -5075,7 +5063,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="15" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5157,13 +5145,13 @@
       <c r="B2" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -5175,7 +5163,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5186,13 +5174,13 @@
       <c r="B3" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -5204,7 +5192,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5215,13 +5203,13 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -5233,7 +5221,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5313,13 +5301,13 @@
       <c r="B2" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G2" t="s">
@@ -5331,7 +5319,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5342,13 +5330,13 @@
       <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G3" t="s">
@@ -5360,7 +5348,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="15" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5371,13 +5359,13 @@
       <c r="B4" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G4" t="s">
@@ -5389,7 +5377,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="15" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5400,13 +5388,13 @@
       <c r="B5" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>376</v>
       </c>
       <c r="G5" t="s">
@@ -5418,14 +5406,14 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="15" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
-      <c r="C6" s="7"/>
-      <c r="E6" s="9"/>
-      <c r="M6" s="16"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="8"/>
+      <c r="M6" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5504,7 +5492,7 @@
       <c r="B2" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>389</v>
       </c>
       <c r="D2" t="s">
@@ -5522,7 +5510,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5533,7 +5521,7 @@
       <c r="B3" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>393</v>
       </c>
       <c r="D3" t="s">
@@ -5551,7 +5539,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>394</v>
       </c>
     </row>
@@ -5562,7 +5550,7 @@
       <c r="B4" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>397</v>
       </c>
       <c r="D4" t="s">
@@ -5580,7 +5568,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5665,7 +5653,7 @@
       <c r="B2" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
@@ -5683,7 +5671,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5694,7 +5682,7 @@
       <c r="B3" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
@@ -5712,7 +5700,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>404</v>
       </c>
     </row>
@@ -5723,7 +5711,7 @@
       <c r="B4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
@@ -5741,7 +5729,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5752,7 +5740,7 @@
       <c r="B5" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D5" t="s">
@@ -5770,7 +5758,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5781,7 +5769,7 @@
       <c r="B6" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D6" t="s">
@@ -5799,7 +5787,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5810,7 +5798,7 @@
       <c r="B7" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D7" t="s">
@@ -5828,7 +5816,7 @@
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="12" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5839,7 +5827,7 @@
       <c r="B8" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D8" t="s">
@@ -5857,7 +5845,7 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="12" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5868,7 +5856,7 @@
       <c r="B9" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D9" t="s">
@@ -5886,7 +5874,7 @@
       <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5971,7 +5959,7 @@
       <c r="B2" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>425</v>
       </c>
       <c r="D2" t="s">
@@ -5989,7 +5977,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6000,7 +5988,7 @@
       <c r="B3" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D3" t="s">
@@ -6018,7 +6006,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6029,7 +6017,7 @@
       <c r="B4" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D4" t="s">
@@ -6047,7 +6035,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -6068,7 +6056,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6127,7 +6115,7 @@
       <c r="B2" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
@@ -6145,7 +6133,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6156,7 +6144,7 @@
       <c r="B3" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
@@ -6174,7 +6162,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6185,7 +6173,7 @@
       <c r="B4" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
@@ -6203,7 +6191,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6214,7 +6202,7 @@
       <c r="B5" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
@@ -6232,7 +6220,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="12" t="s">
         <v>440</v>
       </c>
     </row>
@@ -6243,7 +6231,7 @@
       <c r="B6" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
@@ -6261,24 +6249,24 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="7"/>
+      <c r="C7" s="2"/>
       <c r="E7" s="6"/>
-      <c r="M7" s="16"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="7"/>
+      <c r="C8" s="2"/>
       <c r="E8" s="6"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="7"/>
+      <c r="C9" s="2"/>
       <c r="E9" s="6"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6351,90 +6339,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6454,8 +6442,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6521,22 +6509,22 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -6553,19 +6541,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -6582,19 +6570,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -6611,19 +6599,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -6640,19 +6628,19 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
@@ -6669,19 +6657,19 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
@@ -6698,19 +6686,19 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I8" t="s">
@@ -6727,19 +6715,19 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I9" t="s">
@@ -6756,19 +6744,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -6785,19 +6773,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -6814,19 +6802,19 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -6843,19 +6831,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -6944,13 +6932,13 @@
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:13">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D2" t="s">
@@ -6973,13 +6961,13 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>472</v>
       </c>
       <c r="D3" t="s">
@@ -7002,13 +6990,13 @@
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:13">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D4" t="s">
@@ -7026,18 +7014,18 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D5" t="s">
@@ -7055,18 +7043,18 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:13">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B6" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D6" t="s">
@@ -7084,18 +7072,18 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:13">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B7" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D7" t="s">
@@ -7113,21 +7101,21 @@
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="1"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="12"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="1"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="1"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7208,7 +7196,7 @@
       <c r="B2" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
@@ -7230,849 +7218,849 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="54" spans="1:13">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="1" customFormat="1" ht="54" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="12" t="s">
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="12" t="s">
+    <row r="16" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="12" t="s">
+    <row r="17" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="12" t="s">
+    <row r="19" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A21" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" s="12" customFormat="1" ht="108" spans="1:14">
-      <c r="A23" s="17" t="s">
+    <row r="23" s="1" customFormat="1" ht="108" spans="1:14">
+      <c r="A23" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17" t="s">
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A24" s="12" t="s">
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A24" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="12" t="s">
+      <c r="G24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="12" t="s">
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A25" s="12" t="s">
+    <row r="25" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A25" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="12" t="s">
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A26" s="12" t="s">
+    <row r="26" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A26" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="12" t="s">
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A27" s="12" t="s">
+    <row r="27" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A27" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="12" t="s">
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A28" s="12" t="s">
+    <row r="28" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A28" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="12" t="s">
+      <c r="I28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A29" s="12" t="s">
+    <row r="29" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A29" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="12" t="s">
+      <c r="I29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A30" s="12" t="s">
+    <row r="30" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A30" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="12" t="s">
+      <c r="I30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A31" s="12" t="s">
+    <row r="31" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A31" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="12" t="s">
+      <c r="I31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8179,7 +8167,7 @@
       <c r="B2" t="s">
         <v>577</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
@@ -8197,7 +8185,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8208,7 +8196,7 @@
       <c r="B3" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
@@ -8226,7 +8214,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8237,7 +8225,7 @@
       <c r="B4" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
@@ -8255,7 +8243,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8266,7 +8254,7 @@
       <c r="B5" t="s">
         <v>584</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
@@ -8284,7 +8272,7 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="12" t="s">
         <v>578</v>
       </c>
     </row>
@@ -8295,7 +8283,7 @@
       <c r="B6" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
@@ -8313,7 +8301,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8395,13 +8383,13 @@
       <c r="B2" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -8413,7 +8401,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>590</v>
       </c>
     </row>
@@ -8424,13 +8412,13 @@
       <c r="B3" t="s">
         <v>592</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="5" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -8442,7 +8430,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>590</v>
       </c>
     </row>
@@ -8453,13 +8441,13 @@
       <c r="B4" t="s">
         <v>595</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="5" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -8471,7 +8459,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>590</v>
       </c>
     </row>
@@ -8551,13 +8539,13 @@
       <c r="B2" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>599</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -8569,7 +8557,7 @@
       <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8580,13 +8568,13 @@
       <c r="B3" t="s">
         <v>602</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>599</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -8598,7 +8586,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8609,13 +8597,13 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>599</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -8627,7 +8615,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8648,7 +8636,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -8707,7 +8695,7 @@
       <c r="B2" t="s">
         <v>606</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>607</v>
       </c>
       <c r="D2" t="s">
@@ -8719,7 +8707,7 @@
       <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>609</v>
       </c>
       <c r="I2" t="s">
@@ -8729,119 +8717,119 @@
         <v>610</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="1" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="81" spans="1:13">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="1" customFormat="1" ht="81" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="81" spans="1:13">
-      <c r="A6" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="6" s="1" customFormat="1" ht="81" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>610</v>
       </c>
     </row>
@@ -8918,13 +8906,13 @@
     </row>
     <row r="2" ht="148.5" spans="1:13">
       <c r="A2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>628</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -8935,8 +8923,8 @@
       <c r="G2" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>629</v>
+      <c r="H2" s="11" t="s">
+        <v>630</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -8947,13 +8935,13 @@
     </row>
     <row r="3" ht="148.5" spans="1:13">
       <c r="A3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -8964,8 +8952,8 @@
       <c r="G3" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>632</v>
+      <c r="H3" s="11" t="s">
+        <v>633</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -8974,119 +8962,119 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" s="1" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>638</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:13">
-      <c r="A6" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" ht="148.5" spans="1:13">
-      <c r="A7" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9164,60 +9152,60 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>647</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>652</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>653</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -9290,60 +9278,60 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>657</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>658</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B3" t="s">
-        <v>661</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>662</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>663</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -9414,119 +9402,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A2" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" t="s">
+        <v>672</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="s">
+    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" t="s">
+        <v>675</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
+    <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>674</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>677</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9548,7 +9536,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -9607,22 +9595,22 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -9701,60 +9689,60 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>680</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>681</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>681</v>
+      <c r="E2" s="10" t="s">
+        <v>682</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>686</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>687</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>681</v>
+      <c r="E3" s="10" t="s">
+        <v>682</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -9827,60 +9815,60 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B2" t="s">
-        <v>690</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>691</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>692</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>681</v>
+      <c r="E2" s="10" t="s">
+        <v>682</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B3" t="s">
-        <v>695</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>696</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>681</v>
+      <c r="E3" s="10" t="s">
+        <v>682</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -9953,13 +9941,13 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>701</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>702</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -9971,24 +9959,24 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B3" t="s">
-        <v>705</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>706</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>707</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -10000,24 +9988,24 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>711</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>712</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -10029,24 +10017,24 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B5" t="s">
-        <v>715</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>716</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -10058,24 +10046,24 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" ht="108" spans="1:13">
       <c r="A6" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>721</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -10087,24 +10075,24 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B7" t="s">
-        <v>725</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>726</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>727</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -10116,24 +10104,24 @@
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:13">
       <c r="A8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B8" t="s">
-        <v>730</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>731</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>732</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -10145,24 +10133,24 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:13">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B9" t="s">
-        <v>735</v>
-      </c>
-      <c r="C9" s="7" t="s">
         <v>736</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -10174,24 +10162,24 @@
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" ht="108" spans="1:13">
       <c r="A10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
-        <v>740</v>
-      </c>
-      <c r="C10" s="7" t="s">
         <v>741</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>742</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -10203,13 +10191,13 @@
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -10289,263 +10277,263 @@
     </row>
     <row r="2" ht="108" spans="1:13">
       <c r="A2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B2" t="s">
-        <v>745</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>746</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>747</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>749</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>750</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B4" t="s">
-        <v>751</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>752</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>753</v>
+      </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B5" t="s">
-        <v>754</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>755</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>756</v>
+      </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" ht="108" spans="1:13">
       <c r="A6" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B6" t="s">
-        <v>757</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>758</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>759</v>
+      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B7" t="s">
-        <v>760</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>761</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>762</v>
+      </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:13">
       <c r="A8" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B8" t="s">
-        <v>763</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>764</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>765</v>
+      </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="9" ht="108" spans="1:13">
       <c r="A9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B9" t="s">
-        <v>766</v>
-      </c>
-      <c r="C9" s="7" t="s">
         <v>767</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>768</v>
+      </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" ht="108" spans="1:13">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B10" t="s">
-        <v>769</v>
-      </c>
-      <c r="C10" s="7" t="s">
         <v>770</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>771</v>
+      </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
       <c r="M10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -10625,13 +10613,13 @@
     </row>
     <row r="2" ht="94.5" spans="1:13">
       <c r="A2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B2" t="s">
-        <v>772</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>773</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>774</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -10643,24 +10631,24 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B3" t="s">
-        <v>777</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>778</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>779</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -10672,24 +10660,24 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B4" t="s">
-        <v>782</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>783</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>784</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -10701,24 +10689,24 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B5" t="s">
-        <v>787</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>788</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -10730,24 +10718,24 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="6" ht="108" spans="1:13">
       <c r="A6" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B6" t="s">
-        <v>792</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>793</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>794</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -10759,24 +10747,24 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B7" t="s">
-        <v>797</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>798</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -10788,24 +10776,24 @@
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" ht="108" spans="1:13">
       <c r="A8" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B8" t="s">
-        <v>802</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>803</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>804</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -10817,13 +10805,13 @@
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -10901,205 +10889,205 @@
     </row>
     <row r="2" ht="94.5" spans="1:13">
       <c r="A2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>808</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>809</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" ht="108" spans="1:13">
       <c r="A3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B3" t="s">
-        <v>812</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>813</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>814</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:13">
       <c r="A4" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B4" t="s">
-        <v>817</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>818</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>819</v>
+      </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:13">
       <c r="A5" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B5" t="s">
-        <v>822</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>823</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>824</v>
+      </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="6" ht="108" spans="1:13">
       <c r="A6" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B6" t="s">
-        <v>827</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>828</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" ht="108" spans="1:13">
       <c r="A7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B7" t="s">
-        <v>832</v>
-      </c>
-      <c r="C7" s="7" t="s">
         <v>833</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>834</v>
+      </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="1:13">
       <c r="A8" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B8" t="s">
-        <v>837</v>
-      </c>
-      <c r="C8" s="7" t="s">
         <v>838</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>839</v>
+      </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -11177,13 +11165,13 @@
     </row>
     <row r="2" ht="81" spans="1:13">
       <c r="A2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>843</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>844</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -11195,7 +11183,7 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -11273,13 +11261,13 @@
     </row>
     <row r="2" ht="81" spans="1:13">
       <c r="A2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>847</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>848</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -11291,24 +11279,24 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:13">
       <c r="A3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B3" t="s">
-        <v>851</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>852</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>853</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -11320,24 +11308,24 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:13">
       <c r="A4" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B4" t="s">
-        <v>856</v>
-      </c>
-      <c r="C4" s="7" t="s">
         <v>857</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>858</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -11349,24 +11337,24 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="5" ht="81" spans="1:13">
       <c r="A5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B5" t="s">
-        <v>861</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>862</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -11378,24 +11366,24 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:13">
       <c r="A6" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B6" t="s">
-        <v>866</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>867</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>868</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -11407,13 +11395,13 @@
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -11489,60 +11477,60 @@
     </row>
     <row r="2" ht="94.5" spans="1:13">
       <c r="A2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B2" t="s">
-        <v>871</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>872</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>873</v>
+      </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="3" ht="121.5" spans="1:13">
       <c r="A3" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B3" t="s">
-        <v>876</v>
-      </c>
-      <c r="C3" s="7" t="s">
         <v>877</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>878</v>
+      </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -11615,13 +11603,13 @@
     </row>
     <row r="2" ht="40.5" spans="1:13">
       <c r="A2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>882</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -11633,24 +11621,24 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:13">
       <c r="A3" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B3" t="s">
-        <v>886</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>882</v>
+        <v>887</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -11662,24 +11650,24 @@
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:13">
       <c r="A4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B4" t="s">
-        <v>890</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>882</v>
+        <v>891</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -11691,24 +11679,24 @@
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:13">
       <c r="A5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B5" t="s">
-        <v>894</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>882</v>
+        <v>895</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -11720,13 +11708,13 @@
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -11810,7 +11798,7 @@
       <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
@@ -11839,7 +11827,7 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
@@ -11928,25 +11916,25 @@
     </row>
     <row r="2" ht="136" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>897</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>898</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>899</v>
+      <c r="H2" s="7" t="s">
+        <v>900</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -12024,25 +12012,25 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
@@ -12053,25 +12041,25 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B3" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C3" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
@@ -12082,25 +12070,25 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C4" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -12111,147 +12099,147 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B6" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:13">
       <c r="A7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C7" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:13">
       <c r="A8" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B8" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C8" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:13">
       <c r="A9" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B9" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C9" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
       <c r="M9" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1"/>
@@ -12283,8 +12271,8 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -12338,147 +12326,147 @@
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B3" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B4" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C4" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C5" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B6" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C6" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1"/>
@@ -12501,7 +12489,7 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12720,7 +12708,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12784,7 +12772,7 @@
       <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
@@ -12806,881 +12794,881 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="12" t="s">
+    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H8" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H10" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H11" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H12" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="12" t="s">
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H13" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H15" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A16" s="12" t="s">
+    <row r="16" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H16" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A17" s="12" t="s">
+    <row r="17" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H17" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A19" s="12" t="s">
+    <row r="19" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H19" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H20" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H21" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A22" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H22" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="1" ht="81" customHeight="1" spans="1:17">
-      <c r="A23" s="17" t="s">
+    <row r="23" s="16" customFormat="1" ht="81" customHeight="1" spans="1:17">
+      <c r="A23" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
         <v>103</v>
       </c>
       <c r="H23" t="s">
         <v>170</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17" t="s">
+      <c r="I23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-    </row>
-    <row r="24" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A24" s="12" t="s">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="12" t="s">
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A25" s="12" t="s">
+    <row r="25" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A25" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>177</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="12" t="s">
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A26" s="12" t="s">
+    <row r="26" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H26" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="12" t="s">
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A27" s="12" t="s">
+    <row r="27" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A27" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H27" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="12" t="s">
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="12" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A28" s="12" t="s">
+    <row r="28" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A28" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H28" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="12" t="s">
+      <c r="I28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A29" s="12" t="s">
+    <row r="29" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A29" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="14" t="s">
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="12" t="s">
+      <c r="I29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A30" s="12" t="s">
+    <row r="30" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="12" t="s">
+      <c r="I30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A31" s="12" t="s">
+    <row r="31" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A31" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="G31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="12" t="s">
+      <c r="I31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A32" s="12" t="s">
+    <row r="32" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="14" t="s">
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="G32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="12" t="s">
+      <c r="I32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -13794,7 +13782,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>202</v>
       </c>
       <c r="G2" t="s">
@@ -13884,7 +13872,7 @@
       <c r="B2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D2" t="s">
@@ -13906,699 +13894,699 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="1" ht="50" customHeight="1" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="12" t="s">
+    <row r="5" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="12" t="s">
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="12" t="s">
+    <row r="6" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="12" t="s">
+    <row r="7" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A8" s="12" t="s">
+    <row r="8" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="12" t="s">
+    <row r="9" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="12" t="s">
+    <row r="10" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="12" t="s">
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="12" t="s">
+    <row r="11" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="12" t="s">
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="12" t="s">
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="12" t="s">
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="12" t="s">
+    <row r="16" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="12" t="s">
+    <row r="17" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="I17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>257</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="12" t="s">
+    <row r="19" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="1" ht="135" spans="1:13">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="1" customFormat="1" ht="135" spans="1:13">
+      <c r="A21" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="12" t="s">
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="12" t="s">
+    <row r="22" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="12" t="s">
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" s="12" customFormat="1" ht="108" spans="1:13">
-      <c r="A23" s="12" t="s">
+    <row r="23" s="1" customFormat="1" ht="108" spans="1:13">
+      <c r="A23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="12" t="s">
+      <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:13">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B24" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
       </c>
-      <c r="I24" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="12" t="s">
+      <c r="I24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" ht="135" spans="1:13">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B25" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="12" t="s">
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" ht="135" spans="1:13">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B26" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H26" t="s">
         <v>285</v>
       </c>
-      <c r="I26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="12" t="s">
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>105</v>
       </c>
     </row>
@@ -14700,7 +14688,7 @@
       <c r="B2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
@@ -14729,7 +14717,7 @@
       <c r="B3" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
@@ -14747,7 +14735,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>295</v>
       </c>
     </row>
@@ -14758,7 +14746,7 @@
       <c r="B4" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
@@ -14776,7 +14764,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>295</v>
       </c>
     </row>
@@ -14875,7 +14863,7 @@
       <c r="B2" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D2" t="s">
@@ -14904,7 +14892,7 @@
       <c r="B3" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D3" t="s">
@@ -14922,7 +14910,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="15" t="s">
         <v>308</v>
       </c>
     </row>
@@ -14933,7 +14921,7 @@
       <c r="B4" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D4" t="s">
@@ -14951,7 +14939,7 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>312</v>
       </c>
     </row>
@@ -14962,7 +14950,7 @@
       <c r="B5" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D5" t="s">
@@ -14991,7 +14979,7 @@
       <c r="B6" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D6" t="s">
@@ -15009,7 +14997,7 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>312</v>
       </c>
     </row>

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9585" firstSheet="39" activeTab="41"/>
+    <workbookView windowWidth="17325" windowHeight="9255" firstSheet="39" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -47,16 +47,15 @@
     <sheet name="房源管理-出售-单价排序" sheetId="42" r:id="rId38"/>
     <sheet name="房源管理-出售-房源用途查询" sheetId="43" r:id="rId39"/>
     <sheet name="退出系统" sheetId="44" r:id="rId40"/>
-    <sheet name="修改密码" sheetId="45" r:id="rId41"/>
-    <sheet name="房源管理-出售-视频上传" sheetId="46" r:id="rId42"/>
-    <sheet name="房源管理-出售-点亮合作房源" sheetId="47" r:id="rId43"/>
+    <sheet name="房源管理-出售-视频上传" sheetId="46" r:id="rId41"/>
+    <sheet name="房源管理-出售-点亮合作房源" sheetId="47" r:id="rId42"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="941">
   <si>
     <t>id</t>
   </si>
@@ -3012,96 +3011,6 @@
     <t>action=LoginOut&amp;params={"VERSON":"17, 1, 8, 29536"}</t>
   </si>
   <si>
-    <t>usercenter_modifyPwd_test_001</t>
-  </si>
-  <si>
-    <t>正确输入要修改的密码，修改密码成功</t>
-  </si>
-  <si>
-    <t>http://hft.myfun7.com/erpWeb/usercenter/modifyPwd</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"hj12345","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>usercenter_modifyPwd_test_002</t>
-  </si>
-  <si>
-    <t>密码长度为6个字符时，修改密码成功</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"hj1234","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>usercenter_modifyPwd_test_003</t>
-  </si>
-  <si>
-    <t>密码长度为20个字符时，修改密码成功</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"hj123456789012345678","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>usercenter_modifyPwd_test_004</t>
-  </si>
-  <si>
-    <t>密码长度为5个字符时，修改密码失败</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"hj123","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>{"errCode":300,"errMsg":"密码长度不能小于6位"}</t>
-  </si>
-  <si>
-    <t>usercenter_modifyPwd_test_005</t>
-  </si>
-  <si>
-    <t>密码长度为21个字符时，修改密码失败</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"hj1234567890123456789","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>{"errCode":300,"errMsg":"密码长度不能大于21位"}</t>
-  </si>
-  <si>
-    <t>usercenter_modifyPwd_test_006</t>
-  </si>
-  <si>
-    <t>密码为数字时，修改密码失败</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"123456","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>{"errCode":300,"errMsg":"密码不能全部由数字组成"}</t>
-  </si>
-  <si>
-    <t>usercenter_modifyPwd_test_007</t>
-  </si>
-  <si>
-    <t>密码为字母时，修改密码失败</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"hjhjhjhj","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>{"errCode":300,"errMsg":"密码不能全部由字母组成"}</t>
-  </si>
-  <si>
-    <t>usercenter_modifyPwd_test_008</t>
-  </si>
-  <si>
-    <t>密码为空时，修改密码失败</t>
-  </si>
-  <si>
-    <t>{"loginPassword":"","oldLoginPassword":"hejun1130"}</t>
-  </si>
-  <si>
-    <t>{"errCode":300,"errMsg":"密码不能为空"}</t>
-  </si>
-  <si>
     <t>HouseManage_saleHouse_uploadVideo_001</t>
   </si>
   <si>
@@ -3228,8 +3137,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3272,46 +3181,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3333,14 +3213,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3348,7 +3266,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3364,22 +3289,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3415,7 +3324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3427,13 +3342,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3451,55 +3390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3517,37 +3408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3565,7 +3426,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3577,25 +3474,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3606,6 +3515,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3620,6 +3564,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3647,65 +3615,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3714,10 +3623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3726,16 +3635,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3747,112 +3656,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3875,9 +3784,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3889,6 +3795,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4317,7 +4226,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="17" t="s">
@@ -4346,7 +4255,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="17" t="s">
@@ -4375,7 +4284,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -4404,7 +4313,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -4433,7 +4342,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -4462,7 +4371,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -4478,7 +4387,7 @@
     <row r="8" ht="54" customHeight="1" spans="2:7">
       <c r="B8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
     <row r="13" spans="5:5">
@@ -4570,7 +4479,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>322</v>
       </c>
       <c r="G2" t="s">
@@ -4846,7 +4755,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>340</v>
       </c>
       <c r="G3" t="s">
@@ -4875,7 +4784,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>340</v>
       </c>
       <c r="G4" t="s">
@@ -4993,7 +4902,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>353</v>
       </c>
       <c r="G2" t="s">
@@ -5022,7 +4931,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>353</v>
       </c>
       <c r="G3" t="s">
@@ -5051,7 +4960,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>353</v>
       </c>
       <c r="G4" t="s">
@@ -5151,7 +5060,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -5180,7 +5089,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -5209,7 +5118,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -5307,7 +5216,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>376</v>
       </c>
       <c r="G2" t="s">
@@ -5336,7 +5245,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>376</v>
       </c>
       <c r="G3" t="s">
@@ -5365,7 +5274,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>376</v>
       </c>
       <c r="G4" t="s">
@@ -5394,7 +5303,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>376</v>
       </c>
       <c r="G5" t="s">
@@ -5412,7 +5321,7 @@
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
       <c r="C6" s="2"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="M6" s="12"/>
     </row>
   </sheetData>
@@ -6121,7 +6030,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -6150,7 +6059,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -6179,7 +6088,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -6208,7 +6117,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -6237,7 +6146,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -6255,17 +6164,17 @@
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
       <c r="C7" s="2"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="10"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
       <c r="C8" s="2"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="10"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
       <c r="C9" s="2"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="10"/>
       <c r="M9" s="12"/>
     </row>
   </sheetData>
@@ -6352,7 +6261,7 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -6381,7 +6290,7 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -6410,7 +6319,7 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -6442,8 +6351,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6512,19 +6421,19 @@
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -6541,19 +6450,19 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="I3" t="s">
@@ -6570,19 +6479,19 @@
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>56</v>
       </c>
       <c r="I4" t="s">
@@ -6599,19 +6508,19 @@
       <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
@@ -6628,19 +6537,19 @@
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I6" t="s">
@@ -6657,19 +6566,19 @@
       <c r="B7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I7" t="s">
@@ -6686,19 +6595,19 @@
       <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>70</v>
       </c>
       <c r="I8" t="s">
@@ -6715,19 +6624,19 @@
       <c r="B9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I9" t="s">
@@ -6744,19 +6653,19 @@
       <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
@@ -6773,19 +6682,19 @@
       <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>73</v>
       </c>
       <c r="I11" t="s">
@@ -6802,19 +6711,19 @@
       <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="6" t="s">
         <v>83</v>
       </c>
       <c r="I12" t="s">
@@ -6831,19 +6740,19 @@
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>87</v>
       </c>
       <c r="I13" t="s">
@@ -8173,7 +8082,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G2" t="s">
@@ -8202,7 +8111,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G3" t="s">
@@ -8231,7 +8140,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G4" t="s">
@@ -8260,7 +8169,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G5" t="s">
@@ -8289,7 +8198,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>438</v>
       </c>
       <c r="G6" t="s">
@@ -8545,7 +8454,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>365</v>
       </c>
       <c r="G2" t="s">
@@ -8574,7 +8483,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>365</v>
       </c>
       <c r="G3" t="s">
@@ -8603,7 +8512,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>372</v>
       </c>
       <c r="G4" t="s">
@@ -8701,7 +8610,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -8917,7 +8826,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
@@ -8946,7 +8855,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G3" t="s">
@@ -8975,7 +8884,7 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -9004,7 +8913,7 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -9033,7 +8942,7 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -9062,7 +8971,7 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -9163,7 +9072,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -9192,7 +9101,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -9289,7 +9198,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -9318,7 +9227,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -9598,19 +9507,19 @@
       <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
@@ -9700,7 +9609,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>682</v>
       </c>
       <c r="G2" t="s">
@@ -9729,7 +9638,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>682</v>
       </c>
       <c r="G3" t="s">
@@ -9826,7 +9735,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>682</v>
       </c>
       <c r="G2" t="s">
@@ -9855,7 +9764,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>682</v>
       </c>
       <c r="G3" t="s">
@@ -11488,7 +11397,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11517,7 +11426,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11921,19 +11830,19 @@
       <c r="B2" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>900</v>
       </c>
       <c r="I2" t="s">
@@ -11955,324 +11864,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:13">
-      <c r="A2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B2" t="s">
-        <v>902</v>
-      </c>
-      <c r="C2" t="s">
-        <v>883</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>904</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:13">
-      <c r="A3" t="s">
-        <v>905</v>
-      </c>
-      <c r="B3" t="s">
-        <v>906</v>
-      </c>
-      <c r="C3" t="s">
-        <v>883</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>907</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" t="s">
-        <v>908</v>
-      </c>
-      <c r="B4" t="s">
-        <v>909</v>
-      </c>
-      <c r="C4" t="s">
-        <v>883</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>910</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" t="s">
-        <v>911</v>
-      </c>
-      <c r="B5" t="s">
-        <v>912</v>
-      </c>
-      <c r="C5" t="s">
-        <v>883</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>913</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" t="s">
-        <v>915</v>
-      </c>
-      <c r="B6" t="s">
-        <v>916</v>
-      </c>
-      <c r="C6" t="s">
-        <v>883</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>917</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:13">
-      <c r="A7" t="s">
-        <v>919</v>
-      </c>
-      <c r="B7" t="s">
-        <v>920</v>
-      </c>
-      <c r="C7" t="s">
-        <v>883</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>921</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="8" ht="30" customHeight="1" spans="1:13">
-      <c r="A8" t="s">
-        <v>923</v>
-      </c>
-      <c r="B8" t="s">
-        <v>924</v>
-      </c>
-      <c r="C8" t="s">
-        <v>883</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>925</v>
-      </c>
-      <c r="I8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:13">
-      <c r="A9" t="s">
-        <v>927</v>
-      </c>
-      <c r="B9" t="s">
-        <v>928</v>
-      </c>
-      <c r="C9" t="s">
-        <v>883</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>929</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="10" ht="30" customHeight="1"/>
-    <row r="11" ht="30" customHeight="1"/>
-    <row r="12" ht="30" customHeight="1"/>
-    <row r="13" ht="30" customHeight="1"/>
-    <row r="14" ht="30" customHeight="1"/>
-    <row r="15" ht="30" customHeight="1"/>
-    <row r="16" ht="30" customHeight="1"/>
-    <row r="17" ht="30" customHeight="1"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-    <hyperlink ref="E4" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-    <hyperlink ref="E6" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-    <hyperlink ref="E7" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-    <hyperlink ref="E8" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-    <hyperlink ref="E9" r:id="rId1" display="http://hft.myfun7.com/erpWeb/usercenter/modifyPwd"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -12326,147 +11921,147 @@
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>931</v>
+        <v>901</v>
       </c>
       <c r="B2" t="s">
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="C2" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>935</v>
+        <v>905</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:13">
       <c r="A3" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
       <c r="B3" t="s">
-        <v>938</v>
+        <v>908</v>
       </c>
       <c r="C3" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>939</v>
+        <v>909</v>
       </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>940</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>941</v>
+        <v>911</v>
       </c>
       <c r="B4" t="s">
-        <v>942</v>
+        <v>912</v>
       </c>
       <c r="C4" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>943</v>
+        <v>913</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>944</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1" spans="1:13">
       <c r="A5" t="s">
-        <v>945</v>
+        <v>915</v>
       </c>
       <c r="B5" t="s">
-        <v>946</v>
+        <v>916</v>
       </c>
       <c r="C5" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>947</v>
+        <v>917</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>944</v>
+        <v>914</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1" spans="1:13">
       <c r="A6" t="s">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="B6" t="s">
-        <v>949</v>
+        <v>919</v>
       </c>
       <c r="C6" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>944</v>
+        <v>914</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1"/>
@@ -12484,7 +12079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O8"/>
@@ -12544,141 +12139,141 @@
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:13">
       <c r="A2" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
       <c r="B2" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>958</v>
+        <v>928</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>959</v>
+        <v>929</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>960</v>
+        <v>930</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>961</v>
+        <v>931</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>965</v>
+        <v>935</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>966</v>
+        <v>936</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>967</v>
+        <v>937</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>968</v>
+        <v>938</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>969</v>
+        <v>939</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>970</v>
+        <v>940</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
@@ -12778,7 +12373,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G2" t="s">
@@ -13782,7 +13377,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>202</v>
       </c>
       <c r="G2" t="s">
@@ -13965,7 +13560,7 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>207</v>
       </c>
       <c r="G5" s="1" t="s">

--- a/datas/HouseManage_test_datas.xlsx
+++ b/datas/HouseManage_test_datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17325" windowHeight="9255" firstSheet="39" activeTab="40"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="服务器接口" sheetId="1" r:id="rId1"/>
@@ -49,13 +49,14 @@
     <sheet name="退出系统" sheetId="44" r:id="rId40"/>
     <sheet name="房源管理-出售-视频上传" sheetId="46" r:id="rId41"/>
     <sheet name="房源管理-出售-点亮合作房源" sheetId="47" r:id="rId42"/>
+    <sheet name="房源管理-出售-审核合同" sheetId="48" r:id="rId43"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="949">
   <si>
     <t>id</t>
   </si>
@@ -3131,14 +3132,38 @@
   <si>
     <t>{"caseId":"7889261","caseType":"1","commissionRate":"30.5","publishFlag":"1"}</t>
   </si>
+  <si>
+    <t>HouseManage_dealAduitStatus_001</t>
+  </si>
+  <si>
+    <t>正确传入各参数，合同初审成功</t>
+  </si>
+  <si>
+    <t>http://hft.myfun7.com/erpWeb/managerCenter/contract/updateMgrDealAduitStatus</t>
+  </si>
+  <si>
+    <t>{"dealId":"73191","dealType":"101","dealAuditStatus":"1","dealVerifyCon":"2321321321313"}</t>
+  </si>
+  <si>
+    <t>{"needAudit":0,"errCode":200}</t>
+  </si>
+  <si>
+    <t>HouseManage_dealAduitStatus_002</t>
+  </si>
+  <si>
+    <t>正确传入各参数，合同删除成功</t>
+  </si>
+  <si>
+    <t>{"dealId":"73191","dealType":"101","dealAuditStatus":"3","dealVerifyCon":"2321321321313"}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3183,96 +3208,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3288,7 +3223,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3324,7 +3349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3336,13 +3379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3354,19 +3403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3378,31 +3421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3414,7 +3439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3432,13 +3457,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3450,19 +3487,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3474,7 +3517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3486,25 +3529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3515,41 +3540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3564,6 +3554,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3586,32 +3609,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3623,10 +3648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3638,13 +3663,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3656,112 +3681,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3769,13 +3794,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4147,7 +4172,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4217,7 +4242,7 @@
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
@@ -4232,7 +4257,7 @@
       <c r="F2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
@@ -4246,7 +4271,7 @@
       <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C3" t="s">
@@ -4261,7 +4286,7 @@
       <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
@@ -4275,7 +4300,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
@@ -4290,7 +4315,7 @@
       <c r="F4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
@@ -4304,7 +4329,7 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C5" t="s">
@@ -4319,7 +4344,7 @@
       <c r="F5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
@@ -4333,7 +4358,7 @@
       <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="s">
@@ -4348,7 +4373,7 @@
       <c r="F6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -4362,7 +4387,7 @@
       <c r="A7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
@@ -4374,7 +4399,7 @@
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I7" t="s">
@@ -4385,13 +4410,13 @@
       </c>
     </row>
     <row r="8" ht="54" customHeight="1" spans="2:7">
-      <c r="B8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4473,7 +4498,7 @@
       <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
@@ -4502,13 +4527,13 @@
       <c r="B3" t="s">
         <v>325</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G3" t="s">
@@ -4531,13 +4556,13 @@
       <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G4" t="s">
@@ -4560,13 +4585,13 @@
       <c r="B5" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G5" t="s">
@@ -4589,13 +4614,13 @@
       <c r="B6" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>322</v>
       </c>
       <c r="G6" t="s">
@@ -4612,28 +4637,28 @@
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="2"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="2"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="2"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="2"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" ht="50" customHeight="1" spans="3:13">
-      <c r="C10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="2"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" ht="50" customHeight="1" spans="3:13">
-      <c r="C11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="2"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" ht="50" customHeight="1"/>
@@ -4720,13 +4745,13 @@
       <c r="B2" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>340</v>
       </c>
       <c r="G2" t="s">
@@ -4749,7 +4774,7 @@
       <c r="B3" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>321</v>
       </c>
       <c r="D3" t="s">
@@ -4778,7 +4803,7 @@
       <c r="B4" t="s">
         <v>348</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>349</v>
       </c>
       <c r="D4" t="s">
@@ -4896,7 +4921,7 @@
       <c r="B2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
@@ -4925,7 +4950,7 @@
       <c r="B3" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
@@ -4954,7 +4979,7 @@
       <c r="B4" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
@@ -5054,7 +5079,7 @@
       <c r="B2" t="s">
         <v>363</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
@@ -5083,7 +5108,7 @@
       <c r="B3" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D3" t="s">
@@ -5112,7 +5137,7 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D4" t="s">
@@ -5210,7 +5235,7 @@
       <c r="B2" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D2" t="s">
@@ -5239,7 +5264,7 @@
       <c r="B3" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D3" t="s">
@@ -5268,7 +5293,7 @@
       <c r="B4" t="s">
         <v>382</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D4" t="s">
@@ -5297,7 +5322,7 @@
       <c r="B5" t="s">
         <v>385</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>379</v>
       </c>
       <c r="D5" t="s">
@@ -5320,7 +5345,7 @@
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="3:13">
-      <c r="C6" s="2"/>
+      <c r="C6" s="1"/>
       <c r="E6" s="7"/>
       <c r="M6" s="12"/>
     </row>
@@ -5401,13 +5426,13 @@
       <c r="B2" t="s">
         <v>388</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>389</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5430,13 +5455,13 @@
       <c r="B3" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>393</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5459,13 +5484,13 @@
       <c r="B4" t="s">
         <v>396</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>397</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5562,13 +5587,13 @@
       <c r="B2" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5591,13 +5616,13 @@
       <c r="B3" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5620,13 +5645,13 @@
       <c r="B4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -5649,13 +5674,13 @@
       <c r="B5" t="s">
         <v>408</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G5" t="s">
@@ -5678,13 +5703,13 @@
       <c r="B6" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G6" t="s">
@@ -5707,13 +5732,13 @@
       <c r="B7" t="s">
         <v>414</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G7" t="s">
@@ -5736,13 +5761,13 @@
       <c r="B8" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G8" t="s">
@@ -5765,13 +5790,13 @@
       <c r="B9" t="s">
         <v>421</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G9" t="s">
@@ -5809,7 +5834,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -5868,13 +5893,13 @@
       <c r="B2" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>425</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -5897,13 +5922,13 @@
       <c r="B3" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>429</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G3" t="s">
@@ -5926,13 +5951,13 @@
       <c r="B4" t="s">
         <v>432</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>433</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G4" t="s">
@@ -6024,7 +6049,7 @@
       <c r="B2" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
@@ -6053,7 +6078,7 @@
       <c r="B3" t="s">
         <v>442</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
@@ -6082,7 +6107,7 @@
       <c r="B4" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
@@ -6111,7 +6136,7 @@
       <c r="B5" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
@@ -6140,7 +6165,7 @@
       <c r="B6" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
@@ -6163,17 +6188,17 @@
       </c>
     </row>
     <row r="7" ht="50" customHeight="1" spans="3:13">
-      <c r="C7" s="2"/>
+      <c r="C7" s="1"/>
       <c r="E7" s="10"/>
       <c r="M7" s="12"/>
     </row>
     <row r="8" ht="50" customHeight="1" spans="3:13">
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
       <c r="E8" s="10"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" ht="50" customHeight="1" spans="3:13">
-      <c r="C9" s="2"/>
+      <c r="C9" s="1"/>
       <c r="E9" s="10"/>
       <c r="M9" s="12"/>
     </row>
@@ -6248,90 +6273,90 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>456</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>459</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>462</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6352,7 +6377,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6418,7 +6443,7 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -6841,19 +6866,19 @@
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>468</v>
       </c>
       <c r="G2" t="s">
@@ -6870,19 +6895,19 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B3" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>472</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>468</v>
       </c>
       <c r="G3" t="s">
@@ -6899,19 +6924,19 @@
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>468</v>
       </c>
       <c r="G4" t="s">
@@ -6923,24 +6948,24 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>478</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>468</v>
       </c>
       <c r="G5" t="s">
@@ -6952,24 +6977,24 @@
       <c r="I5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B6" t="s">
         <v>481</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>468</v>
       </c>
       <c r="G6" t="s">
@@ -6981,24 +7006,24 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B7" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>468</v>
       </c>
       <c r="G7" t="s">
@@ -7010,21 +7035,21 @@
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="3"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="3"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7105,13 +7130,13 @@
       <c r="B2" t="s">
         <v>486</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>487</v>
       </c>
       <c r="G2" t="s">
@@ -7127,587 +7152,587 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>490</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>493</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>496</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>499</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>502</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="54" spans="1:13">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="3" customFormat="1" ht="54" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>511</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>514</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>517</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>520</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>523</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>526</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>529</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>532</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="1" t="s">
+    <row r="18" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>535</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>538</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>541</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A21" s="1" t="s">
+    <row r="21" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>544</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>547</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="108" spans="1:14">
+    <row r="23" s="3" customFormat="1" ht="108" spans="1:14">
       <c r="A23" s="13" t="s">
         <v>549</v>
       </c>
@@ -7727,7 +7752,7 @@
       <c r="G23" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="3" t="s">
         <v>551</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -7741,235 +7766,235 @@
       </c>
       <c r="N23" s="13"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A24" s="1" t="s">
+    <row r="24" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>553</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A25" s="1" t="s">
+    <row r="25" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A25" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>556</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A26" s="1" t="s">
+    <row r="26" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A26" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>559</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="I26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A27" s="1" t="s">
+    <row r="27" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A27" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>562</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="I27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A28" s="1" t="s">
+    <row r="28" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A28" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>565</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A29" s="1" t="s">
+    <row r="29" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A29" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>568</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="I29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A30" s="1" t="s">
+    <row r="30" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A30" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>571</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="I30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A31" s="1" t="s">
+    <row r="31" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A31" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>574</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="I31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8076,7 +8101,7 @@
       <c r="B2" t="s">
         <v>577</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D2" t="s">
@@ -8105,7 +8130,7 @@
       <c r="B3" t="s">
         <v>580</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D3" t="s">
@@ -8134,7 +8159,7 @@
       <c r="B4" t="s">
         <v>582</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D4" t="s">
@@ -8163,7 +8188,7 @@
       <c r="B5" t="s">
         <v>584</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>437</v>
       </c>
       <c r="D5" t="s">
@@ -8192,7 +8217,7 @@
       <c r="B6" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>452</v>
       </c>
       <c r="D6" t="s">
@@ -8292,7 +8317,7 @@
       <c r="B2" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D2" t="s">
@@ -8321,7 +8346,7 @@
       <c r="B3" t="s">
         <v>592</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D3" t="s">
@@ -8350,7 +8375,7 @@
       <c r="B4" t="s">
         <v>595</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>400</v>
       </c>
       <c r="D4" t="s">
@@ -8448,7 +8473,7 @@
       <c r="B2" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D2" t="s">
@@ -8477,7 +8502,7 @@
       <c r="B3" t="s">
         <v>602</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D3" t="s">
@@ -8506,7 +8531,7 @@
       <c r="B4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D4" t="s">
@@ -8604,7 +8629,7 @@
       <c r="B2" t="s">
         <v>606</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>607</v>
       </c>
       <c r="D2" t="s">
@@ -8626,119 +8651,119 @@
         <v>610</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>612</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="67.5" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="67.5" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>616</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="81" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" ht="81" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>620</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="81" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="3" customFormat="1" ht="81" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>624</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>610</v>
       </c>
     </row>
@@ -8820,7 +8845,7 @@
       <c r="B2" t="s">
         <v>628</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>629</v>
       </c>
       <c r="D2" t="s">
@@ -8849,7 +8874,7 @@
       <c r="B3" t="s">
         <v>632</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>629</v>
       </c>
       <c r="D3" t="s">
@@ -8871,119 +8896,119 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="148.5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" ht="148.5" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>638</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="6" ht="148.5" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>641</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" ht="148.5" spans="1:13">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>644</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9066,7 +9091,7 @@
       <c r="B2" t="s">
         <v>647</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>648</v>
       </c>
       <c r="D2" t="s">
@@ -9095,7 +9120,7 @@
       <c r="B3" t="s">
         <v>652</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>653</v>
       </c>
       <c r="D3" t="s">
@@ -9192,7 +9217,7 @@
       <c r="B2" t="s">
         <v>657</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>658</v>
       </c>
       <c r="D2" t="s">
@@ -9221,7 +9246,7 @@
       <c r="B3" t="s">
         <v>662</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>663</v>
       </c>
       <c r="D3" t="s">
@@ -9311,119 +9336,119 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>667</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H2" t="s">
         <v>669</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="I2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>670</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>671</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>672</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>674</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>675</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>677</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>678</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -9445,7 +9470,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -9504,7 +9529,7 @@
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -9603,7 +9628,7 @@
       <c r="B2" t="s">
         <v>680</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>681</v>
       </c>
       <c r="D2" t="s">
@@ -9632,7 +9657,7 @@
       <c r="B3" t="s">
         <v>686</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>687</v>
       </c>
       <c r="D3" t="s">
@@ -9729,7 +9754,7 @@
       <c r="B2" t="s">
         <v>691</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>692</v>
       </c>
       <c r="D2" t="s">
@@ -9758,7 +9783,7 @@
       <c r="B3" t="s">
         <v>696</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>697</v>
       </c>
       <c r="D3" t="s">
@@ -9855,13 +9880,13 @@
       <c r="B2" t="s">
         <v>701</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>702</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -9884,13 +9909,13 @@
       <c r="B3" t="s">
         <v>706</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>707</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -9913,13 +9938,13 @@
       <c r="B4" t="s">
         <v>711</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>712</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -9942,13 +9967,13 @@
       <c r="B5" t="s">
         <v>716</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>717</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -9971,13 +9996,13 @@
       <c r="B6" t="s">
         <v>721</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>722</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -10000,13 +10025,13 @@
       <c r="B7" t="s">
         <v>726</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>727</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G7" t="s">
@@ -10029,13 +10054,13 @@
       <c r="B8" t="s">
         <v>731</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>732</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G8" t="s">
@@ -10058,13 +10083,13 @@
       <c r="B9" t="s">
         <v>736</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>737</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G9" t="s">
@@ -10087,13 +10112,13 @@
       <c r="B10" t="s">
         <v>741</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>742</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G10" t="s">
@@ -10191,13 +10216,13 @@
       <c r="B2" t="s">
         <v>746</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>747</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G2" t="s">
@@ -10220,13 +10245,13 @@
       <c r="B3" t="s">
         <v>749</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>750</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G3" t="s">
@@ -10249,13 +10274,13 @@
       <c r="B4" t="s">
         <v>752</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>753</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G4" t="s">
@@ -10278,13 +10303,13 @@
       <c r="B5" t="s">
         <v>755</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>756</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G5" t="s">
@@ -10307,13 +10332,13 @@
       <c r="B6" t="s">
         <v>758</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>759</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G6" t="s">
@@ -10336,13 +10361,13 @@
       <c r="B7" t="s">
         <v>761</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>762</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G7" t="s">
@@ -10365,13 +10390,13 @@
       <c r="B8" t="s">
         <v>764</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>765</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G8" t="s">
@@ -10394,13 +10419,13 @@
       <c r="B9" t="s">
         <v>767</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>768</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G9" t="s">
@@ -10423,13 +10448,13 @@
       <c r="B10" t="s">
         <v>770</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>771</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G10" t="s">
@@ -10527,13 +10552,13 @@
       <c r="B2" t="s">
         <v>773</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>774</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -10556,13 +10581,13 @@
       <c r="B3" t="s">
         <v>778</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>779</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -10585,13 +10610,13 @@
       <c r="B4" t="s">
         <v>783</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>784</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -10614,13 +10639,13 @@
       <c r="B5" t="s">
         <v>788</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>789</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -10643,13 +10668,13 @@
       <c r="B6" t="s">
         <v>793</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>794</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -10672,13 +10697,13 @@
       <c r="B7" t="s">
         <v>798</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>799</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G7" t="s">
@@ -10701,13 +10726,13 @@
       <c r="B8" t="s">
         <v>803</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>804</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G8" t="s">
@@ -10803,13 +10828,13 @@
       <c r="B2" t="s">
         <v>808</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>809</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G2" t="s">
@@ -10832,13 +10857,13 @@
       <c r="B3" t="s">
         <v>813</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>814</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G3" t="s">
@@ -10861,13 +10886,13 @@
       <c r="B4" t="s">
         <v>818</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>819</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G4" t="s">
@@ -10890,13 +10915,13 @@
       <c r="B5" t="s">
         <v>823</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>824</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G5" t="s">
@@ -10919,13 +10944,13 @@
       <c r="B6" t="s">
         <v>828</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>829</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G6" t="s">
@@ -10948,13 +10973,13 @@
       <c r="B7" t="s">
         <v>833</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>834</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G7" t="s">
@@ -10977,13 +11002,13 @@
       <c r="B8" t="s">
         <v>838</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>839</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>682</v>
       </c>
       <c r="G8" t="s">
@@ -11079,13 +11104,13 @@
       <c r="B2" t="s">
         <v>843</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>844</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11175,13 +11200,13 @@
       <c r="B2" t="s">
         <v>847</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>848</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11204,13 +11229,13 @@
       <c r="B3" t="s">
         <v>852</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>853</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11233,13 +11258,13 @@
       <c r="B4" t="s">
         <v>857</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>858</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -11262,13 +11287,13 @@
       <c r="B5" t="s">
         <v>862</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>863</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -11291,13 +11316,13 @@
       <c r="B6" t="s">
         <v>867</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>868</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G6" t="s">
@@ -11391,7 +11416,7 @@
       <c r="B2" t="s">
         <v>872</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>873</v>
       </c>
       <c r="D2" t="s">
@@ -11420,7 +11445,7 @@
       <c r="B3" t="s">
         <v>877</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>878</v>
       </c>
       <c r="D3" t="s">
@@ -11517,13 +11542,13 @@
       <c r="B2" t="s">
         <v>882</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>883</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G2" t="s">
@@ -11546,13 +11571,13 @@
       <c r="B3" t="s">
         <v>887</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>883</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G3" t="s">
@@ -11575,13 +11600,13 @@
       <c r="B4" t="s">
         <v>891</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>883</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G4" t="s">
@@ -11604,13 +11629,13 @@
       <c r="B5" t="s">
         <v>895</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>883</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>608</v>
       </c>
       <c r="G5" t="s">
@@ -11644,7 +11669,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -11707,13 +11732,13 @@
       <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G2" t="s">
@@ -11736,13 +11761,13 @@
       <c r="B3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G3" t="s">
@@ -11771,7 +11796,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -11827,7 +11852,7 @@
       <c r="A2" t="s">
         <v>898</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>899</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -11866,8 +11891,8 @@
   <sheetPr/>
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -11932,7 +11957,7 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>904</v>
       </c>
       <c r="G2" t="s">
@@ -11961,7 +11986,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>904</v>
       </c>
       <c r="G3" t="s">
@@ -11990,7 +12015,7 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>904</v>
       </c>
       <c r="G4" t="s">
@@ -12019,7 +12044,7 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>904</v>
       </c>
       <c r="G5" t="s">
@@ -12048,7 +12073,7 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>904</v>
       </c>
       <c r="G6" t="s">
@@ -12085,7 +12110,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -12144,13 +12169,13 @@
       <c r="B2" t="s">
         <v>922</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>923</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>924</v>
       </c>
       <c r="G2" t="s">
@@ -12166,119 +12191,119 @@
         <v>926</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>927</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>928</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>929</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="4" ht="50" customHeight="1" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>932</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>933</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="5" ht="50" customHeight="1" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>936</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="6" ht="50" customHeight="1" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>939</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>924</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -12297,13 +12322,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="50" customHeight="1" spans="1:13">
+      <c r="A2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>944</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1" spans="1:13">
+      <c r="A3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>948</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="4" ht="50" customHeight="1"/>
+    <row r="5" ht="50" customHeight="1"/>
+    <row r="6" ht="50" customHeight="1"/>
+    <row r="7" ht="50" customHeight="1"/>
+    <row r="8" ht="50" customHeight="1"/>
+    <row r="9" ht="50" customHeight="1"/>
+    <row r="10" ht="50" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/updateMgrDealAduitStatus" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/updateMgrDealAduitStatus"/>
+    <hyperlink ref="E3" r:id="rId1" display="http://hft.myfun7.com/erpWeb/managerCenter/contract/updateMgrDealAduitStatus" tooltip="http://hft.myfun7.com/erpWeb/managerCenter/contract/updateMgrDealAduitStatus"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12367,7 +12525,7 @@
       <c r="B2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D2" t="s">
@@ -12389,583 +12547,583 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H5" t="s">
         <v>114</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H6" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H7" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H8" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H9" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H10" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H11" t="s">
         <v>133</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H12" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H13" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H14" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H15" t="s">
         <v>145</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H16" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H17" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A18" s="1" t="s">
+    <row r="18" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>155</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H19" t="s">
         <v>158</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A20" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H20" t="s">
         <v>161</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A21" s="1" t="s">
+    <row r="21" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H21" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H22" t="s">
         <v>167</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -13006,264 +13164,264 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A24" s="1" t="s">
+    <row r="24" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A25" s="1" t="s">
+    <row r="25" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>177</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A26" s="1" t="s">
+    <row r="26" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H26" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="I26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A27" s="1" t="s">
+    <row r="27" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H27" t="s">
         <v>183</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="I27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="81" customHeight="1" spans="1:13">
-      <c r="A28" s="1" t="s">
+    <row r="28" s="3" customFormat="1" ht="81" customHeight="1" spans="1:13">
+      <c r="A28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H28" t="s">
         <v>186</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="1" t="s">
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A29" s="1" t="s">
+    <row r="29" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A29" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="1" t="s">
+      <c r="I29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A30" s="1" t="s">
+    <row r="30" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A30" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="I30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A31" s="1" t="s">
+    <row r="31" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A31" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="I31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A32" s="1" t="s">
+    <row r="32" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A32" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="1" t="s">
+      <c r="I32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -13467,13 +13625,13 @@
       <c r="B2" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>206</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G2" t="s">
@@ -13489,699 +13647,699 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="50" customHeight="1" spans="1:13">
+    <row r="3" s="3" customFormat="1" ht="50" customHeight="1" spans="1:13">
       <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A6" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A8" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A9" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A10" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A11" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1" t="s">
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A12" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1" t="s">
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A13" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A14" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A15" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A16" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="1" t="s">
+      <c r="I17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A18" s="1" t="s">
+    <row r="18" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H18" t="s">
         <v>257</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A19" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A20" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="1" t="s">
+      <c r="I20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="135" spans="1:13">
-      <c r="A21" s="1" t="s">
+    <row r="21" s="3" customFormat="1" ht="135" spans="1:13">
+      <c r="A21" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A22" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="1" t="s">
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="108" spans="1:13">
-      <c r="A23" s="1" t="s">
+    <row r="23" s="3" customFormat="1" ht="108" spans="1:13">
+      <c r="A23" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="1" t="s">
+      <c r="I23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="24" ht="108" spans="1:13">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B24" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H24" t="s">
         <v>278</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" ht="135" spans="1:13">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B25" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H25" t="s">
         <v>282</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="1" t="s">
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" ht="135" spans="1:13">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B26" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>103</v>
       </c>
       <c r="H26" t="s">
         <v>285</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="1" t="s">
+      <c r="I26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -14283,13 +14441,13 @@
       <c r="B2" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G2" t="s">
@@ -14312,13 +14470,13 @@
       <c r="B3" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G3" t="s">
@@ -14341,13 +14499,13 @@
       <c r="B4" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G4" t="s">
@@ -14458,13 +14616,13 @@
       <c r="B2" t="s">
         <v>300</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G2" t="s">
@@ -14487,13 +14645,13 @@
       <c r="B3" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G3" t="s">
@@ -14516,13 +14674,13 @@
       <c r="B4" t="s">
         <v>310</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G4" t="s">
@@ -14545,13 +14703,13 @@
       <c r="B5" t="s">
         <v>314</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G5" t="s">
@@ -14574,13 +14732,13 @@
       <c r="B6" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>301</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>302</v>
       </c>
       <c r="G6" t="s">
